--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-500-4 (Фляга 0,5 л.)/XIII-В-28-2-500-4 (Фляга 0,5 л.) от 26.06.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-500-4 (Фляга 0,5 л.)/XIII-В-28-2-500-4 (Фляга 0,5 л.) от 26.06.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XIII-В-28-2-500-4 (Фляга 0,5 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5965EA0D-2378-426A-A9AA-99EDED54236A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F7CD2-EC1A-4A90-8129-279E6A965BB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Втулка!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$19</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="153">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -266,15 +266,6 @@
   </si>
   <si>
     <t>Плита охлаждения</t>
-  </si>
-  <si>
-    <t>Заключение: при осмотре деталей формокомплекта выявилось:</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Формокомплект соответствует требованиям КД и готов к эксплуатации.</t>
   </si>
   <si>
     <t>приемки формокомплекта для производства бутылки:</t>
@@ -505,9 +496,6 @@
     </r>
   </si>
   <si>
-    <t>По накладным 32 шт., по факту 30 шт.</t>
-  </si>
-  <si>
     <t>Дата поставки:</t>
   </si>
   <si>
@@ -534,6 +522,38 @@
   <si>
     <t xml:space="preserve"> (владелец ООО "Ведатранзит" дог. №3 от 23.01.2019)</t>
   </si>
+  <si>
+    <t>0,2 / 0,1</t>
+  </si>
+  <si>
+    <t>31 / 67</t>
+  </si>
+  <si>
+    <t>Углубления на профиле черновой формы не соответствуют чертежу (по чертежу l=43, по факту l=24).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Заключение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: при осмотре деталей формокомплекта выявилось, что черновые формы необходимо дорабатывать и приводить в соответствие согласно чертежа.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +566,7 @@
     <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -947,6 +967,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1022,7 +1047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -2157,17 +2182,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -2224,7 +2238,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="657">
+  <cellXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3151,9 +3165,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -3346,7 +3357,6 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3427,24 +3437,6 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3456,7 +3448,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3505,51 +3497,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3644,10 +3610,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3668,6 +3631,9 @@
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3732,11 +3698,14 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4114,6 +4083,54 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6760,7 +6777,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6772,358 +6789,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="508" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
-      <c r="G1" s="363" t="s">
-        <v>81</v>
+      <c r="A1" s="486" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
+      <c r="D1" s="490"/>
+      <c r="E1" s="490"/>
+      <c r="G1" s="362" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="509" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="510"/>
-      <c r="C2" s="510"/>
-      <c r="D2" s="510"/>
-      <c r="E2" s="511"/>
-      <c r="G2" s="362" t="s">
-        <v>79</v>
+      <c r="A2" s="487" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="488"/>
+      <c r="C2" s="488"/>
+      <c r="D2" s="488"/>
+      <c r="E2" s="489"/>
+      <c r="G2" s="361" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="362" t="s">
+      <c r="G3" s="361" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="491" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="513" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="514"/>
-      <c r="C4" s="514"/>
-      <c r="D4" s="514"/>
-      <c r="E4" s="514"/>
+      <c r="B4" s="492"/>
+      <c r="C4" s="492"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="492"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="515" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="516"/>
-      <c r="C5" s="516"/>
-      <c r="D5" s="516"/>
-      <c r="E5" s="517"/>
+      <c r="A5" s="493" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="494"/>
+      <c r="C5" s="494"/>
+      <c r="D5" s="494"/>
+      <c r="E5" s="495"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="508" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="512"/>
-      <c r="C7" s="512"/>
-      <c r="D7" s="512"/>
-      <c r="E7" s="512"/>
+      <c r="A7" s="486" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="490"/>
+      <c r="C7" s="490"/>
+      <c r="D7" s="490"/>
+      <c r="E7" s="490"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="518"/>
-      <c r="B8" s="519"/>
-      <c r="C8" s="519"/>
-      <c r="D8" s="519"/>
-      <c r="E8" s="520"/>
+      <c r="A8" s="496"/>
+      <c r="B8" s="497"/>
+      <c r="C8" s="497"/>
+      <c r="D8" s="497"/>
+      <c r="E8" s="498"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="508" t="s">
+      <c r="A10" s="486" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="486"/>
+      <c r="C10" s="363"/>
+      <c r="D10" s="369" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="363"/>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="484"/>
+      <c r="B11" s="485"/>
+      <c r="D11" s="368">
+        <v>44041</v>
+      </c>
+      <c r="F11" s="481" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="481"/>
+      <c r="H11" s="481"/>
+      <c r="I11" s="481"/>
+      <c r="J11" s="482" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="482"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="481" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="481"/>
+      <c r="H12" s="481"/>
+      <c r="I12" s="481"/>
+      <c r="J12" s="482" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" s="482"/>
+    </row>
+    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="373" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="508"/>
-      <c r="C10" s="364"/>
-      <c r="D10" s="370" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="364"/>
-      <c r="F10" t="s">
+      <c r="B13" s="373" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="373" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="373" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="451" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="481" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="506"/>
-      <c r="B11" s="507"/>
-      <c r="D11" s="369">
-        <v>43979</v>
-      </c>
-      <c r="F11" s="503" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="503"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="503"/>
-      <c r="J11" s="504" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="504"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="503" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="503"/>
-      <c r="H12" s="503"/>
-      <c r="I12" s="503"/>
-      <c r="J12" s="504" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="504"/>
-    </row>
-    <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="374" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="374" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="374" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="374" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="471" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="503" t="s">
+      <c r="G13" s="481"/>
+      <c r="H13" s="481"/>
+      <c r="I13" s="481"/>
+      <c r="J13" s="482" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="503"/>
-      <c r="H13" s="503"/>
-      <c r="I13" s="503"/>
-      <c r="J13" s="504" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="504"/>
+      <c r="K13" s="482"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="365" t="s">
+      <c r="A14" s="364" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="366">
+      <c r="B14" s="365">
         <v>24</v>
       </c>
-      <c r="C14" s="372" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="366">
+      <c r="C14" s="371" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="365">
         <v>32.5</v>
       </c>
-      <c r="E14" s="366">
+      <c r="E14" s="365">
         <f>B14*D14</f>
         <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="365" t="s">
+      <c r="A15" s="364" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="366">
+      <c r="B15" s="365">
         <v>24</v>
       </c>
-      <c r="C15" s="372" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="366">
+      <c r="C15" s="371" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="365">
         <v>3</v>
       </c>
-      <c r="E15" s="366">
+      <c r="E15" s="365">
         <f t="shared" ref="E15:E26" si="0">B15*D15</f>
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="365" t="s">
+      <c r="A16" s="364" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="366">
+      <c r="B16" s="365">
         <v>32</v>
       </c>
-      <c r="C16" s="372" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="366">
+      <c r="C16" s="371" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="365">
         <v>34.200000000000003</v>
       </c>
-      <c r="E16" s="366">
+      <c r="E16" s="365">
         <f t="shared" si="0"/>
         <v>1094.4000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="365" t="s">
+      <c r="A17" s="364" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="366">
+      <c r="B17" s="365">
         <v>32</v>
       </c>
-      <c r="C17" s="372" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="366">
+      <c r="C17" s="371" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="365">
         <v>1.3</v>
       </c>
-      <c r="E17" s="366">
+      <c r="E17" s="365">
         <f t="shared" si="0"/>
         <v>41.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="365" t="s">
+      <c r="A18" s="364" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="366">
+      <c r="B18" s="365">
         <v>160</v>
       </c>
-      <c r="C18" s="372" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="366">
+      <c r="C18" s="371" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="365">
         <v>1.29</v>
       </c>
-      <c r="E18" s="366">
+      <c r="E18" s="365">
         <f t="shared" si="0"/>
         <v>206.4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="365" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="366">
+      <c r="A19" s="364" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="365">
         <v>200</v>
       </c>
-      <c r="C19" s="372" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="366">
+      <c r="C19" s="371" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="365">
         <v>0.3</v>
       </c>
-      <c r="E19" s="366">
+      <c r="E19" s="365">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="365" t="s">
+      <c r="A20" s="364" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="366">
+      <c r="B20" s="365">
         <v>40</v>
       </c>
-      <c r="C20" s="372" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="366">
+      <c r="C20" s="371" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="365">
         <v>0.5</v>
       </c>
-      <c r="E20" s="366">
+      <c r="E20" s="365">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="365" t="s">
+      <c r="A21" s="364" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="366"/>
-      <c r="C21" s="372"/>
-      <c r="D21" s="366">
+      <c r="B21" s="365"/>
+      <c r="C21" s="371"/>
+      <c r="D21" s="365">
         <v>0.4</v>
       </c>
-      <c r="E21" s="366">
+      <c r="E21" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="365" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="372"/>
-      <c r="C22" s="372"/>
-      <c r="D22" s="366"/>
-      <c r="E22" s="366">
+      <c r="A22" s="364" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="371"/>
+      <c r="C22" s="371"/>
+      <c r="D22" s="365"/>
+      <c r="E22" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="365" t="s">
+      <c r="A23" s="364" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="366"/>
-      <c r="C23" s="372"/>
-      <c r="D23" s="366">
+      <c r="B23" s="365"/>
+      <c r="C23" s="371"/>
+      <c r="D23" s="365">
         <v>1.7</v>
       </c>
-      <c r="E23" s="366">
+      <c r="E23" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="365" t="s">
+      <c r="A24" s="364" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="366"/>
-      <c r="C24" s="372"/>
-      <c r="D24" s="366">
+      <c r="B24" s="365"/>
+      <c r="C24" s="371"/>
+      <c r="D24" s="365">
         <v>3</v>
       </c>
-      <c r="E24" s="366">
+      <c r="E24" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="365" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="372"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="366"/>
-      <c r="E25" s="366">
+      <c r="A25" s="364" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="371"/>
+      <c r="C25" s="371"/>
+      <c r="D25" s="365"/>
+      <c r="E25" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="367" t="s">
+      <c r="A26" s="366" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="368"/>
-      <c r="C26" s="372"/>
-      <c r="D26" s="366">
+      <c r="B26" s="367"/>
+      <c r="C26" s="371"/>
+      <c r="D26" s="365">
         <v>1.5</v>
       </c>
-      <c r="E26" s="366">
+      <c r="E26" s="365">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="367" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="373"/>
-      <c r="C27" s="372"/>
-      <c r="D27" s="366"/>
-      <c r="E27" s="366"/>
+      <c r="A27" s="366" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="372"/>
+      <c r="C27" s="371"/>
+      <c r="D27" s="365"/>
+      <c r="E27" s="365"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="371"/>
-      <c r="D28" s="370"/>
-      <c r="E28" s="370">
+      <c r="A28" s="370"/>
+      <c r="D28" s="369"/>
+      <c r="E28" s="369">
         <f>SUM(E14:E27)</f>
         <v>2274.4</v>
       </c>
@@ -7136,15 +7153,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="505" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="505"/>
-      <c r="C29" s="505"/>
+      <c r="A29" s="483" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="483"/>
+      <c r="C29" s="483"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="363" t="s">
-        <v>151</v>
+      <c r="A30" s="362" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7178,7 +7195,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7217,47 +7234,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="612"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="620" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="621"/>
-      <c r="G2" s="621"/>
-      <c r="H2" s="622"/>
-      <c r="I2" s="626" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="627"/>
-      <c r="K2" s="630">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="631"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="625"/>
+      <c r="Q2" s="625"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="614"/>
-      <c r="C3" s="615"/>
-      <c r="D3" s="616"/>
-      <c r="E3" s="623" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="624"/>
-      <c r="G3" s="624"/>
-      <c r="H3" s="625"/>
-      <c r="I3" s="628"/>
-      <c r="J3" s="629"/>
-      <c r="K3" s="632"/>
-      <c r="L3" s="633"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7268,9 +7285,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="617"/>
-      <c r="C4" s="618"/>
-      <c r="D4" s="619"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7289,22 +7306,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7315,22 +7332,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7341,27 +7358,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="518">
+      <c r="C7" s="588"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="506">
+      <c r="J7" s="588"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7417,11 +7434,11 @@
       <c r="K9" s="181"/>
       <c r="L9" s="181"/>
       <c r="M9" s="194"/>
-      <c r="N9" s="336"/>
-      <c r="O9" s="336"/>
-      <c r="P9" s="337"/>
-      <c r="Q9" s="336"/>
-      <c r="R9" s="338"/>
+      <c r="N9" s="335"/>
+      <c r="O9" s="335"/>
+      <c r="P9" s="336"/>
+      <c r="Q9" s="335"/>
+      <c r="R9" s="337"/>
       <c r="S9" s="195"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7429,7 +7446,9 @@
       <c r="B10" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="183">
+        <v>68.23</v>
+      </c>
       <c r="D10" s="183">
         <v>0.05</v>
       </c>
@@ -7448,13 +7467,13 @@
       <c r="K10" s="183"/>
       <c r="L10" s="183"/>
       <c r="M10" s="183"/>
-      <c r="N10" s="339" t="s">
+      <c r="N10" s="338" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="339"/>
-      <c r="P10" s="339"/>
-      <c r="Q10" s="339"/>
-      <c r="R10" s="340"/>
+      <c r="O10" s="338"/>
+      <c r="P10" s="338"/>
+      <c r="Q10" s="338"/>
+      <c r="R10" s="339"/>
       <c r="S10" s="179"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7462,7 +7481,9 @@
       <c r="B11" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="185"/>
+      <c r="C11" s="185">
+        <v>19.850000000000001</v>
+      </c>
       <c r="D11" s="185">
         <v>0.02</v>
       </c>
@@ -7481,11 +7502,11 @@
       <c r="K11" s="185"/>
       <c r="L11" s="185"/>
       <c r="M11" s="185"/>
-      <c r="N11" s="341"/>
-      <c r="O11" s="341"/>
-      <c r="P11" s="341"/>
-      <c r="Q11" s="341"/>
-      <c r="R11" s="342"/>
+      <c r="N11" s="340"/>
+      <c r="O11" s="340"/>
+      <c r="P11" s="340"/>
+      <c r="Q11" s="340"/>
+      <c r="R11" s="341"/>
       <c r="S11" s="179"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7493,7 +7514,7 @@
       <c r="B12" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="351">
+      <c r="C12" s="350">
         <v>45.2</v>
       </c>
       <c r="D12" s="185">
@@ -7514,11 +7535,11 @@
       <c r="K12" s="185"/>
       <c r="L12" s="185"/>
       <c r="M12" s="185"/>
-      <c r="N12" s="341"/>
-      <c r="O12" s="341"/>
-      <c r="P12" s="341"/>
-      <c r="Q12" s="341"/>
-      <c r="R12" s="342"/>
+      <c r="N12" s="340"/>
+      <c r="O12" s="340"/>
+      <c r="P12" s="340"/>
+      <c r="Q12" s="340"/>
+      <c r="R12" s="341"/>
       <c r="S12" s="179"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7526,7 +7547,7 @@
       <c r="B13" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="351">
+      <c r="C13" s="350">
         <v>37</v>
       </c>
       <c r="D13" s="185">
@@ -7547,11 +7568,11 @@
       <c r="K13" s="185"/>
       <c r="L13" s="185"/>
       <c r="M13" s="185"/>
-      <c r="N13" s="341"/>
-      <c r="O13" s="341"/>
-      <c r="P13" s="341"/>
-      <c r="Q13" s="341"/>
-      <c r="R13" s="342"/>
+      <c r="N13" s="340"/>
+      <c r="O13" s="340"/>
+      <c r="P13" s="340"/>
+      <c r="Q13" s="340"/>
+      <c r="R13" s="341"/>
       <c r="S13" s="179"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7559,7 +7580,7 @@
       <c r="B14" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="351">
+      <c r="C14" s="350">
         <v>28.5</v>
       </c>
       <c r="D14" s="185">
@@ -7580,11 +7601,11 @@
       <c r="K14" s="185"/>
       <c r="L14" s="185"/>
       <c r="M14" s="185"/>
-      <c r="N14" s="341"/>
-      <c r="O14" s="341"/>
-      <c r="P14" s="341"/>
-      <c r="Q14" s="341"/>
-      <c r="R14" s="342"/>
+      <c r="N14" s="340"/>
+      <c r="O14" s="340"/>
+      <c r="P14" s="340"/>
+      <c r="Q14" s="340"/>
+      <c r="R14" s="341"/>
       <c r="S14" s="179"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7592,7 +7613,7 @@
       <c r="B15" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="351">
+      <c r="C15" s="350">
         <v>9.5</v>
       </c>
       <c r="D15" s="185">
@@ -7613,11 +7634,11 @@
       <c r="K15" s="185"/>
       <c r="L15" s="185"/>
       <c r="M15" s="185"/>
-      <c r="N15" s="341"/>
-      <c r="O15" s="341"/>
-      <c r="P15" s="341"/>
-      <c r="Q15" s="341"/>
-      <c r="R15" s="342"/>
+      <c r="N15" s="340"/>
+      <c r="O15" s="340"/>
+      <c r="P15" s="340"/>
+      <c r="Q15" s="340"/>
+      <c r="R15" s="341"/>
       <c r="S15" s="179"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7625,7 +7646,7 @@
       <c r="B16" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="351">
+      <c r="C16" s="350">
         <v>23.8</v>
       </c>
       <c r="D16" s="185">
@@ -7646,11 +7667,11 @@
       <c r="K16" s="185"/>
       <c r="L16" s="185"/>
       <c r="M16" s="185"/>
-      <c r="N16" s="341"/>
-      <c r="O16" s="341"/>
-      <c r="P16" s="341"/>
-      <c r="Q16" s="341"/>
-      <c r="R16" s="342"/>
+      <c r="N16" s="340"/>
+      <c r="O16" s="340"/>
+      <c r="P16" s="340"/>
+      <c r="Q16" s="340"/>
+      <c r="R16" s="341"/>
       <c r="S16" s="179"/>
     </row>
     <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
@@ -7677,11 +7698,11 @@
       <c r="K17" s="185"/>
       <c r="L17" s="185"/>
       <c r="M17" s="185"/>
-      <c r="N17" s="341"/>
-      <c r="O17" s="341"/>
-      <c r="P17" s="341"/>
-      <c r="Q17" s="341"/>
-      <c r="R17" s="342"/>
+      <c r="N17" s="340"/>
+      <c r="O17" s="340"/>
+      <c r="P17" s="340"/>
+      <c r="Q17" s="340"/>
+      <c r="R17" s="341"/>
       <c r="S17" s="179"/>
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7689,7 +7710,7 @@
       <c r="B18" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="351">
+      <c r="C18" s="350">
         <v>28.5</v>
       </c>
       <c r="D18" s="185">
@@ -7710,11 +7731,11 @@
       <c r="K18" s="185"/>
       <c r="L18" s="185"/>
       <c r="M18" s="185"/>
-      <c r="N18" s="341"/>
-      <c r="O18" s="341"/>
-      <c r="P18" s="341"/>
-      <c r="Q18" s="341"/>
-      <c r="R18" s="342"/>
+      <c r="N18" s="340"/>
+      <c r="O18" s="340"/>
+      <c r="P18" s="340"/>
+      <c r="Q18" s="340"/>
+      <c r="R18" s="341"/>
       <c r="S18" s="179"/>
     </row>
     <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7740,25 +7761,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="637" t="s">
-        <v>135</v>
-      </c>
-      <c r="M21" s="637"/>
-      <c r="N21" s="637"/>
-      <c r="O21" s="472"/>
-      <c r="P21" s="472"/>
-      <c r="Q21" s="488"/>
-      <c r="R21" s="488"/>
+      <c r="L21" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="616"/>
+      <c r="N21" s="616"/>
+      <c r="O21" s="452"/>
+      <c r="P21" s="452"/>
+      <c r="Q21" s="468"/>
+      <c r="R21" s="468"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P22" s="559"/>
-      <c r="Q22" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R22" s="561"/>
+      <c r="O22" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="538"/>
+      <c r="Q22" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R22" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7848,47 +7869,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="612"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="620" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="621"/>
-      <c r="G2" s="621"/>
-      <c r="H2" s="622"/>
-      <c r="I2" s="626" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="627"/>
-      <c r="K2" s="630">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="631"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="614"/>
-      <c r="C3" s="615"/>
-      <c r="D3" s="616"/>
-      <c r="E3" s="623" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="624"/>
-      <c r="G3" s="624"/>
-      <c r="H3" s="625"/>
-      <c r="I3" s="628"/>
-      <c r="J3" s="629"/>
-      <c r="K3" s="632"/>
-      <c r="L3" s="633"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7899,9 +7920,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="617"/>
-      <c r="C4" s="618"/>
-      <c r="D4" s="619"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7920,22 +7941,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7946,22 +7967,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7972,27 +7993,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="518">
+      <c r="C7" s="588"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="506">
+      <c r="J7" s="588"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8060,7 +8081,7 @@
       <c r="B10" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="354">
+      <c r="C10" s="353">
         <v>58.6</v>
       </c>
       <c r="D10" s="224">
@@ -8093,7 +8114,7 @@
       <c r="B11" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="355">
+      <c r="C11" s="354">
         <v>45.2</v>
       </c>
       <c r="D11" s="229">
@@ -8126,7 +8147,7 @@
       <c r="B12" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="355">
+      <c r="C12" s="354">
         <v>28.6</v>
       </c>
       <c r="D12" s="229">
@@ -8159,7 +8180,7 @@
       <c r="B13" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="355">
+      <c r="C13" s="354">
         <v>45.3</v>
       </c>
       <c r="D13" s="229">
@@ -8192,7 +8213,7 @@
       <c r="B14" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="355">
+      <c r="C14" s="354">
         <v>70</v>
       </c>
       <c r="D14" s="229">
@@ -8225,7 +8246,7 @@
       <c r="B15" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="355">
+      <c r="C15" s="354">
         <v>9.1</v>
       </c>
       <c r="D15" s="229">
@@ -8258,7 +8279,7 @@
       <c r="B16" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="355">
+      <c r="C16" s="354">
         <v>46</v>
       </c>
       <c r="D16" s="229">
@@ -8291,7 +8312,7 @@
       <c r="B17" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="355">
+      <c r="C17" s="354">
         <v>57.9</v>
       </c>
       <c r="D17" s="229">
@@ -8321,12 +8342,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="648" t="s">
+      <c r="B18" s="627" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="649"/>
-      <c r="D18" s="649"/>
-      <c r="E18" s="650"/>
+      <c r="C18" s="628"/>
+      <c r="D18" s="628"/>
+      <c r="E18" s="629"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8369,25 +8390,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="637" t="s">
-        <v>135</v>
-      </c>
-      <c r="M21" s="637"/>
-      <c r="N21" s="637"/>
-      <c r="O21" s="472"/>
-      <c r="P21" s="472"/>
-      <c r="Q21" s="488"/>
-      <c r="R21" s="488"/>
+      <c r="L21" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="616"/>
+      <c r="N21" s="616"/>
+      <c r="O21" s="452"/>
+      <c r="P21" s="452"/>
+      <c r="Q21" s="468"/>
+      <c r="R21" s="468"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P22" s="559"/>
-      <c r="Q22" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R22" s="561"/>
+      <c r="O22" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="538"/>
+      <c r="Q22" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R22" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8487,47 +8508,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="612"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="620" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="621"/>
-      <c r="G2" s="621"/>
-      <c r="H2" s="622"/>
-      <c r="I2" s="626" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="627"/>
-      <c r="K2" s="630">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="631"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="651"/>
-      <c r="Q2" s="651"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="614"/>
-      <c r="C3" s="615"/>
-      <c r="D3" s="616"/>
-      <c r="E3" s="623" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="624"/>
-      <c r="G3" s="624"/>
-      <c r="H3" s="625"/>
-      <c r="I3" s="628"/>
-      <c r="J3" s="629"/>
-      <c r="K3" s="632"/>
-      <c r="L3" s="633"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8538,9 +8559,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="617"/>
-      <c r="C4" s="618"/>
-      <c r="D4" s="619"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8559,22 +8580,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8585,22 +8606,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8611,27 +8632,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="518">
+      <c r="C7" s="588"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="506">
+      <c r="J7" s="588"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8699,7 +8720,7 @@
       <c r="B10" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="357"/>
+      <c r="C10" s="356"/>
       <c r="D10" s="152" t="s">
         <v>39</v>
       </c>
@@ -8730,7 +8751,7 @@
       <c r="B11" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="357"/>
+      <c r="C11" s="356"/>
       <c r="D11" s="152" t="s">
         <v>39</v>
       </c>
@@ -8761,7 +8782,7 @@
       <c r="B12" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="356">
+      <c r="C12" s="355">
         <v>60</v>
       </c>
       <c r="D12" s="152" t="s">
@@ -8794,7 +8815,7 @@
       <c r="B13" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="357"/>
+      <c r="C13" s="356"/>
       <c r="D13" s="152">
         <v>0.1</v>
       </c>
@@ -8825,7 +8846,7 @@
       <c r="B14" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="356">
+      <c r="C14" s="355">
         <v>12.7</v>
       </c>
       <c r="D14" s="152">
@@ -8858,7 +8879,7 @@
       <c r="B15" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="356">
+      <c r="C15" s="355">
         <v>50.6</v>
       </c>
       <c r="D15" s="152">
@@ -8891,7 +8912,7 @@
       <c r="B16" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="356">
+      <c r="C16" s="355">
         <v>62</v>
       </c>
       <c r="D16" s="152">
@@ -8942,25 +8963,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="637" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="637"/>
-      <c r="N19" s="637"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="L19" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="616"/>
+      <c r="N19" s="616"/>
+      <c r="O19" s="452"/>
+      <c r="P19" s="452"/>
+      <c r="Q19" s="468"/>
+      <c r="R19" s="468"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R20" s="561"/>
+      <c r="O20" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="538"/>
+      <c r="Q20" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9041,47 +9062,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="612"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="620" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="621"/>
-      <c r="G2" s="621"/>
-      <c r="H2" s="622"/>
-      <c r="I2" s="626" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="627"/>
-      <c r="K2" s="653">
+      <c r="J2" s="606"/>
+      <c r="K2" s="632">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="L2" s="654"/>
+      <c r="L2" s="633"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="652"/>
-      <c r="Q2" s="652"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="614"/>
-      <c r="C3" s="615"/>
-      <c r="D3" s="616"/>
-      <c r="E3" s="623" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="624"/>
-      <c r="G3" s="624"/>
-      <c r="H3" s="625"/>
-      <c r="I3" s="628"/>
-      <c r="J3" s="629"/>
-      <c r="K3" s="655"/>
-      <c r="L3" s="656"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="634"/>
+      <c r="L3" s="635"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9092,9 +9113,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="617"/>
-      <c r="C4" s="618"/>
-      <c r="D4" s="619"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9113,22 +9134,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9139,22 +9160,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9165,27 +9186,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="518">
+      <c r="C7" s="588"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="506">
+      <c r="J7" s="588"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9238,14 +9259,14 @@
       <c r="H9" s="277"/>
       <c r="I9" s="277"/>
       <c r="J9" s="277"/>
-      <c r="K9" s="343"/>
-      <c r="L9" s="343"/>
-      <c r="M9" s="343"/>
-      <c r="N9" s="343"/>
-      <c r="O9" s="343"/>
-      <c r="P9" s="343"/>
-      <c r="Q9" s="343"/>
-      <c r="R9" s="344"/>
+      <c r="K9" s="342"/>
+      <c r="L9" s="342"/>
+      <c r="M9" s="342"/>
+      <c r="N9" s="342"/>
+      <c r="O9" s="342"/>
+      <c r="P9" s="342"/>
+      <c r="Q9" s="342"/>
+      <c r="R9" s="343"/>
       <c r="S9" s="278"/>
     </row>
     <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9253,7 +9274,7 @@
       <c r="B10" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="378"/>
+      <c r="C10" s="376"/>
       <c r="D10" s="280">
         <v>0.1</v>
       </c>
@@ -9269,14 +9290,14 @@
       <c r="H10" s="281"/>
       <c r="I10" s="280"/>
       <c r="J10" s="280"/>
-      <c r="K10" s="345"/>
-      <c r="L10" s="345"/>
-      <c r="M10" s="345"/>
-      <c r="N10" s="345"/>
-      <c r="O10" s="345"/>
-      <c r="P10" s="345"/>
-      <c r="Q10" s="345"/>
-      <c r="R10" s="346"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="344"/>
+      <c r="N10" s="344"/>
+      <c r="O10" s="344"/>
+      <c r="P10" s="344"/>
+      <c r="Q10" s="344"/>
+      <c r="R10" s="345"/>
       <c r="S10" s="275"/>
     </row>
     <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
@@ -9284,7 +9305,7 @@
       <c r="B11" s="283" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="358"/>
+      <c r="C11" s="357"/>
       <c r="D11" s="284">
         <v>0</v>
       </c>
@@ -9300,14 +9321,14 @@
       <c r="H11" s="285"/>
       <c r="I11" s="282"/>
       <c r="J11" s="282"/>
-      <c r="K11" s="345"/>
-      <c r="L11" s="345"/>
-      <c r="M11" s="345"/>
-      <c r="N11" s="345"/>
-      <c r="O11" s="345"/>
-      <c r="P11" s="345"/>
-      <c r="Q11" s="345"/>
-      <c r="R11" s="347"/>
+      <c r="K11" s="344"/>
+      <c r="L11" s="344"/>
+      <c r="M11" s="344"/>
+      <c r="N11" s="344"/>
+      <c r="O11" s="344"/>
+      <c r="P11" s="344"/>
+      <c r="Q11" s="344"/>
+      <c r="R11" s="346"/>
       <c r="S11" s="275"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9315,7 +9336,7 @@
       <c r="B12" s="283" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="352">
+      <c r="C12" s="351">
         <v>89</v>
       </c>
       <c r="D12" s="284">
@@ -9333,14 +9354,14 @@
       <c r="H12" s="286"/>
       <c r="I12" s="284"/>
       <c r="J12" s="284"/>
-      <c r="K12" s="348"/>
-      <c r="L12" s="348"/>
-      <c r="M12" s="348"/>
-      <c r="N12" s="348"/>
-      <c r="O12" s="348"/>
-      <c r="P12" s="348"/>
-      <c r="Q12" s="348"/>
-      <c r="R12" s="349"/>
+      <c r="K12" s="347"/>
+      <c r="L12" s="347"/>
+      <c r="M12" s="347"/>
+      <c r="N12" s="347"/>
+      <c r="O12" s="347"/>
+      <c r="P12" s="347"/>
+      <c r="Q12" s="347"/>
+      <c r="R12" s="348"/>
       <c r="S12" s="275"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9348,7 +9369,7 @@
       <c r="B13" s="283" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="352">
+      <c r="C13" s="351">
         <v>12</v>
       </c>
       <c r="D13" s="284">
@@ -9366,14 +9387,14 @@
       <c r="H13" s="286"/>
       <c r="I13" s="284"/>
       <c r="J13" s="284"/>
-      <c r="K13" s="348"/>
-      <c r="L13" s="348"/>
-      <c r="M13" s="348"/>
-      <c r="N13" s="348"/>
-      <c r="O13" s="348"/>
-      <c r="P13" s="348"/>
-      <c r="Q13" s="348"/>
-      <c r="R13" s="349"/>
+      <c r="K13" s="347"/>
+      <c r="L13" s="347"/>
+      <c r="M13" s="347"/>
+      <c r="N13" s="347"/>
+      <c r="O13" s="347"/>
+      <c r="P13" s="347"/>
+      <c r="Q13" s="347"/>
+      <c r="R13" s="348"/>
       <c r="S13" s="275"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9381,7 +9402,7 @@
       <c r="B14" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="358"/>
+      <c r="C14" s="357"/>
       <c r="D14" s="284">
         <v>0.1</v>
       </c>
@@ -9397,14 +9418,14 @@
       <c r="H14" s="286"/>
       <c r="I14" s="284"/>
       <c r="J14" s="284"/>
-      <c r="K14" s="348"/>
-      <c r="L14" s="348"/>
-      <c r="M14" s="348"/>
-      <c r="N14" s="348"/>
-      <c r="O14" s="348"/>
-      <c r="P14" s="348"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="349"/>
+      <c r="K14" s="347"/>
+      <c r="L14" s="347"/>
+      <c r="M14" s="347"/>
+      <c r="N14" s="347"/>
+      <c r="O14" s="347"/>
+      <c r="P14" s="347"/>
+      <c r="Q14" s="347"/>
+      <c r="R14" s="348"/>
       <c r="S14" s="275"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9418,14 +9439,14 @@
       <c r="H15" s="290"/>
       <c r="I15" s="290"/>
       <c r="J15" s="290"/>
-      <c r="K15" s="350"/>
-      <c r="L15" s="350"/>
-      <c r="M15" s="350"/>
-      <c r="N15" s="350"/>
-      <c r="O15" s="350"/>
-      <c r="P15" s="350"/>
-      <c r="Q15" s="350"/>
-      <c r="R15" s="332"/>
+      <c r="K15" s="349"/>
+      <c r="L15" s="349"/>
+      <c r="M15" s="349"/>
+      <c r="N15" s="349"/>
+      <c r="O15" s="349"/>
+      <c r="P15" s="349"/>
+      <c r="Q15" s="349"/>
+      <c r="R15" s="331"/>
       <c r="S15" s="275"/>
     </row>
     <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9451,25 +9472,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="637" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="637"/>
-      <c r="N18" s="637"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="472"/>
-      <c r="Q18" s="488"/>
-      <c r="R18" s="488"/>
+      <c r="L18" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="616"/>
+      <c r="N18" s="616"/>
+      <c r="O18" s="452"/>
+      <c r="P18" s="452"/>
+      <c r="Q18" s="468"/>
+      <c r="R18" s="468"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="559"/>
-      <c r="Q19" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R19" s="561"/>
+      <c r="O19" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="538"/>
+      <c r="Q19" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9520,16 +9541,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -9543,1031 +9564,1056 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="380"/>
-      <c r="B1" s="470" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="380"/>
-      <c r="D1" s="469" t="str">
+      <c r="A1" s="378"/>
+      <c r="B1" s="450" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="378"/>
+      <c r="D1" s="449" t="str">
         <f>Данные!A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="380"/>
-      <c r="B2" s="380" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="380"/>
-      <c r="H2" s="380"/>
-      <c r="I2" s="380"/>
-      <c r="J2" s="380"/>
-      <c r="K2" s="381"/>
-      <c r="L2" s="381"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="378"/>
+      <c r="I2" s="378"/>
+      <c r="J2" s="378"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="496"/>
-      <c r="B3" s="497" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="498">
+      <c r="A3" s="473"/>
+      <c r="B3" s="474" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="475">
         <f>Данные!D11</f>
-        <v>43979</v>
-      </c>
-      <c r="D3" s="499" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="496"/>
-      <c r="G3" s="496"/>
-      <c r="H3" s="496"/>
-      <c r="I3" s="496"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="383"/>
+        <v>44041</v>
+      </c>
+      <c r="D3" s="476" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="473"/>
+      <c r="G3" s="473"/>
+      <c r="H3" s="473"/>
+      <c r="I3" s="473"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="380"/>
+      <c r="M3" s="381"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="383"/>
-      <c r="F4" s="384"/>
-      <c r="G4" s="385"/>
-      <c r="H4" s="384"/>
-      <c r="I4" s="384"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="382"/>
-      <c r="M4" s="364"/>
+      <c r="A4" s="381"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="383"/>
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="380"/>
+      <c r="K4" s="380"/>
+      <c r="M4" s="363"/>
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="386" t="s">
+      <c r="A5" s="384" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="385" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="385" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="386" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="385" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="387" t="s">
+      <c r="F5" s="385" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="387" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="388" t="s">
+      <c r="G5" s="385" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="387" t="s">
+      <c r="H5" s="387" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="387" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="387" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="389" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="390"/>
-      <c r="J5" s="390"/>
-      <c r="K5" s="390"/>
-      <c r="L5" s="390"/>
+      <c r="I5" s="388"/>
+      <c r="J5" s="388"/>
+      <c r="K5" s="388"/>
+      <c r="L5" s="388"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="391">
+      <c r="A6" s="389">
         <v>1</v>
       </c>
-      <c r="B6" s="392" t="str">
+      <c r="B6" s="390" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
-      <c r="C6" s="372" t="str">
+      <c r="C6" s="371" t="str">
         <f>Данные!C14</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="D6" s="393">
+      <c r="D6" s="391">
         <f>Данные!$B14</f>
         <v>24</v>
       </c>
-      <c r="E6" s="393">
+      <c r="E6" s="391">
         <v>24</v>
       </c>
-      <c r="F6" s="394"/>
-      <c r="G6" s="393">
+      <c r="F6" s="392"/>
+      <c r="G6" s="391">
         <f>E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="395"/>
-      <c r="I6" s="396"/>
-      <c r="J6" s="383"/>
-      <c r="K6" s="383"/>
-      <c r="L6" s="396"/>
+      <c r="H6" s="393"/>
+      <c r="I6" s="394"/>
+      <c r="J6" s="381"/>
+      <c r="K6" s="381"/>
+      <c r="L6" s="394"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="397">
+      <c r="A7" s="395">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="398" t="str">
+      <c r="B7" s="396" t="str">
         <f>Данные!A15</f>
         <v>Чистовой поддон</v>
       </c>
-      <c r="C7" s="372" t="str">
+      <c r="C7" s="371" t="str">
         <f>Данные!C15</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="D7" s="399">
+      <c r="D7" s="397">
         <f>Данные!$B15</f>
         <v>24</v>
       </c>
-      <c r="E7" s="399">
+      <c r="E7" s="397">
         <v>24</v>
       </c>
-      <c r="F7" s="379"/>
-      <c r="G7" s="399">
-        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
+      <c r="F7" s="377"/>
+      <c r="G7" s="397">
+        <f t="shared" ref="G7:G16" si="0">E7-F7</f>
         <v>24</v>
       </c>
-      <c r="H7" s="400"/>
-      <c r="I7" s="396"/>
-      <c r="J7" s="383"/>
-      <c r="K7" s="383"/>
-      <c r="L7" s="396"/>
+      <c r="H7" s="398"/>
+      <c r="I7" s="394"/>
+      <c r="J7" s="381"/>
+      <c r="K7" s="381"/>
+      <c r="L7" s="394"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="397">
-        <f t="shared" ref="A8:A17" si="1">A7+1</f>
+      <c r="A8" s="395">
+        <f t="shared" ref="A8:A16" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="398" t="str">
+      <c r="B8" s="396" t="str">
         <f>Данные!A16</f>
         <v>Черновая форма</v>
       </c>
-      <c r="C8" s="372" t="str">
+      <c r="C8" s="371" t="str">
         <f>Данные!C16</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="D8" s="399">
+      <c r="D8" s="397">
         <f>Данные!$B16</f>
         <v>32</v>
       </c>
-      <c r="E8" s="399">
+      <c r="E8" s="397">
         <v>32</v>
       </c>
-      <c r="F8" s="379"/>
-      <c r="G8" s="399">
+      <c r="F8" s="377"/>
+      <c r="G8" s="397">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="401"/>
-      <c r="I8" s="396"/>
-      <c r="J8" s="383"/>
-      <c r="K8" s="383"/>
-      <c r="L8" s="396"/>
+      <c r="H8" s="399"/>
+      <c r="I8" s="394"/>
+      <c r="J8" s="381"/>
+      <c r="K8" s="381"/>
+      <c r="L8" s="394"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="397">
+      <c r="A9" s="395">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="398" t="str">
+      <c r="B9" s="396" t="str">
         <f>Данные!A17</f>
         <v>Черновой поддон</v>
       </c>
-      <c r="C9" s="372" t="str">
+      <c r="C9" s="371" t="str">
         <f>Данные!C17</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="D9" s="399">
+      <c r="D9" s="397">
         <f>Данные!$B17</f>
         <v>32</v>
       </c>
-      <c r="E9" s="399">
+      <c r="E9" s="397">
         <v>32</v>
       </c>
-      <c r="F9" s="379"/>
-      <c r="G9" s="399">
+      <c r="F9" s="377"/>
+      <c r="G9" s="397">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H9" s="401"/>
-      <c r="I9" s="396"/>
-      <c r="J9" s="402"/>
-      <c r="K9" s="383"/>
-      <c r="L9" s="396"/>
+      <c r="H9" s="399"/>
+      <c r="I9" s="394"/>
+      <c r="J9" s="400"/>
+      <c r="K9" s="381"/>
+      <c r="L9" s="394"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="397">
+      <c r="A10" s="395">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="398" t="str">
+      <c r="B10" s="396" t="str">
         <f>Данные!A18</f>
         <v>Горловое кольцо</v>
       </c>
-      <c r="C10" s="372" t="str">
+      <c r="C10" s="371" t="str">
         <f>Данные!C18</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="D10" s="399">
+      <c r="D10" s="397">
         <f>Данные!$B18</f>
         <v>160</v>
       </c>
-      <c r="E10" s="399">
+      <c r="E10" s="397">
         <v>160</v>
       </c>
-      <c r="F10" s="379"/>
-      <c r="G10" s="399">
+      <c r="F10" s="377"/>
+      <c r="G10" s="397">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="H10" s="401"/>
-      <c r="I10" s="402"/>
-      <c r="J10" s="402"/>
-      <c r="K10" s="402"/>
-      <c r="L10" s="396"/>
+      <c r="H10" s="399"/>
+      <c r="I10" s="400"/>
+      <c r="J10" s="400"/>
+      <c r="K10" s="400"/>
+      <c r="L10" s="394"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="397">
+      <c r="A11" s="395">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="398" t="str">
+      <c r="B11" s="396" t="str">
         <f>Данные!A19</f>
         <v>Направляющее кольцо</v>
       </c>
-      <c r="C11" s="372" t="str">
+      <c r="C11" s="371" t="str">
         <f>Данные!C19</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="D11" s="399">
+      <c r="D11" s="397">
         <f>Данные!$B19</f>
         <v>200</v>
       </c>
-      <c r="E11" s="399">
+      <c r="E11" s="397">
         <v>200</v>
       </c>
-      <c r="F11" s="379"/>
-      <c r="G11" s="399">
+      <c r="F11" s="377"/>
+      <c r="G11" s="397">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="H11" s="401"/>
-      <c r="I11" s="396"/>
-      <c r="J11" s="402"/>
-      <c r="K11" s="383"/>
-      <c r="L11" s="396"/>
+      <c r="H11" s="399"/>
+      <c r="I11" s="394"/>
+      <c r="J11" s="400"/>
+      <c r="K11" s="381"/>
+      <c r="L11" s="394"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="397">
+      <c r="A12" s="395">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="398" t="str">
+      <c r="B12" s="396" t="str">
         <f>Данные!A20</f>
         <v>Плунжер</v>
       </c>
-      <c r="C12" s="372" t="str">
+      <c r="C12" s="371" t="str">
         <f>Данные!C20</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="D12" s="399">
+      <c r="D12" s="397">
         <f>Данные!$B20</f>
         <v>40</v>
       </c>
-      <c r="E12" s="399">
+      <c r="E12" s="397">
         <v>40</v>
       </c>
-      <c r="F12" s="403"/>
-      <c r="G12" s="399">
+      <c r="F12" s="401"/>
+      <c r="G12" s="397">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H12" s="401"/>
-      <c r="I12" s="402"/>
-      <c r="J12" s="402"/>
-      <c r="K12" s="402"/>
-      <c r="L12" s="396"/>
-      <c r="M12" s="404"/>
+      <c r="H12" s="399"/>
+      <c r="I12" s="400"/>
+      <c r="J12" s="400"/>
+      <c r="K12" s="400"/>
+      <c r="L12" s="394"/>
+      <c r="M12" s="402"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="397">
+      <c r="A13" s="395">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="398" t="str">
+      <c r="B13" s="396" t="str">
         <f>Данные!A21</f>
         <v>Втулка плунжера</v>
       </c>
-      <c r="C13" s="372">
+      <c r="C13" s="371">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="D13" s="399">
+      <c r="D13" s="397">
         <f>Данные!$B21</f>
         <v>0</v>
       </c>
-      <c r="E13" s="399"/>
-      <c r="F13" s="405"/>
-      <c r="G13" s="399">
+      <c r="E13" s="397"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="397">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="401"/>
-      <c r="I13" s="402"/>
-      <c r="J13" s="402"/>
-      <c r="K13" s="402"/>
-      <c r="L13" s="396"/>
-      <c r="M13" s="404"/>
+      <c r="H13" s="399"/>
+      <c r="I13" s="400"/>
+      <c r="J13" s="400"/>
+      <c r="K13" s="400"/>
+      <c r="L13" s="394"/>
+      <c r="M13" s="402"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="397">
+      <c r="A14" s="395">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="398" t="str">
+      <c r="B14" s="396" t="str">
         <f>Данные!A22</f>
         <v>Хватки</v>
       </c>
-      <c r="C14" s="372">
+      <c r="C14" s="371">
         <f>Данные!C22</f>
         <v>0</v>
       </c>
-      <c r="D14" s="399">
+      <c r="D14" s="397">
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="468"/>
-      <c r="F14" s="379"/>
-      <c r="G14" s="399">
+      <c r="E14" s="448"/>
+      <c r="F14" s="377"/>
+      <c r="G14" s="397">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="401" t="s">
+      <c r="H14" s="399" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="402"/>
-      <c r="J14" s="402"/>
-      <c r="K14" s="402"/>
-      <c r="L14" s="396"/>
+      <c r="I14" s="400"/>
+      <c r="J14" s="400"/>
+      <c r="K14" s="400"/>
+      <c r="L14" s="394"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="397">
+      <c r="A15" s="395">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="398" t="str">
+      <c r="B15" s="396" t="str">
         <f>Данные!A23</f>
         <v>Воронка</v>
       </c>
-      <c r="C15" s="372">
+      <c r="C15" s="371">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="D15" s="399">
+      <c r="D15" s="397">
         <f>Данные!$B23</f>
         <v>0</v>
       </c>
-      <c r="E15" s="399"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="399">
+      <c r="E15" s="397"/>
+      <c r="F15" s="401"/>
+      <c r="G15" s="397">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="401"/>
-      <c r="I15" s="402"/>
-      <c r="J15" s="402"/>
-      <c r="K15" s="402"/>
-      <c r="L15" s="396"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="397">
+      <c r="H15" s="399"/>
+      <c r="I15" s="400"/>
+      <c r="J15" s="400"/>
+      <c r="K15" s="400"/>
+      <c r="L15" s="394"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="395">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="398" t="str">
+      <c r="B16" s="396" t="str">
         <f>Данные!A24</f>
         <v>Плита охлаждения</v>
       </c>
-      <c r="C16" s="372">
+      <c r="C16" s="371">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="D16" s="399">
+      <c r="D16" s="397">
         <f>Данные!$B24</f>
         <v>0</v>
       </c>
-      <c r="E16" s="399"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="399">
+      <c r="E16" s="397"/>
+      <c r="F16" s="377"/>
+      <c r="G16" s="397">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="401"/>
-      <c r="I16" s="402"/>
-      <c r="J16" s="402"/>
-      <c r="K16" s="402"/>
-      <c r="L16" s="396"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="406">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="407" t="str">
-        <f>Данные!A25</f>
-        <v>Охладитель плунжера</v>
-      </c>
-      <c r="C17" s="408">
-        <f>Данные!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="409">
-        <f>Данные!$B26</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="409"/>
-      <c r="F17" s="410"/>
-      <c r="G17" s="409">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="411"/>
-      <c r="I17" s="402"/>
-      <c r="J17" s="412"/>
-      <c r="K17" s="402"/>
-      <c r="L17" s="396"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="413"/>
-      <c r="B18" s="414"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="415"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="383"/>
-      <c r="I18" s="383"/>
-      <c r="J18" s="383"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="383"/>
-      <c r="B19" s="416" t="s">
+      <c r="H16" s="399"/>
+      <c r="I16" s="400"/>
+      <c r="J16" s="400"/>
+      <c r="K16" s="400"/>
+      <c r="L16" s="394"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="405"/>
+      <c r="B17" s="406"/>
+      <c r="C17" s="381"/>
+      <c r="D17" s="407"/>
+      <c r="E17" s="381"/>
+      <c r="F17" s="381"/>
+      <c r="G17" s="381"/>
+      <c r="H17" s="381"/>
+      <c r="I17" s="381"/>
+      <c r="J17" s="381"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="381"/>
+      <c r="B18" s="408" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="363"/>
+      <c r="D18" s="363"/>
+      <c r="E18" s="363"/>
+      <c r="F18" s="363"/>
+      <c r="G18" s="381"/>
+      <c r="H18" s="381"/>
+      <c r="I18" s="381"/>
+      <c r="J18" s="409"/>
+      <c r="K18" s="409"/>
+      <c r="L18" s="409"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="384" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="385" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="385" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="364"/>
-      <c r="F19" s="364"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="417"/>
-      <c r="K19" s="417"/>
-      <c r="L19" s="417"/>
-    </row>
-    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="386" t="s">
+      <c r="D19" s="385" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="387" t="s">
+      <c r="E19" s="385" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="387" t="s">
+      <c r="F19" s="385" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="387" t="s">
+      <c r="G19" s="410" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="387" t="s">
+      <c r="H19" s="411" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="387" t="s">
+      <c r="I19" s="412" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="418" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="419" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="420" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="420" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="390"/>
-      <c r="L20" s="390"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="421">
+      <c r="J19" s="412" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="388"/>
+      <c r="L19" s="388"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="413">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
+      <c r="B20" s="414">
+        <v>44123</v>
+      </c>
+      <c r="C20" s="415">
+        <v>44132</v>
+      </c>
+      <c r="D20" s="414">
+        <v>44137</v>
+      </c>
+      <c r="E20" s="416">
+        <v>1469412</v>
+      </c>
+      <c r="F20" s="416">
+        <v>1529811</v>
+      </c>
+      <c r="G20" s="417">
+        <f>F20/A$20</f>
+        <v>9.1060178571428577E-2</v>
+      </c>
+      <c r="H20" s="418">
+        <f>A20-F20</f>
+        <v>15270189</v>
+      </c>
+      <c r="I20" s="419">
+        <f>1-G20</f>
+        <v>0.90893982142857144</v>
+      </c>
+      <c r="J20" s="469"/>
+      <c r="K20" s="400"/>
+      <c r="L20" s="400"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="421"/>
       <c r="B21" s="422">
-        <v>43759</v>
-      </c>
-      <c r="C21" s="423">
-        <v>43765</v>
-      </c>
-      <c r="D21" s="422">
-        <v>43769</v>
-      </c>
-      <c r="E21" s="424">
-        <v>948096</v>
-      </c>
-      <c r="F21" s="424">
-        <v>1031915</v>
-      </c>
-      <c r="G21" s="425">
-        <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H21" s="426">
-        <f>A21-F21</f>
-        <v>15768085</v>
-      </c>
-      <c r="I21" s="427">
-        <f>1-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="489"/>
-      <c r="K21" s="402"/>
-      <c r="L21" s="402"/>
+        <v>44167</v>
+      </c>
+      <c r="C21" s="422">
+        <v>44180</v>
+      </c>
+      <c r="D21" s="480">
+        <v>44200</v>
+      </c>
+      <c r="E21" s="423">
+        <v>2065644</v>
+      </c>
+      <c r="F21" s="423">
+        <v>2149724</v>
+      </c>
+      <c r="G21" s="417">
+        <f>F21/A$20</f>
+        <v>0.12795976190476191</v>
+      </c>
+      <c r="H21" s="424">
+        <f>H20-F21</f>
+        <v>13120465</v>
+      </c>
+      <c r="I21" s="425">
+        <f>I20-G21</f>
+        <v>0.78098005952380956</v>
+      </c>
+      <c r="J21" s="470">
+        <v>370</v>
+      </c>
+      <c r="K21" s="381"/>
+      <c r="L21" s="381"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="429"/>
-      <c r="B22" s="430"/>
-      <c r="C22" s="430"/>
-      <c r="D22" s="430"/>
-      <c r="E22" s="431"/>
-      <c r="F22" s="431"/>
-      <c r="G22" s="425">
-        <f>F22/A$21</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="432">
-        <f>H21-F22</f>
-        <v>15768085</v>
-      </c>
-      <c r="I22" s="433">
-        <f>I21-G22</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J22" s="490"/>
-      <c r="K22" s="383"/>
-      <c r="L22" s="383"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="434"/>
-      <c r="B23" s="435"/>
-      <c r="C23" s="435"/>
-      <c r="D23" s="435"/>
-      <c r="E23" s="436"/>
-      <c r="F23" s="436"/>
-      <c r="G23" s="437"/>
-      <c r="H23" s="438"/>
-      <c r="I23" s="439"/>
-      <c r="J23" s="491"/>
-      <c r="K23" s="402"/>
-      <c r="L23" s="402"/>
+      <c r="A22" s="426"/>
+      <c r="B22" s="427">
+        <v>44237</v>
+      </c>
+      <c r="C22" s="427">
+        <v>44245</v>
+      </c>
+      <c r="D22" s="427">
+        <v>44256</v>
+      </c>
+      <c r="E22" s="428">
+        <v>1335348</v>
+      </c>
+      <c r="F22" s="428">
+        <v>1387997</v>
+      </c>
+      <c r="G22" s="417">
+        <f t="shared" ref="G22" si="2">F22/A$20</f>
+        <v>8.2618869047619045E-2</v>
+      </c>
+      <c r="H22" s="424">
+        <f t="shared" ref="H22" si="3">H21-F22</f>
+        <v>11732468</v>
+      </c>
+      <c r="I22" s="425">
+        <f t="shared" ref="I22" si="4">I21-G22</f>
+        <v>0.6983611904761905</v>
+      </c>
+      <c r="J22" s="471">
+        <v>371</v>
+      </c>
+      <c r="K22" s="400"/>
+      <c r="L22" s="400"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="426"/>
+      <c r="B23" s="368">
+        <v>44289</v>
+      </c>
+      <c r="C23" s="368">
+        <v>44305</v>
+      </c>
+      <c r="D23" s="368">
+        <v>44319</v>
+      </c>
+      <c r="E23" s="646">
+        <v>2531340</v>
+      </c>
+      <c r="F23" s="646">
+        <v>2618407</v>
+      </c>
+      <c r="G23" s="417">
+        <f t="shared" ref="G23" si="5">F23/A$20</f>
+        <v>0.15585755952380953</v>
+      </c>
+      <c r="H23" s="424">
+        <f t="shared" ref="H23" si="6">H22-F23</f>
+        <v>9114061</v>
+      </c>
+      <c r="I23" s="425">
+        <f t="shared" ref="I23" si="7">I22-G23</f>
+        <v>0.54250363095238097</v>
+      </c>
+      <c r="J23" s="636">
+        <v>371</v>
+      </c>
+      <c r="K23" s="420"/>
+      <c r="L23" s="381"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="434"/>
-      <c r="B24" s="375"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="375"/>
-      <c r="G24" s="375"/>
-      <c r="H24" s="375"/>
-      <c r="I24" s="440"/>
-      <c r="J24" s="492"/>
-      <c r="K24" s="428"/>
-      <c r="L24" s="383"/>
+      <c r="A24" s="426"/>
+      <c r="B24" s="368"/>
+      <c r="C24" s="368"/>
+      <c r="D24" s="368"/>
+      <c r="E24" s="647"/>
+      <c r="F24" s="647"/>
+      <c r="G24" s="637"/>
+      <c r="H24" s="650"/>
+      <c r="I24" s="429"/>
+      <c r="J24" s="471"/>
+      <c r="K24" s="430"/>
+      <c r="L24" s="381"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="434"/>
-      <c r="B25" s="435"/>
-      <c r="C25" s="435"/>
-      <c r="D25" s="435"/>
-      <c r="E25" s="436"/>
-      <c r="F25" s="436"/>
-      <c r="G25" s="441"/>
-      <c r="H25" s="438"/>
-      <c r="I25" s="439"/>
-      <c r="J25" s="491"/>
-      <c r="K25" s="442"/>
-      <c r="L25" s="383"/>
+      <c r="A25" s="426"/>
+      <c r="B25" s="368"/>
+      <c r="C25" s="368"/>
+      <c r="D25" s="368"/>
+      <c r="E25" s="647"/>
+      <c r="F25" s="647"/>
+      <c r="G25" s="637"/>
+      <c r="H25" s="650"/>
+      <c r="I25" s="429"/>
+      <c r="J25" s="471"/>
+      <c r="K25" s="420"/>
+      <c r="L25" s="381"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="434"/>
-      <c r="B26" s="435"/>
-      <c r="C26" s="435"/>
-      <c r="D26" s="435"/>
-      <c r="E26" s="436"/>
-      <c r="F26" s="436"/>
-      <c r="G26" s="441"/>
-      <c r="H26" s="438"/>
-      <c r="I26" s="439"/>
-      <c r="J26" s="491"/>
-      <c r="K26" s="428"/>
-      <c r="L26" s="383"/>
+      <c r="A26" s="426"/>
+      <c r="B26" s="368"/>
+      <c r="C26" s="368"/>
+      <c r="D26" s="368"/>
+      <c r="E26" s="647"/>
+      <c r="F26" s="647"/>
+      <c r="G26" s="637"/>
+      <c r="H26" s="650"/>
+      <c r="I26" s="429"/>
+      <c r="J26" s="471"/>
+      <c r="K26" s="420"/>
+      <c r="L26" s="381"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="434"/>
-      <c r="B27" s="435"/>
-      <c r="C27" s="435"/>
-      <c r="D27" s="435"/>
-      <c r="E27" s="438"/>
-      <c r="F27" s="436"/>
-      <c r="G27" s="441"/>
-      <c r="H27" s="438"/>
-      <c r="I27" s="439"/>
-      <c r="J27" s="491"/>
-      <c r="K27" s="428"/>
-      <c r="L27" s="383"/>
+      <c r="A27" s="426"/>
+      <c r="B27" s="368"/>
+      <c r="C27" s="368"/>
+      <c r="D27" s="368"/>
+      <c r="E27" s="647"/>
+      <c r="F27" s="647"/>
+      <c r="G27" s="637"/>
+      <c r="H27" s="650"/>
+      <c r="I27" s="429"/>
+      <c r="J27" s="471"/>
+      <c r="K27" s="420"/>
+      <c r="L27" s="381"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="434"/>
-      <c r="B28" s="435"/>
-      <c r="C28" s="435"/>
-      <c r="D28" s="435"/>
-      <c r="E28" s="438"/>
-      <c r="F28" s="436"/>
-      <c r="G28" s="441"/>
-      <c r="H28" s="438"/>
-      <c r="I28" s="439"/>
-      <c r="J28" s="491"/>
-      <c r="K28" s="428"/>
-      <c r="L28" s="383"/>
+      <c r="A28" s="426"/>
+      <c r="B28" s="368"/>
+      <c r="C28" s="368"/>
+      <c r="D28" s="365"/>
+      <c r="E28" s="646"/>
+      <c r="F28" s="647"/>
+      <c r="G28" s="638"/>
+      <c r="H28" s="650"/>
+      <c r="I28" s="639"/>
+      <c r="J28" s="640"/>
+      <c r="K28" s="420"/>
+      <c r="L28" s="381"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="434"/>
-      <c r="B29" s="435"/>
-      <c r="C29" s="435"/>
-      <c r="D29" s="375"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="436"/>
-      <c r="G29" s="443"/>
-      <c r="H29" s="438"/>
-      <c r="I29" s="444"/>
-      <c r="J29" s="493"/>
-      <c r="K29" s="428"/>
-      <c r="L29" s="383"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="434"/>
-      <c r="B30" s="435"/>
-      <c r="C30" s="435"/>
-      <c r="D30" s="375"/>
-      <c r="E30" s="375"/>
-      <c r="F30" s="436"/>
-      <c r="G30" s="441"/>
-      <c r="H30" s="438"/>
-      <c r="I30" s="444"/>
-      <c r="J30" s="493"/>
-      <c r="K30" s="428"/>
-      <c r="L30" s="383"/>
+      <c r="A29" s="426"/>
+      <c r="B29" s="368"/>
+      <c r="C29" s="368"/>
+      <c r="D29" s="365"/>
+      <c r="E29" s="646"/>
+      <c r="F29" s="647"/>
+      <c r="G29" s="637"/>
+      <c r="H29" s="650"/>
+      <c r="I29" s="639"/>
+      <c r="J29" s="640"/>
+      <c r="K29" s="420"/>
+      <c r="L29" s="381"/>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="431"/>
+      <c r="B30" s="641"/>
+      <c r="C30" s="641"/>
+      <c r="D30" s="642"/>
+      <c r="E30" s="648"/>
+      <c r="F30" s="649"/>
+      <c r="G30" s="643"/>
+      <c r="H30" s="651"/>
+      <c r="I30" s="644"/>
+      <c r="J30" s="645"/>
+      <c r="K30" s="381"/>
+      <c r="L30" s="381"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="445"/>
-      <c r="B31" s="446"/>
-      <c r="C31" s="446"/>
-      <c r="D31" s="447"/>
-      <c r="E31" s="447"/>
-      <c r="F31" s="448"/>
-      <c r="G31" s="449"/>
-      <c r="H31" s="450"/>
-      <c r="I31" s="451"/>
-      <c r="J31" s="494"/>
-      <c r="K31" s="383"/>
-      <c r="L31" s="383"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="452" t="s">
+      <c r="A31" s="432" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="433"/>
+      <c r="C31" s="433"/>
+      <c r="D31" s="434"/>
+      <c r="E31" s="477">
+        <f>SUM(E20:E30)</f>
+        <v>7401744</v>
+      </c>
+      <c r="F31" s="478">
+        <f>SUM(F20:F30)</f>
+        <v>7685939</v>
+      </c>
+      <c r="G31" s="435">
+        <f>SUM(G20:G30)</f>
+        <v>0.45749636904761909</v>
+      </c>
+      <c r="H31" s="436">
+        <f>A20-F31</f>
+        <v>9114061</v>
+      </c>
+      <c r="I31" s="437">
+        <f>1-G31</f>
+        <v>0.54250363095238097</v>
+      </c>
+      <c r="J31" s="472"/>
+      <c r="K31" s="438"/>
+      <c r="L31" s="438"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="381"/>
+      <c r="B34" s="381"/>
+      <c r="C34" s="381"/>
+      <c r="D34" s="381"/>
+      <c r="E34" s="381"/>
+      <c r="F34" s="381"/>
+      <c r="G34" s="381"/>
+      <c r="H34" s="381"/>
+      <c r="I34" s="381"/>
+      <c r="J34" s="381"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="504" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="504"/>
+      <c r="C35" s="504"/>
+      <c r="D35" s="504"/>
+      <c r="E35" s="381"/>
+      <c r="F35" s="381"/>
+      <c r="G35" s="381"/>
+      <c r="H35" s="381"/>
+      <c r="I35" s="381"/>
+      <c r="J35" s="381"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="505" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="505"/>
+      <c r="C36" s="439" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="453"/>
-      <c r="C32" s="453"/>
-      <c r="D32" s="454"/>
-      <c r="E32" s="500">
-        <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="501">
-        <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="455">
-        <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H32" s="456">
-        <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="I32" s="457">
-        <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J32" s="495"/>
-      <c r="K32" s="458"/>
-      <c r="L32" s="458"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="383"/>
-      <c r="B35" s="383"/>
-      <c r="C35" s="383"/>
-      <c r="D35" s="383"/>
-      <c r="E35" s="383"/>
-      <c r="F35" s="383"/>
-      <c r="G35" s="383"/>
-      <c r="H35" s="383"/>
-      <c r="I35" s="383"/>
-      <c r="J35" s="383"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="526" t="s">
+      <c r="D36" s="439" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="526"/>
-      <c r="C36" s="526"/>
-      <c r="D36" s="526"/>
-      <c r="E36" s="383"/>
-      <c r="F36" s="383"/>
-      <c r="G36" s="383"/>
-      <c r="H36" s="383"/>
-      <c r="I36" s="383"/>
-      <c r="J36" s="383"/>
+      <c r="E36" s="381"/>
+      <c r="F36" s="381"/>
+      <c r="G36" s="381"/>
+      <c r="H36" s="381"/>
+      <c r="I36" s="381"/>
+      <c r="J36" s="381"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="527" t="s">
+      <c r="A37" s="506">
+        <f>A20-F31</f>
+        <v>9114061</v>
+      </c>
+      <c r="B37" s="507"/>
+      <c r="C37" s="440">
+        <f>1-G31</f>
+        <v>0.54250363095238097</v>
+      </c>
+      <c r="D37" s="441">
+        <f>(C37/0.8)*100</f>
+        <v>67.812953869047618</v>
+      </c>
+      <c r="E37" s="442" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="527"/>
-      <c r="C37" s="459" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="459" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="383"/>
-      <c r="F37" s="383"/>
-      <c r="G37" s="383"/>
-      <c r="H37" s="383"/>
-      <c r="I37" s="383"/>
-      <c r="J37" s="383"/>
+      <c r="F37" s="442"/>
+      <c r="G37" s="442"/>
+      <c r="H37" s="442"/>
+      <c r="I37" s="442"/>
+      <c r="J37" s="442"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="528">
-        <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="529"/>
-      <c r="C38" s="460">
-        <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D38" s="461">
-        <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
-      </c>
-      <c r="E38" s="462" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="462"/>
-      <c r="G38" s="462"/>
-      <c r="H38" s="462"/>
-      <c r="I38" s="462"/>
-      <c r="J38" s="462"/>
+      <c r="A38" s="381"/>
+      <c r="B38" s="381"/>
+      <c r="C38" s="381"/>
+      <c r="D38" s="381"/>
+      <c r="E38" s="381"/>
+      <c r="F38" s="381"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="383"/>
-      <c r="B39" s="383"/>
-      <c r="C39" s="383"/>
-      <c r="D39" s="383"/>
-      <c r="E39" s="383"/>
-      <c r="F39" s="383"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="383"/>
-      <c r="B40" s="383"/>
-      <c r="C40" s="383"/>
-      <c r="D40" s="383"/>
-      <c r="E40" s="383"/>
-      <c r="F40" s="383"/>
-      <c r="G40" s="383"/>
-      <c r="H40" s="383"/>
-      <c r="I40" s="383"/>
-      <c r="J40" s="383"/>
-      <c r="K40" t="s">
+      <c r="A39" s="381"/>
+      <c r="B39" s="381"/>
+      <c r="C39" s="381"/>
+      <c r="D39" s="381"/>
+      <c r="E39" s="381"/>
+      <c r="F39" s="381"/>
+      <c r="G39" s="381"/>
+      <c r="H39" s="381"/>
+      <c r="I39" s="381"/>
+      <c r="J39" s="381"/>
+      <c r="K39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="383"/>
-      <c r="B41" s="463"/>
-      <c r="C41" s="463"/>
-      <c r="D41" s="383"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="383"/>
-      <c r="G41" s="383"/>
-      <c r="H41" s="383"/>
-      <c r="I41" s="383"/>
-      <c r="J41" s="383"/>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="381"/>
+      <c r="B40" s="443"/>
+      <c r="C40" s="443"/>
+      <c r="D40" s="381"/>
+      <c r="E40" s="381"/>
+      <c r="F40" s="381"/>
+      <c r="G40" s="381"/>
+      <c r="H40" s="381"/>
+      <c r="I40" s="381"/>
+      <c r="J40" s="381"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="444"/>
+      <c r="B41" s="444"/>
+      <c r="C41" s="444"/>
+      <c r="D41" s="444"/>
+      <c r="E41" s="444"/>
+      <c r="F41" s="444"/>
+      <c r="G41" s="444"/>
+      <c r="H41" s="444"/>
+      <c r="I41" s="499"/>
+      <c r="J41" s="500"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="464"/>
-      <c r="B42" s="464"/>
-      <c r="C42" s="464"/>
-      <c r="D42" s="464"/>
-      <c r="E42" s="464"/>
-      <c r="F42" s="464"/>
-      <c r="G42" s="464"/>
-      <c r="H42" s="464"/>
-      <c r="I42" s="521"/>
-      <c r="J42" s="522"/>
+      <c r="A42" s="445"/>
+      <c r="B42" s="446"/>
+      <c r="C42" s="446"/>
+      <c r="D42" s="381"/>
+      <c r="E42" s="381"/>
+      <c r="F42" s="446"/>
+      <c r="G42" s="404"/>
+      <c r="H42" s="446"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="465"/>
-      <c r="B43" s="466"/>
-      <c r="C43" s="466"/>
-      <c r="D43" s="383"/>
-      <c r="E43" s="383"/>
-      <c r="F43" s="466"/>
-      <c r="G43" s="412"/>
-      <c r="H43" s="466"/>
+      <c r="A43" s="445"/>
+      <c r="B43" s="446"/>
+      <c r="C43" s="446"/>
+      <c r="D43" s="446"/>
+      <c r="E43" s="446"/>
+      <c r="F43" s="446"/>
+      <c r="G43" s="404"/>
+      <c r="H43" s="446"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="465"/>
-      <c r="B44" s="466"/>
-      <c r="C44" s="466"/>
-      <c r="D44" s="466"/>
-      <c r="E44" s="466"/>
-      <c r="F44" s="466"/>
-      <c r="G44" s="412"/>
-      <c r="H44" s="466"/>
+      <c r="A44" s="445"/>
+      <c r="B44" s="446"/>
+      <c r="C44" s="446"/>
+      <c r="D44" s="381"/>
+      <c r="E44" s="381"/>
+      <c r="F44" s="446"/>
+      <c r="G44" s="404"/>
+      <c r="H44" s="446"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="465"/>
-      <c r="B45" s="466"/>
-      <c r="C45" s="466"/>
-      <c r="D45" s="383"/>
-      <c r="E45" s="383"/>
-      <c r="F45" s="466"/>
-      <c r="G45" s="412"/>
-      <c r="H45" s="466"/>
+      <c r="A45" s="445"/>
+      <c r="B45" s="446"/>
+      <c r="C45" s="446"/>
+      <c r="D45" s="446"/>
+      <c r="E45" s="446"/>
+      <c r="F45" s="446"/>
+      <c r="G45" s="404"/>
+      <c r="H45" s="446"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="465"/>
-      <c r="B46" s="466"/>
-      <c r="C46" s="466"/>
-      <c r="D46" s="466"/>
-      <c r="E46" s="466"/>
-      <c r="F46" s="466"/>
-      <c r="G46" s="412"/>
-      <c r="H46" s="466"/>
+      <c r="A46" s="445"/>
+      <c r="B46" s="446"/>
+      <c r="C46" s="446"/>
+      <c r="D46" s="381"/>
+      <c r="E46" s="381"/>
+      <c r="F46" s="446"/>
+      <c r="G46" s="404"/>
+      <c r="H46" s="446"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="465"/>
-      <c r="B47" s="466"/>
-      <c r="C47" s="466"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="383"/>
-      <c r="F47" s="466"/>
-      <c r="G47" s="412"/>
-      <c r="H47" s="466"/>
+      <c r="A47" s="445"/>
+      <c r="B47" s="446"/>
+      <c r="C47" s="400"/>
+      <c r="D47" s="447"/>
+      <c r="E47" s="447"/>
+      <c r="F47" s="400"/>
+      <c r="G47" s="400"/>
+      <c r="H47" s="400"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="465"/>
-      <c r="B48" s="466"/>
-      <c r="C48" s="402"/>
-      <c r="D48" s="467"/>
-      <c r="E48" s="467"/>
-      <c r="F48" s="402"/>
-      <c r="G48" s="402"/>
-      <c r="H48" s="402"/>
+      <c r="A48" s="445"/>
+      <c r="B48" s="446"/>
+      <c r="C48" s="446"/>
+      <c r="D48" s="446"/>
+      <c r="E48" s="446"/>
+      <c r="F48" s="446"/>
+      <c r="G48" s="404"/>
+      <c r="H48" s="446"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="465"/>
-      <c r="B49" s="466"/>
-      <c r="C49" s="466"/>
-      <c r="D49" s="466"/>
-      <c r="E49" s="466"/>
-      <c r="F49" s="466"/>
-      <c r="G49" s="412"/>
-      <c r="H49" s="466"/>
+      <c r="A49" s="445"/>
+      <c r="B49" s="446"/>
+      <c r="C49" s="446"/>
+      <c r="D49" s="446"/>
+      <c r="E49" s="446"/>
+      <c r="F49" s="446"/>
+      <c r="G49" s="404"/>
+      <c r="H49" s="446"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="465"/>
-      <c r="B50" s="466"/>
-      <c r="C50" s="466"/>
-      <c r="D50" s="466"/>
-      <c r="E50" s="466"/>
-      <c r="F50" s="466"/>
-      <c r="G50" s="412"/>
-      <c r="H50" s="466"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="465"/>
-      <c r="B51" s="466"/>
-      <c r="C51" s="466"/>
-      <c r="D51" s="383"/>
-      <c r="E51" s="383"/>
-      <c r="F51" s="466"/>
-      <c r="G51" s="412"/>
-      <c r="H51" s="466"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="383"/>
-      <c r="B52" s="524"/>
-      <c r="C52" s="524"/>
-      <c r="D52" s="525"/>
-      <c r="E52" s="462"/>
-      <c r="F52" s="383"/>
-      <c r="G52" s="383"/>
-      <c r="H52" s="383"/>
-      <c r="I52" s="383"/>
-      <c r="J52" s="383"/>
+      <c r="A50" s="445"/>
+      <c r="B50" s="446"/>
+      <c r="C50" s="446"/>
+      <c r="D50" s="381"/>
+      <c r="E50" s="381"/>
+      <c r="F50" s="446"/>
+      <c r="G50" s="404"/>
+      <c r="H50" s="446"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="381"/>
+      <c r="B51" s="502"/>
+      <c r="C51" s="502"/>
+      <c r="D51" s="503"/>
+      <c r="E51" s="442"/>
+      <c r="F51" s="381"/>
+      <c r="G51" s="381"/>
+      <c r="H51" s="381"/>
+      <c r="I51" s="381"/>
+      <c r="J51" s="381"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="444"/>
+      <c r="B52" s="444"/>
+      <c r="C52" s="444"/>
+      <c r="D52" s="444"/>
+      <c r="E52" s="444"/>
+      <c r="F52" s="444"/>
+      <c r="G52" s="444"/>
+      <c r="H52" s="444"/>
+      <c r="I52" s="499"/>
+      <c r="J52" s="500"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="464"/>
-      <c r="B53" s="464"/>
-      <c r="C53" s="464"/>
-      <c r="D53" s="464"/>
-      <c r="E53" s="464"/>
-      <c r="F53" s="464"/>
-      <c r="G53" s="464"/>
-      <c r="H53" s="464"/>
-      <c r="I53" s="521"/>
-      <c r="J53" s="522"/>
+      <c r="A53" s="445"/>
+      <c r="B53" s="381"/>
+      <c r="C53" s="381"/>
+      <c r="D53" s="381"/>
+      <c r="E53" s="381"/>
+      <c r="F53" s="404"/>
+      <c r="G53" s="404"/>
+      <c r="H53" s="446"/>
+      <c r="I53" s="501"/>
+      <c r="J53" s="501"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="465"/>
-      <c r="B54" s="383"/>
-      <c r="C54" s="383"/>
-      <c r="D54" s="383"/>
-      <c r="E54" s="383"/>
-      <c r="F54" s="412"/>
-      <c r="G54" s="412"/>
-      <c r="H54" s="466"/>
-      <c r="I54" s="523"/>
-      <c r="J54" s="523"/>
+      <c r="A54" s="445"/>
+      <c r="B54" s="381"/>
+      <c r="C54" s="381"/>
+      <c r="D54" s="400"/>
+      <c r="E54" s="400"/>
+      <c r="F54" s="400"/>
+      <c r="G54" s="400"/>
+      <c r="H54" s="400"/>
+      <c r="I54" s="501"/>
+      <c r="J54" s="501"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="465"/>
-      <c r="B55" s="383"/>
-      <c r="C55" s="383"/>
-      <c r="D55" s="402"/>
-      <c r="E55" s="402"/>
-      <c r="F55" s="402"/>
-      <c r="G55" s="402"/>
-      <c r="H55" s="402"/>
-      <c r="I55" s="523"/>
-      <c r="J55" s="523"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="383"/>
-      <c r="B56" s="383"/>
-      <c r="C56" s="383"/>
-      <c r="D56" s="383"/>
-      <c r="E56" s="383"/>
-      <c r="F56" s="383"/>
-      <c r="G56" s="383"/>
-      <c r="H56" s="383"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="521"/>
-      <c r="C61" s="522"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="521"/>
-      <c r="C68" s="522"/>
+      <c r="A55" s="381"/>
+      <c r="B55" s="381"/>
+      <c r="C55" s="381"/>
+      <c r="D55" s="381"/>
+      <c r="E55" s="381"/>
+      <c r="F55" s="381"/>
+      <c r="G55" s="381"/>
+      <c r="H55" s="381"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="499"/>
+      <c r="C60" s="500"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="499"/>
+      <c r="C67" s="500"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
+    <brk id="37" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -10576,8 +10622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A46" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10592,99 +10638,99 @@
     <col min="10" max="16384" width="9.140625" style="300"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G2" s="309" t="s">
+    <row r="2" spans="1:11" s="358" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G2" s="308" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="310"/>
-      <c r="I2" s="310"/>
-      <c r="J2" s="310"/>
-      <c r="K2" s="310"/>
-    </row>
-    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G3" s="309" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="310"/>
-    </row>
-    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G4" s="309" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-    </row>
-    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G6" s="360"/>
-      <c r="H6" s="309" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="310"/>
-      <c r="J6" s="310"/>
-    </row>
-    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="H7" s="310"/>
-      <c r="I7" s="310"/>
-      <c r="J7" s="310"/>
-    </row>
-    <row r="8" spans="1:11" s="359" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+    </row>
+    <row r="3" spans="1:11" s="358" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G3" s="308" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+    </row>
+    <row r="4" spans="1:11" s="358" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G4" s="308" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+      <c r="J4" s="309"/>
+      <c r="K4" s="309"/>
+    </row>
+    <row r="5" spans="1:11" s="358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="358" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G6" s="359"/>
+      <c r="H6" s="308" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="309"/>
+      <c r="J6" s="309"/>
+    </row>
+    <row r="7" spans="1:11" s="358" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="309"/>
+    </row>
+    <row r="8" spans="1:11" s="358" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="303" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="360"/>
-      <c r="I8" s="309" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="310"/>
+      <c r="H8" s="359"/>
+      <c r="I8" s="308" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="309"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="554" t="s">
+      <c r="A11" s="533" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="554"/>
-      <c r="C11" s="554"/>
-      <c r="D11" s="554"/>
-      <c r="E11" s="554"/>
-      <c r="F11" s="554"/>
-      <c r="G11" s="554"/>
-      <c r="H11" s="554"/>
-      <c r="I11" s="554"/>
-      <c r="J11" s="554"/>
+      <c r="B11" s="533"/>
+      <c r="C11" s="533"/>
+      <c r="D11" s="533"/>
+      <c r="E11" s="533"/>
+      <c r="F11" s="533"/>
+      <c r="G11" s="533"/>
+      <c r="H11" s="533"/>
+      <c r="I11" s="533"/>
+      <c r="J11" s="533"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="553" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="553"/>
-      <c r="C12" s="553"/>
-      <c r="D12" s="553"/>
-      <c r="E12" s="553"/>
-      <c r="F12" s="553"/>
-      <c r="G12" s="553"/>
-      <c r="H12" s="553"/>
-      <c r="I12" s="553"/>
-      <c r="J12" s="553"/>
+      <c r="A12" s="532" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="532"/>
+      <c r="C12" s="532"/>
+      <c r="D12" s="532"/>
+      <c r="E12" s="532"/>
+      <c r="F12" s="532"/>
+      <c r="G12" s="532"/>
+      <c r="H12" s="532"/>
+      <c r="I12" s="532"/>
+      <c r="J12" s="532"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="555" t="str">
+      <c r="A13" s="534" t="str">
         <f>Данные!A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="B13" s="554"/>
-      <c r="C13" s="554"/>
-      <c r="D13" s="554"/>
-      <c r="E13" s="554"/>
-      <c r="F13" s="554"/>
-      <c r="G13" s="554"/>
-      <c r="H13" s="554"/>
-      <c r="I13" s="554"/>
-      <c r="J13" s="554"/>
+      <c r="B13" s="533"/>
+      <c r="C13" s="533"/>
+      <c r="D13" s="533"/>
+      <c r="E13" s="533"/>
+      <c r="F13" s="533"/>
+      <c r="G13" s="533"/>
+      <c r="H13" s="533"/>
+      <c r="I13" s="533"/>
+      <c r="J13" s="533"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10698,14 +10744,14 @@
       <c r="G15" s="305"/>
       <c r="H15" s="306">
         <f>Данные!D11</f>
-        <v>43979</v>
+        <v>44041</v>
       </c>
       <c r="I15" s="304"/>
       <c r="J15" s="305"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="304" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="304"/>
       <c r="C16" s="304"/>
@@ -10717,61 +10763,61 @@
       <c r="I16" s="304"/>
       <c r="J16" s="305"/>
     </row>
-    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="312" t="s">
+    <row r="17" spans="1:10" s="360" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="313" t="s">
+      <c r="B17" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="313"/>
-      <c r="D17" s="314" t="str">
+      <c r="C17" s="312"/>
+      <c r="D17" s="313" t="str">
         <f>Данные!F11</f>
         <v>начальник производства</v>
       </c>
-      <c r="E17" s="313"/>
-      <c r="F17" s="313"/>
-      <c r="H17" s="313"/>
-      <c r="I17" s="313" t="str">
+      <c r="E17" s="312"/>
+      <c r="F17" s="312"/>
+      <c r="H17" s="312"/>
+      <c r="I17" s="312" t="str">
         <f>Данные!J11</f>
         <v>Я.В. Карчмит</v>
       </c>
       <c r="J17" s="305"/>
     </row>
-    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="312" t="s">
+    <row r="18" spans="1:10" s="360" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="313" t="s">
+      <c r="B18" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="313"/>
-      <c r="D18" s="314" t="str">
+      <c r="C18" s="312"/>
+      <c r="D18" s="313" t="str">
         <f>Данные!F12</f>
         <v>начальник производственного участка</v>
       </c>
-      <c r="E18" s="313"/>
-      <c r="F18" s="313"/>
-      <c r="G18" s="313"/>
-      <c r="I18" s="313" t="str">
+      <c r="E18" s="312"/>
+      <c r="F18" s="312"/>
+      <c r="G18" s="312"/>
+      <c r="I18" s="312" t="str">
         <f>Данные!J12</f>
         <v>Д.Е. Серков</v>
       </c>
       <c r="J18" s="305"/>
     </row>
-    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="313"/>
-      <c r="B19" s="313"/>
-      <c r="C19" s="313"/>
-      <c r="D19" s="313" t="str">
+    <row r="19" spans="1:10" s="360" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="312"/>
+      <c r="B19" s="312"/>
+      <c r="C19" s="312"/>
+      <c r="D19" s="312" t="str">
         <f>Данные!F13</f>
         <v>начальник участка ремонта форм</v>
       </c>
-      <c r="E19" s="313"/>
-      <c r="F19" s="313"/>
-      <c r="G19" s="313"/>
-      <c r="H19" s="313"/>
-      <c r="I19" s="313" t="str">
+      <c r="E19" s="312"/>
+      <c r="F19" s="312"/>
+      <c r="G19" s="312"/>
+      <c r="H19" s="312"/>
+      <c r="I19" s="312" t="str">
         <f>Данные!J13</f>
         <v>А.Д. Гавриленко</v>
       </c>
@@ -10779,7 +10825,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="304" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="304"/>
       <c r="C20" s="304"/>
@@ -10790,13 +10836,13 @@
       <c r="H20" s="304"/>
       <c r="I20" s="306">
         <f>H15</f>
-        <v>43979</v>
+        <v>44041</v>
       </c>
       <c r="J20" s="305"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="304" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="304"/>
       <c r="C21" s="304"/>
@@ -10809,495 +10855,495 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="551" t="s">
+      <c r="A22" s="530" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="551" t="s">
+      <c r="B22" s="530" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="551"/>
-      <c r="D22" s="551"/>
-      <c r="E22" s="551" t="s">
+      <c r="C22" s="530"/>
+      <c r="D22" s="530"/>
+      <c r="E22" s="530" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="551"/>
-      <c r="G22" s="552" t="s">
+      <c r="F22" s="530"/>
+      <c r="G22" s="531" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="551" t="s">
+      <c r="H22" s="530" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="551"/>
-      <c r="J22" s="551"/>
+      <c r="I22" s="530"/>
+      <c r="J22" s="530"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="551"/>
-      <c r="B23" s="551"/>
-      <c r="C23" s="551"/>
-      <c r="D23" s="551"/>
-      <c r="E23" s="551"/>
-      <c r="F23" s="551"/>
-      <c r="G23" s="552"/>
-      <c r="H23" s="551"/>
-      <c r="I23" s="551"/>
-      <c r="J23" s="551"/>
+      <c r="A23" s="530"/>
+      <c r="B23" s="530"/>
+      <c r="C23" s="530"/>
+      <c r="D23" s="530"/>
+      <c r="E23" s="530"/>
+      <c r="F23" s="530"/>
+      <c r="G23" s="531"/>
+      <c r="H23" s="530"/>
+      <c r="I23" s="530"/>
+      <c r="J23" s="530"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="530">
+      <c r="A24" s="509">
         <v>1</v>
       </c>
-      <c r="B24" s="556" t="s">
+      <c r="B24" s="535" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="557"/>
-      <c r="D24" s="558"/>
-      <c r="E24" s="535" t="str">
+      <c r="C24" s="536"/>
+      <c r="D24" s="537"/>
+      <c r="E24" s="514" t="str">
         <f>Данные!C14</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F24" s="536"/>
-      <c r="G24" s="539">
+      <c r="F24" s="515"/>
+      <c r="G24" s="518">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="541"/>
-      <c r="I24" s="542"/>
-      <c r="J24" s="543"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="531"/>
-      <c r="B25" s="547" t="str">
+      <c r="H24" s="520"/>
+      <c r="I24" s="521"/>
+      <c r="J24" s="522"/>
+    </row>
+    <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="510"/>
+      <c r="B25" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C25" s="548"/>
-      <c r="D25" s="549"/>
-      <c r="E25" s="550"/>
-      <c r="F25" s="538"/>
-      <c r="G25" s="540"/>
-      <c r="H25" s="544"/>
-      <c r="I25" s="545"/>
-      <c r="J25" s="546"/>
+      <c r="C25" s="527"/>
+      <c r="D25" s="528"/>
+      <c r="E25" s="529"/>
+      <c r="F25" s="517"/>
+      <c r="G25" s="519"/>
+      <c r="H25" s="523"/>
+      <c r="I25" s="524"/>
+      <c r="J25" s="525"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="530">
+      <c r="A26" s="509">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="532" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="533"/>
-      <c r="D26" s="534"/>
-      <c r="E26" s="535" t="str">
+      <c r="B26" s="511" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="512"/>
+      <c r="D26" s="513"/>
+      <c r="E26" s="514" t="str">
         <f>Данные!C15</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F26" s="536"/>
-      <c r="G26" s="539">
+      <c r="F26" s="515"/>
+      <c r="G26" s="518">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="541"/>
-      <c r="I26" s="542"/>
-      <c r="J26" s="543"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="531"/>
-      <c r="B27" s="547" t="str">
+      <c r="H26" s="520"/>
+      <c r="I26" s="521"/>
+      <c r="J26" s="522"/>
+    </row>
+    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="510"/>
+      <c r="B27" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C27" s="548"/>
-      <c r="D27" s="549"/>
-      <c r="E27" s="550"/>
-      <c r="F27" s="538"/>
-      <c r="G27" s="540"/>
-      <c r="H27" s="544"/>
-      <c r="I27" s="545"/>
-      <c r="J27" s="546"/>
+      <c r="C27" s="527"/>
+      <c r="D27" s="528"/>
+      <c r="E27" s="529"/>
+      <c r="F27" s="517"/>
+      <c r="G27" s="519"/>
+      <c r="H27" s="523"/>
+      <c r="I27" s="524"/>
+      <c r="J27" s="525"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="530">
+      <c r="A28" s="509">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="532" t="s">
+      <c r="B28" s="511" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="533"/>
-      <c r="D28" s="534"/>
-      <c r="E28" s="535" t="str">
+      <c r="C28" s="512"/>
+      <c r="D28" s="513"/>
+      <c r="E28" s="514" t="str">
         <f>Данные!C16</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F28" s="536"/>
-      <c r="G28" s="539">
+      <c r="F28" s="515"/>
+      <c r="G28" s="518">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="541" t="s">
-        <v>143</v>
-      </c>
-      <c r="I28" s="542"/>
-      <c r="J28" s="543"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="531"/>
-      <c r="B29" s="547" t="str">
+      <c r="H28" s="520" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="521"/>
+      <c r="J28" s="522"/>
+    </row>
+    <row r="29" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="510"/>
+      <c r="B29" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C29" s="548"/>
-      <c r="D29" s="549"/>
-      <c r="E29" s="550"/>
-      <c r="F29" s="538"/>
-      <c r="G29" s="540"/>
-      <c r="H29" s="544"/>
-      <c r="I29" s="545"/>
-      <c r="J29" s="546"/>
+      <c r="C29" s="527"/>
+      <c r="D29" s="528"/>
+      <c r="E29" s="529"/>
+      <c r="F29" s="517"/>
+      <c r="G29" s="519"/>
+      <c r="H29" s="523"/>
+      <c r="I29" s="524"/>
+      <c r="J29" s="525"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="530">
+      <c r="A30" s="509">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="532" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="533"/>
-      <c r="D30" s="534"/>
-      <c r="E30" s="535" t="str">
+      <c r="B30" s="511" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="512"/>
+      <c r="D30" s="513"/>
+      <c r="E30" s="514" t="str">
         <f>Данные!C17</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F30" s="536"/>
-      <c r="G30" s="539">
+      <c r="F30" s="515"/>
+      <c r="G30" s="518">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="541"/>
-      <c r="I30" s="542"/>
-      <c r="J30" s="543"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="531"/>
-      <c r="B31" s="547" t="str">
+      <c r="H30" s="520"/>
+      <c r="I30" s="521"/>
+      <c r="J30" s="522"/>
+    </row>
+    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="510"/>
+      <c r="B31" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C31" s="548"/>
-      <c r="D31" s="549"/>
-      <c r="E31" s="537"/>
-      <c r="F31" s="538"/>
-      <c r="G31" s="540"/>
-      <c r="H31" s="544"/>
-      <c r="I31" s="545"/>
-      <c r="J31" s="546"/>
+      <c r="C31" s="527"/>
+      <c r="D31" s="528"/>
+      <c r="E31" s="516"/>
+      <c r="F31" s="517"/>
+      <c r="G31" s="519"/>
+      <c r="H31" s="523"/>
+      <c r="I31" s="524"/>
+      <c r="J31" s="525"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="530">
+      <c r="A32" s="509">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="532" t="s">
+      <c r="B32" s="511" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="533"/>
-      <c r="D32" s="534"/>
-      <c r="E32" s="535" t="str">
+      <c r="C32" s="512"/>
+      <c r="D32" s="513"/>
+      <c r="E32" s="514" t="str">
         <f>Данные!C18</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F32" s="536"/>
-      <c r="G32" s="539">
+      <c r="F32" s="515"/>
+      <c r="G32" s="518">
         <f>Данные!B18</f>
         <v>160</v>
       </c>
-      <c r="H32" s="541"/>
-      <c r="I32" s="542"/>
-      <c r="J32" s="543"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="531"/>
-      <c r="B33" s="547" t="str">
+      <c r="H32" s="520"/>
+      <c r="I32" s="521"/>
+      <c r="J32" s="522"/>
+    </row>
+    <row r="33" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="510"/>
+      <c r="B33" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C33" s="548"/>
-      <c r="D33" s="549"/>
-      <c r="E33" s="537"/>
-      <c r="F33" s="538"/>
-      <c r="G33" s="540"/>
-      <c r="H33" s="544"/>
-      <c r="I33" s="545"/>
-      <c r="J33" s="546"/>
+      <c r="C33" s="527"/>
+      <c r="D33" s="528"/>
+      <c r="E33" s="516"/>
+      <c r="F33" s="517"/>
+      <c r="G33" s="519"/>
+      <c r="H33" s="523"/>
+      <c r="I33" s="524"/>
+      <c r="J33" s="525"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="530">
+      <c r="A34" s="509">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="532" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="533"/>
-      <c r="D34" s="534"/>
-      <c r="E34" s="535" t="str">
+      <c r="B34" s="511" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="512"/>
+      <c r="D34" s="513"/>
+      <c r="E34" s="514" t="str">
         <f>Данные!C19</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F34" s="536"/>
-      <c r="G34" s="539">
+      <c r="F34" s="515"/>
+      <c r="G34" s="518">
         <f>Данные!B19</f>
         <v>200</v>
       </c>
-      <c r="H34" s="541"/>
-      <c r="I34" s="542"/>
-      <c r="J34" s="543"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="531"/>
-      <c r="B35" s="547" t="str">
+      <c r="H34" s="520"/>
+      <c r="I34" s="521"/>
+      <c r="J34" s="522"/>
+    </row>
+    <row r="35" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="510"/>
+      <c r="B35" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C35" s="548"/>
-      <c r="D35" s="549"/>
-      <c r="E35" s="537"/>
-      <c r="F35" s="538"/>
-      <c r="G35" s="540"/>
-      <c r="H35" s="544"/>
-      <c r="I35" s="545"/>
-      <c r="J35" s="546"/>
+      <c r="C35" s="527"/>
+      <c r="D35" s="528"/>
+      <c r="E35" s="516"/>
+      <c r="F35" s="517"/>
+      <c r="G35" s="519"/>
+      <c r="H35" s="523"/>
+      <c r="I35" s="524"/>
+      <c r="J35" s="525"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="530">
+      <c r="A36" s="509">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="532" t="s">
+      <c r="B36" s="511" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="533"/>
-      <c r="D36" s="534"/>
-      <c r="E36" s="535" t="str">
+      <c r="C36" s="512"/>
+      <c r="D36" s="513"/>
+      <c r="E36" s="514" t="str">
         <f>Данные!C20</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F36" s="536"/>
-      <c r="G36" s="539">
+      <c r="F36" s="515"/>
+      <c r="G36" s="518">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="541"/>
-      <c r="I36" s="542"/>
-      <c r="J36" s="543"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="531"/>
-      <c r="B37" s="547" t="str">
+      <c r="H36" s="520"/>
+      <c r="I36" s="521"/>
+      <c r="J36" s="522"/>
+    </row>
+    <row r="37" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="510"/>
+      <c r="B37" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C37" s="548"/>
-      <c r="D37" s="549"/>
-      <c r="E37" s="537"/>
-      <c r="F37" s="538"/>
-      <c r="G37" s="540"/>
-      <c r="H37" s="544"/>
-      <c r="I37" s="545"/>
-      <c r="J37" s="546"/>
+      <c r="C37" s="527"/>
+      <c r="D37" s="528"/>
+      <c r="E37" s="516"/>
+      <c r="F37" s="517"/>
+      <c r="G37" s="519"/>
+      <c r="H37" s="523"/>
+      <c r="I37" s="524"/>
+      <c r="J37" s="525"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="530">
+      <c r="A38" s="509">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="532" t="s">
+      <c r="B38" s="511" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="533"/>
-      <c r="D38" s="534"/>
-      <c r="E38" s="535">
+      <c r="C38" s="512"/>
+      <c r="D38" s="513"/>
+      <c r="E38" s="514">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="536"/>
-      <c r="G38" s="539">
+      <c r="F38" s="515"/>
+      <c r="G38" s="518">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="541"/>
-      <c r="I38" s="542"/>
-      <c r="J38" s="543"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="531"/>
-      <c r="B39" s="547" t="str">
+      <c r="H38" s="520"/>
+      <c r="I38" s="521"/>
+      <c r="J38" s="522"/>
+    </row>
+    <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="510"/>
+      <c r="B39" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C39" s="548"/>
-      <c r="D39" s="549"/>
-      <c r="E39" s="537"/>
-      <c r="F39" s="538"/>
-      <c r="G39" s="540"/>
-      <c r="H39" s="544"/>
-      <c r="I39" s="545"/>
-      <c r="J39" s="546"/>
+      <c r="C39" s="527"/>
+      <c r="D39" s="528"/>
+      <c r="E39" s="516"/>
+      <c r="F39" s="517"/>
+      <c r="G39" s="519"/>
+      <c r="H39" s="523"/>
+      <c r="I39" s="524"/>
+      <c r="J39" s="525"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="530">
+      <c r="A40" s="509">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="532" t="s">
+      <c r="B40" s="511" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="533"/>
-      <c r="D40" s="534"/>
-      <c r="E40" s="535">
+      <c r="C40" s="512"/>
+      <c r="D40" s="513"/>
+      <c r="E40" s="514">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F40" s="536"/>
-      <c r="G40" s="539">
+      <c r="F40" s="515"/>
+      <c r="G40" s="518">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="H40" s="541"/>
-      <c r="I40" s="542"/>
-      <c r="J40" s="543"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="531"/>
-      <c r="B41" s="547" t="str">
+      <c r="H40" s="520"/>
+      <c r="I40" s="521"/>
+      <c r="J40" s="522"/>
+    </row>
+    <row r="41" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="510"/>
+      <c r="B41" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C41" s="548"/>
-      <c r="D41" s="549"/>
-      <c r="E41" s="537"/>
-      <c r="F41" s="538"/>
-      <c r="G41" s="540"/>
-      <c r="H41" s="544"/>
-      <c r="I41" s="545"/>
-      <c r="J41" s="546"/>
+      <c r="C41" s="527"/>
+      <c r="D41" s="528"/>
+      <c r="E41" s="516"/>
+      <c r="F41" s="517"/>
+      <c r="G41" s="519"/>
+      <c r="H41" s="523"/>
+      <c r="I41" s="524"/>
+      <c r="J41" s="525"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="530">
+      <c r="A42" s="509">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="532" t="s">
+      <c r="B42" s="511" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="533"/>
-      <c r="D42" s="534"/>
-      <c r="E42" s="535">
+      <c r="C42" s="512"/>
+      <c r="D42" s="513"/>
+      <c r="E42" s="514">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="536"/>
-      <c r="G42" s="539">
+      <c r="F42" s="515"/>
+      <c r="G42" s="518">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="541"/>
-      <c r="I42" s="542"/>
-      <c r="J42" s="543"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="531"/>
-      <c r="B43" s="547" t="str">
+      <c r="H42" s="520"/>
+      <c r="I42" s="521"/>
+      <c r="J42" s="522"/>
+    </row>
+    <row r="43" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="510"/>
+      <c r="B43" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C43" s="548"/>
-      <c r="D43" s="549"/>
-      <c r="E43" s="537"/>
-      <c r="F43" s="538"/>
-      <c r="G43" s="540"/>
-      <c r="H43" s="544"/>
-      <c r="I43" s="545"/>
-      <c r="J43" s="546"/>
+      <c r="C43" s="527"/>
+      <c r="D43" s="528"/>
+      <c r="E43" s="516"/>
+      <c r="F43" s="517"/>
+      <c r="G43" s="519"/>
+      <c r="H43" s="523"/>
+      <c r="I43" s="524"/>
+      <c r="J43" s="525"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="530">
+      <c r="A44" s="509">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="532" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="533"/>
-      <c r="D44" s="534"/>
-      <c r="E44" s="535">
+      <c r="B44" s="511" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="512"/>
+      <c r="D44" s="513"/>
+      <c r="E44" s="514">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="536"/>
-      <c r="G44" s="539">
+      <c r="F44" s="515"/>
+      <c r="G44" s="518">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="541"/>
-      <c r="I44" s="542"/>
-      <c r="J44" s="543"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="531"/>
-      <c r="B45" s="547" t="str">
+      <c r="H44" s="520"/>
+      <c r="I44" s="521"/>
+      <c r="J44" s="522"/>
+    </row>
+    <row r="45" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="510"/>
+      <c r="B45" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C45" s="548"/>
-      <c r="D45" s="549"/>
-      <c r="E45" s="537"/>
-      <c r="F45" s="538"/>
-      <c r="G45" s="540"/>
-      <c r="H45" s="544"/>
-      <c r="I45" s="545"/>
-      <c r="J45" s="546"/>
+      <c r="C45" s="527"/>
+      <c r="D45" s="528"/>
+      <c r="E45" s="516"/>
+      <c r="F45" s="517"/>
+      <c r="G45" s="519"/>
+      <c r="H45" s="523"/>
+      <c r="I45" s="524"/>
+      <c r="J45" s="525"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="530">
+      <c r="A46" s="509">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="532" t="s">
+      <c r="B46" s="511" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="533"/>
-      <c r="D46" s="534"/>
-      <c r="E46" s="535">
+      <c r="C46" s="512"/>
+      <c r="D46" s="513"/>
+      <c r="E46" s="514">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="536"/>
-      <c r="G46" s="539">
+      <c r="F46" s="515"/>
+      <c r="G46" s="518">
         <f>Данные!B24</f>
         <v>0</v>
       </c>
-      <c r="H46" s="541"/>
-      <c r="I46" s="542"/>
-      <c r="J46" s="543"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="531"/>
-      <c r="B47" s="547" t="str">
+      <c r="H46" s="520"/>
+      <c r="I46" s="521"/>
+      <c r="J46" s="522"/>
+    </row>
+    <row r="47" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="510"/>
+      <c r="B47" s="526" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C47" s="548"/>
-      <c r="D47" s="549"/>
-      <c r="E47" s="537"/>
-      <c r="F47" s="538"/>
-      <c r="G47" s="540"/>
-      <c r="H47" s="544"/>
-      <c r="I47" s="545"/>
-      <c r="J47" s="546"/>
+      <c r="C47" s="527"/>
+      <c r="D47" s="528"/>
+      <c r="E47" s="516"/>
+      <c r="F47" s="517"/>
+      <c r="G47" s="519"/>
+      <c r="H47" s="523"/>
+      <c r="I47" s="524"/>
+      <c r="J47" s="525"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11311,50 +11357,48 @@
       <c r="I48" s="304"/>
       <c r="J48" s="305"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="304" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="304"/>
-      <c r="C49" s="304"/>
-      <c r="D49" s="304"/>
-      <c r="E49" s="304"/>
-      <c r="F49" s="304"/>
-      <c r="G49" s="304"/>
-      <c r="H49" s="304"/>
-      <c r="I49" s="304"/>
-      <c r="J49" s="305"/>
+    <row r="49" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="508" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="508"/>
+      <c r="C49" s="508"/>
+      <c r="D49" s="508"/>
+      <c r="E49" s="508"/>
+      <c r="F49" s="508"/>
+      <c r="G49" s="508"/>
+      <c r="H49" s="508"/>
+      <c r="I49" s="508"/>
+      <c r="J49" s="508"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="304"/>
       <c r="B50" s="304"/>
       <c r="C50" s="304"/>
-      <c r="D50" s="311"/>
-      <c r="E50" s="311"/>
-      <c r="F50" s="311"/>
-      <c r="G50" s="311"/>
-      <c r="H50" s="311"/>
+      <c r="D50" s="304"/>
+      <c r="E50" s="304"/>
+      <c r="F50" s="304"/>
+      <c r="G50" s="304"/>
+      <c r="H50" s="304"/>
       <c r="I50" s="304"/>
       <c r="J50" s="305"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="304"/>
-      <c r="B51" s="307" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="304" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="304"/>
-      <c r="E51" s="304"/>
-      <c r="F51" s="304"/>
-      <c r="G51" s="304"/>
-      <c r="H51" s="304"/>
+      <c r="B51" s="304"/>
+      <c r="C51" s="304"/>
+      <c r="D51" s="310"/>
+      <c r="E51" s="310"/>
+      <c r="F51" s="310"/>
+      <c r="G51" s="310"/>
+      <c r="H51" s="310"/>
       <c r="I51" s="304"/>
       <c r="J51" s="305"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="304"/>
+      <c r="A52" s="304" t="s">
+        <v>42</v>
+      </c>
       <c r="B52" s="304"/>
       <c r="C52" s="304"/>
       <c r="D52" s="304"/>
@@ -11371,8 +11415,8 @@
       <c r="C53" s="304"/>
       <c r="D53" s="304"/>
       <c r="E53" s="304"/>
-      <c r="G53" s="308"/>
-      <c r="H53" s="308"/>
+      <c r="G53" s="307"/>
+      <c r="H53" s="307"/>
       <c r="I53" s="304" t="str">
         <f>I17</f>
         <v>Я.В. Карчмит</v>
@@ -11416,8 +11460,8 @@
       <c r="C57" s="301"/>
       <c r="D57" s="301"/>
       <c r="E57" s="301"/>
-      <c r="G57" s="308"/>
-      <c r="H57" s="308"/>
+      <c r="G57" s="307"/>
+      <c r="H57" s="307"/>
       <c r="I57" s="304" t="str">
         <f>I19</f>
         <v>А.Д. Гавриленко</v>
@@ -11425,7 +11469,7 @@
       <c r="J57" s="304"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="81">
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11500,6 +11544,7 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:J45"/>
     <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A49:J49"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="E46:F47"/>
@@ -11509,7 +11554,10 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="35" max="9" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -11521,7 +11569,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11560,47 +11608,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11611,9 +11659,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11632,22 +11680,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="494"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11658,22 +11706,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="594"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="516"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="494"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11684,27 +11732,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="518">
+      <c r="C7" s="580"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="579" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="506">
+      <c r="J7" s="583"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11756,15 +11804,15 @@
       </c>
       <c r="H9" s="129"/>
       <c r="I9" s="88"/>
-      <c r="J9" s="317"/>
-      <c r="K9" s="317"/>
-      <c r="L9" s="317"/>
-      <c r="M9" s="317"/>
-      <c r="N9" s="317"/>
-      <c r="O9" s="317"/>
-      <c r="P9" s="317"/>
-      <c r="Q9" s="317"/>
-      <c r="R9" s="318"/>
+      <c r="J9" s="316"/>
+      <c r="K9" s="316"/>
+      <c r="L9" s="316"/>
+      <c r="M9" s="316"/>
+      <c r="N9" s="316"/>
+      <c r="O9" s="316"/>
+      <c r="P9" s="316"/>
+      <c r="Q9" s="316"/>
+      <c r="R9" s="317"/>
       <c r="S9" s="190"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11772,7 +11820,9 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="93">
+        <v>219</v>
+      </c>
       <c r="D10" s="93">
         <v>0.08</v>
       </c>
@@ -11787,15 +11837,15 @@
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="93"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="319"/>
-      <c r="P10" s="319"/>
-      <c r="Q10" s="319"/>
-      <c r="R10" s="320"/>
+      <c r="J10" s="318"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="318"/>
+      <c r="N10" s="318"/>
+      <c r="O10" s="318"/>
+      <c r="P10" s="318"/>
+      <c r="Q10" s="318"/>
+      <c r="R10" s="319"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11803,7 +11853,7 @@
       <c r="B11" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="315">
+      <c r="C11" s="314">
         <v>152.1</v>
       </c>
       <c r="D11" s="97">
@@ -11820,15 +11870,15 @@
       </c>
       <c r="H11" s="98"/>
       <c r="I11" s="97"/>
-      <c r="J11" s="321"/>
-      <c r="K11" s="321"/>
-      <c r="L11" s="321"/>
-      <c r="M11" s="321"/>
-      <c r="N11" s="321"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="321"/>
-      <c r="Q11" s="321"/>
-      <c r="R11" s="322"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="320"/>
+      <c r="L11" s="320"/>
+      <c r="M11" s="320"/>
+      <c r="N11" s="320"/>
+      <c r="O11" s="320"/>
+      <c r="P11" s="320"/>
+      <c r="Q11" s="320"/>
+      <c r="R11" s="321"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11836,7 +11886,9 @@
       <c r="B12" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="97"/>
+      <c r="C12" s="97">
+        <v>22.8</v>
+      </c>
       <c r="D12" s="97">
         <v>0.05</v>
       </c>
@@ -11851,15 +11903,15 @@
       </c>
       <c r="H12" s="98"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="321"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="321"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="321"/>
-      <c r="Q12" s="321"/>
-      <c r="R12" s="322"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="320"/>
+      <c r="L12" s="320"/>
+      <c r="M12" s="320"/>
+      <c r="N12" s="320"/>
+      <c r="O12" s="320"/>
+      <c r="P12" s="320"/>
+      <c r="Q12" s="320"/>
+      <c r="R12" s="321"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11867,7 +11919,7 @@
       <c r="B13" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="315">
+      <c r="C13" s="314">
         <v>5</v>
       </c>
       <c r="D13" s="97">
@@ -11884,15 +11936,15 @@
       </c>
       <c r="H13" s="98"/>
       <c r="I13" s="97"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="321"/>
-      <c r="M13" s="321"/>
-      <c r="N13" s="321"/>
-      <c r="O13" s="321"/>
-      <c r="P13" s="321"/>
-      <c r="Q13" s="321"/>
-      <c r="R13" s="322"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="320"/>
+      <c r="L13" s="320"/>
+      <c r="M13" s="320"/>
+      <c r="N13" s="320"/>
+      <c r="O13" s="320"/>
+      <c r="P13" s="320"/>
+      <c r="Q13" s="320"/>
+      <c r="R13" s="321"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11900,7 +11952,7 @@
       <c r="B14" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="315">
+      <c r="C14" s="314">
         <v>10</v>
       </c>
       <c r="D14" s="97">
@@ -11917,15 +11969,15 @@
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="97"/>
-      <c r="J14" s="321"/>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
-      <c r="M14" s="321"/>
-      <c r="N14" s="321"/>
-      <c r="O14" s="321"/>
-      <c r="P14" s="321"/>
-      <c r="Q14" s="321"/>
-      <c r="R14" s="322"/>
+      <c r="J14" s="320"/>
+      <c r="K14" s="320"/>
+      <c r="L14" s="320"/>
+      <c r="M14" s="320"/>
+      <c r="N14" s="320"/>
+      <c r="O14" s="320"/>
+      <c r="P14" s="320"/>
+      <c r="Q14" s="320"/>
+      <c r="R14" s="321"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11933,7 +11985,9 @@
       <c r="B15" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="376"/>
+      <c r="C15" s="374">
+        <v>157</v>
+      </c>
       <c r="D15" s="97">
         <v>0.1</v>
       </c>
@@ -11948,15 +12002,15 @@
       </c>
       <c r="H15" s="98"/>
       <c r="I15" s="97"/>
-      <c r="J15" s="321"/>
-      <c r="K15" s="321"/>
-      <c r="L15" s="321"/>
-      <c r="M15" s="321"/>
-      <c r="N15" s="321"/>
-      <c r="O15" s="321"/>
-      <c r="P15" s="321"/>
-      <c r="Q15" s="321"/>
-      <c r="R15" s="322"/>
+      <c r="J15" s="320"/>
+      <c r="K15" s="320"/>
+      <c r="L15" s="320"/>
+      <c r="M15" s="320"/>
+      <c r="N15" s="320"/>
+      <c r="O15" s="320"/>
+      <c r="P15" s="320"/>
+      <c r="Q15" s="320"/>
+      <c r="R15" s="321"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11964,7 +12018,9 @@
       <c r="B16" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="97">
+        <v>193.8</v>
+      </c>
       <c r="D16" s="97">
         <v>0.05</v>
       </c>
@@ -11979,15 +12035,15 @@
       </c>
       <c r="H16" s="98"/>
       <c r="I16" s="97"/>
-      <c r="J16" s="321"/>
-      <c r="K16" s="321"/>
-      <c r="L16" s="321"/>
-      <c r="M16" s="321"/>
-      <c r="N16" s="321"/>
-      <c r="O16" s="321"/>
-      <c r="P16" s="321"/>
-      <c r="Q16" s="321"/>
-      <c r="R16" s="322"/>
+      <c r="J16" s="320"/>
+      <c r="K16" s="320"/>
+      <c r="L16" s="320"/>
+      <c r="M16" s="320"/>
+      <c r="N16" s="320"/>
+      <c r="O16" s="320"/>
+      <c r="P16" s="320"/>
+      <c r="Q16" s="320"/>
+      <c r="R16" s="321"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11995,7 +12051,9 @@
       <c r="B17" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="315"/>
+      <c r="C17" s="314">
+        <v>138</v>
+      </c>
       <c r="D17" s="97">
         <v>0.05</v>
       </c>
@@ -12010,15 +12068,15 @@
       </c>
       <c r="H17" s="98"/>
       <c r="I17" s="97"/>
-      <c r="J17" s="321"/>
-      <c r="K17" s="321"/>
-      <c r="L17" s="321"/>
-      <c r="M17" s="321"/>
-      <c r="N17" s="321"/>
-      <c r="O17" s="321"/>
-      <c r="P17" s="321"/>
-      <c r="Q17" s="321"/>
-      <c r="R17" s="322"/>
+      <c r="J17" s="320"/>
+      <c r="K17" s="320"/>
+      <c r="L17" s="320"/>
+      <c r="M17" s="320"/>
+      <c r="N17" s="320"/>
+      <c r="O17" s="320"/>
+      <c r="P17" s="320"/>
+      <c r="Q17" s="320"/>
+      <c r="R17" s="321"/>
       <c r="S17" s="86"/>
     </row>
     <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
@@ -12041,15 +12099,15 @@
       </c>
       <c r="H18" s="105"/>
       <c r="I18" s="104"/>
-      <c r="J18" s="323"/>
-      <c r="K18" s="323"/>
-      <c r="L18" s="323"/>
-      <c r="M18" s="323"/>
-      <c r="N18" s="323"/>
-      <c r="O18" s="323"/>
-      <c r="P18" s="323"/>
-      <c r="Q18" s="323"/>
-      <c r="R18" s="324"/>
+      <c r="J18" s="322"/>
+      <c r="K18" s="322"/>
+      <c r="L18" s="322"/>
+      <c r="M18" s="322"/>
+      <c r="N18" s="322"/>
+      <c r="O18" s="322"/>
+      <c r="P18" s="322"/>
+      <c r="Q18" s="322"/>
+      <c r="R18" s="323"/>
       <c r="S18" s="86"/>
     </row>
     <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12057,7 +12115,9 @@
       <c r="B19" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="104">
+        <v>25.2</v>
+      </c>
       <c r="D19" s="104">
         <v>0.02</v>
       </c>
@@ -12072,15 +12132,15 @@
       </c>
       <c r="H19" s="105"/>
       <c r="I19" s="104"/>
-      <c r="J19" s="323"/>
-      <c r="K19" s="323"/>
-      <c r="L19" s="323"/>
-      <c r="M19" s="323"/>
-      <c r="N19" s="323"/>
-      <c r="O19" s="323"/>
-      <c r="P19" s="323"/>
-      <c r="Q19" s="323"/>
-      <c r="R19" s="324"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="322"/>
+      <c r="L19" s="322"/>
+      <c r="M19" s="322"/>
+      <c r="N19" s="322"/>
+      <c r="O19" s="322"/>
+      <c r="P19" s="322"/>
+      <c r="Q19" s="322"/>
+      <c r="R19" s="323"/>
       <c r="S19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12103,15 +12163,15 @@
       </c>
       <c r="H20" s="105"/>
       <c r="I20" s="104"/>
-      <c r="J20" s="323"/>
-      <c r="K20" s="323"/>
-      <c r="L20" s="323"/>
-      <c r="M20" s="323"/>
-      <c r="N20" s="323"/>
-      <c r="O20" s="323"/>
-      <c r="P20" s="323"/>
-      <c r="Q20" s="323"/>
-      <c r="R20" s="324"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
+      <c r="M20" s="322"/>
+      <c r="N20" s="322"/>
+      <c r="O20" s="322"/>
+      <c r="P20" s="322"/>
+      <c r="Q20" s="322"/>
+      <c r="R20" s="323"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -12119,7 +12179,9 @@
       <c r="B21" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="353"/>
+      <c r="C21" s="352">
+        <v>0.2</v>
+      </c>
       <c r="D21" s="104">
         <v>0.02</v>
       </c>
@@ -12134,15 +12196,15 @@
       </c>
       <c r="H21" s="105"/>
       <c r="I21" s="104"/>
-      <c r="J21" s="323"/>
-      <c r="K21" s="323"/>
-      <c r="L21" s="323"/>
-      <c r="M21" s="323"/>
-      <c r="N21" s="323"/>
-      <c r="O21" s="323"/>
-      <c r="P21" s="323"/>
-      <c r="Q21" s="323"/>
-      <c r="R21" s="324"/>
+      <c r="J21" s="322"/>
+      <c r="K21" s="322"/>
+      <c r="L21" s="322"/>
+      <c r="M21" s="322"/>
+      <c r="N21" s="322"/>
+      <c r="O21" s="322"/>
+      <c r="P21" s="322"/>
+      <c r="Q21" s="322"/>
+      <c r="R21" s="323"/>
       <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12150,7 +12212,9 @@
       <c r="B22" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="353"/>
+      <c r="C22" s="352" t="s">
+        <v>149</v>
+      </c>
       <c r="D22" s="104">
         <v>0.02</v>
       </c>
@@ -12165,25 +12229,25 @@
       </c>
       <c r="H22" s="105"/>
       <c r="I22" s="104"/>
-      <c r="J22" s="323"/>
-      <c r="K22" s="323"/>
-      <c r="L22" s="323"/>
-      <c r="M22" s="323"/>
-      <c r="N22" s="323"/>
-      <c r="O22" s="323"/>
-      <c r="P22" s="323"/>
-      <c r="Q22" s="323"/>
-      <c r="R22" s="324"/>
+      <c r="J22" s="322"/>
+      <c r="K22" s="322"/>
+      <c r="L22" s="322"/>
+      <c r="M22" s="322"/>
+      <c r="N22" s="322"/>
+      <c r="O22" s="322"/>
+      <c r="P22" s="322"/>
+      <c r="Q22" s="322"/>
+      <c r="R22" s="323"/>
       <c r="S22" s="86"/>
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="597" t="s">
+      <c r="B23" s="576" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="598"/>
-      <c r="D23" s="598"/>
-      <c r="E23" s="599"/>
+      <c r="C23" s="577"/>
+      <c r="D23" s="577"/>
+      <c r="E23" s="578"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12192,25 +12256,25 @@
       </c>
       <c r="H23" s="105"/>
       <c r="I23" s="104"/>
-      <c r="J23" s="323"/>
-      <c r="K23" s="323"/>
-      <c r="L23" s="323"/>
-      <c r="M23" s="323"/>
-      <c r="N23" s="323"/>
-      <c r="O23" s="323"/>
-      <c r="P23" s="323"/>
-      <c r="Q23" s="323"/>
-      <c r="R23" s="324"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="322"/>
+      <c r="L23" s="322"/>
+      <c r="M23" s="322"/>
+      <c r="N23" s="322"/>
+      <c r="O23" s="322"/>
+      <c r="P23" s="322"/>
+      <c r="Q23" s="322"/>
+      <c r="R23" s="323"/>
       <c r="S23" s="86"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="587" t="s">
+      <c r="B24" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="588"/>
-      <c r="D24" s="588"/>
-      <c r="E24" s="589"/>
+      <c r="C24" s="567"/>
+      <c r="D24" s="567"/>
+      <c r="E24" s="568"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12219,15 +12283,15 @@
       </c>
       <c r="H24" s="106"/>
       <c r="I24" s="107"/>
-      <c r="J24" s="325"/>
-      <c r="K24" s="325"/>
-      <c r="L24" s="325"/>
-      <c r="M24" s="325"/>
-      <c r="N24" s="325"/>
-      <c r="O24" s="325"/>
-      <c r="P24" s="325"/>
-      <c r="Q24" s="325"/>
-      <c r="R24" s="326"/>
+      <c r="J24" s="324"/>
+      <c r="K24" s="324"/>
+      <c r="L24" s="324"/>
+      <c r="M24" s="324"/>
+      <c r="N24" s="324"/>
+      <c r="O24" s="324"/>
+      <c r="P24" s="324"/>
+      <c r="Q24" s="324"/>
+      <c r="R24" s="325"/>
       <c r="S24" s="86"/>
     </row>
     <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12253,25 +12317,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="562" t="s">
-        <v>135</v>
-      </c>
-      <c r="L27" s="562"/>
-      <c r="M27" s="562"/>
-      <c r="N27" s="472"/>
-      <c r="O27" s="472"/>
-      <c r="P27" s="488"/>
-      <c r="Q27" s="488"/>
+      <c r="K27" s="541" t="s">
+        <v>132</v>
+      </c>
+      <c r="L27" s="541"/>
+      <c r="M27" s="541"/>
+      <c r="N27" s="452"/>
+      <c r="O27" s="452"/>
+      <c r="P27" s="468"/>
+      <c r="Q27" s="468"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="O28" s="559"/>
-      <c r="P28" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q28" s="561"/>
+      <c r="N28" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="538"/>
+      <c r="P28" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q28" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12324,7 +12388,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15:F15"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12363,50 +12427,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="611">
+      <c r="B2" s="590">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="612"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="620" t="s">
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="621"/>
-      <c r="G2" s="621"/>
-      <c r="H2" s="622"/>
-      <c r="I2" s="626" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="627"/>
-      <c r="K2" s="630">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="631"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="614"/>
-      <c r="C3" s="615"/>
-      <c r="D3" s="616"/>
-      <c r="E3" s="623" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="624"/>
-      <c r="G3" s="624"/>
-      <c r="H3" s="625"/>
-      <c r="I3" s="628"/>
-      <c r="J3" s="629"/>
-      <c r="K3" s="632"/>
-      <c r="L3" s="633"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12417,9 +12481,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="617"/>
-      <c r="C4" s="618"/>
-      <c r="D4" s="619"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12438,22 +12502,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12464,22 +12528,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12490,27 +12554,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="518">
+      <c r="C7" s="588"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="506">
+      <c r="J7" s="588"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12562,15 +12626,15 @@
       </c>
       <c r="H9" s="88"/>
       <c r="I9" s="88"/>
-      <c r="J9" s="317"/>
-      <c r="K9" s="317"/>
-      <c r="L9" s="317"/>
-      <c r="M9" s="317"/>
-      <c r="N9" s="317"/>
-      <c r="O9" s="317"/>
-      <c r="P9" s="317"/>
-      <c r="Q9" s="317"/>
-      <c r="R9" s="318"/>
+      <c r="J9" s="316"/>
+      <c r="K9" s="316"/>
+      <c r="L9" s="316"/>
+      <c r="M9" s="316"/>
+      <c r="N9" s="316"/>
+      <c r="O9" s="316"/>
+      <c r="P9" s="316"/>
+      <c r="Q9" s="316"/>
+      <c r="R9" s="317"/>
       <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
@@ -12593,15 +12657,15 @@
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="93"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="319"/>
-      <c r="P10" s="319"/>
-      <c r="Q10" s="319"/>
-      <c r="R10" s="320"/>
+      <c r="J10" s="318"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="318"/>
+      <c r="N10" s="318"/>
+      <c r="O10" s="318"/>
+      <c r="P10" s="318"/>
+      <c r="Q10" s="318"/>
+      <c r="R10" s="319"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12609,7 +12673,7 @@
       <c r="B11" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="315">
+      <c r="C11" s="314">
         <v>25.5</v>
       </c>
       <c r="D11" s="97">
@@ -12626,15 +12690,15 @@
       </c>
       <c r="H11" s="98"/>
       <c r="I11" s="97"/>
-      <c r="J11" s="321"/>
-      <c r="K11" s="321"/>
-      <c r="L11" s="321"/>
-      <c r="M11" s="321"/>
-      <c r="N11" s="321"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="321"/>
-      <c r="Q11" s="321"/>
-      <c r="R11" s="322"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="320"/>
+      <c r="L11" s="320"/>
+      <c r="M11" s="320"/>
+      <c r="N11" s="320"/>
+      <c r="O11" s="320"/>
+      <c r="P11" s="320"/>
+      <c r="Q11" s="320"/>
+      <c r="R11" s="321"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12642,7 +12706,9 @@
       <c r="B12" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="315"/>
+      <c r="C12" s="314">
+        <v>20</v>
+      </c>
       <c r="D12" s="97">
         <v>0.1</v>
       </c>
@@ -12657,15 +12723,15 @@
       </c>
       <c r="H12" s="98"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="321"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="321"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="321"/>
-      <c r="Q12" s="321"/>
-      <c r="R12" s="322"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="320"/>
+      <c r="L12" s="320"/>
+      <c r="M12" s="320"/>
+      <c r="N12" s="320"/>
+      <c r="O12" s="320"/>
+      <c r="P12" s="320"/>
+      <c r="Q12" s="320"/>
+      <c r="R12" s="321"/>
       <c r="S12" s="86"/>
     </row>
     <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12673,7 +12739,9 @@
       <c r="B13" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="376"/>
+      <c r="C13" s="374">
+        <v>45.4</v>
+      </c>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -12688,25 +12756,25 @@
       </c>
       <c r="H13" s="98"/>
       <c r="I13" s="97"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="321"/>
-      <c r="M13" s="321"/>
-      <c r="N13" s="321"/>
-      <c r="O13" s="321"/>
-      <c r="P13" s="321"/>
-      <c r="Q13" s="321"/>
-      <c r="R13" s="322"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="320"/>
+      <c r="L13" s="320"/>
+      <c r="M13" s="320"/>
+      <c r="N13" s="320"/>
+      <c r="O13" s="320"/>
+      <c r="P13" s="320"/>
+      <c r="Q13" s="320"/>
+      <c r="R13" s="321"/>
       <c r="S13" s="86"/>
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="635" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="636"/>
-      <c r="D14" s="636"/>
-      <c r="E14" s="636"/>
+      <c r="B14" s="614" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="615"/>
+      <c r="D14" s="615"/>
+      <c r="E14" s="615"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12715,50 +12783,50 @@
       </c>
       <c r="H14" s="105"/>
       <c r="I14" s="104"/>
-      <c r="J14" s="323"/>
-      <c r="K14" s="323"/>
-      <c r="L14" s="323"/>
-      <c r="M14" s="323"/>
-      <c r="N14" s="323"/>
-      <c r="O14" s="323"/>
-      <c r="P14" s="323"/>
-      <c r="Q14" s="323"/>
-      <c r="R14" s="324"/>
+      <c r="J14" s="322"/>
+      <c r="K14" s="322"/>
+      <c r="L14" s="322"/>
+      <c r="M14" s="322"/>
+      <c r="N14" s="322"/>
+      <c r="O14" s="322"/>
+      <c r="P14" s="322"/>
+      <c r="Q14" s="322"/>
+      <c r="R14" s="323"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="597" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="598"/>
-      <c r="D15" s="598"/>
-      <c r="E15" s="598"/>
-      <c r="F15" s="634"/>
+      <c r="B15" s="576" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="577"/>
+      <c r="D15" s="577"/>
+      <c r="E15" s="577"/>
+      <c r="F15" s="613"/>
       <c r="G15" s="56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H15" s="105"/>
       <c r="I15" s="104"/>
-      <c r="J15" s="323"/>
-      <c r="K15" s="323"/>
-      <c r="L15" s="323"/>
-      <c r="M15" s="323"/>
-      <c r="N15" s="323"/>
-      <c r="O15" s="323"/>
-      <c r="P15" s="323"/>
-      <c r="Q15" s="323"/>
-      <c r="R15" s="324"/>
+      <c r="J15" s="322"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
+      <c r="M15" s="322"/>
+      <c r="N15" s="322"/>
+      <c r="O15" s="322"/>
+      <c r="P15" s="322"/>
+      <c r="Q15" s="322"/>
+      <c r="R15" s="323"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="588"/>
-      <c r="D16" s="588"/>
-      <c r="E16" s="589"/>
+      <c r="C16" s="567"/>
+      <c r="D16" s="567"/>
+      <c r="E16" s="568"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12767,15 +12835,15 @@
       </c>
       <c r="H16" s="106"/>
       <c r="I16" s="107"/>
-      <c r="J16" s="325"/>
-      <c r="K16" s="325"/>
-      <c r="L16" s="325"/>
-      <c r="M16" s="325"/>
-      <c r="N16" s="325"/>
-      <c r="O16" s="325"/>
-      <c r="P16" s="325"/>
-      <c r="Q16" s="325"/>
-      <c r="R16" s="326"/>
+      <c r="J16" s="324"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
+      <c r="M16" s="324"/>
+      <c r="N16" s="324"/>
+      <c r="O16" s="324"/>
+      <c r="P16" s="324"/>
+      <c r="Q16" s="324"/>
+      <c r="R16" s="325"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12805,25 +12873,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="562" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="562"/>
-      <c r="N19" s="562"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="L19" s="541" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="541"/>
+      <c r="N19" s="541"/>
+      <c r="O19" s="452"/>
+      <c r="P19" s="452"/>
+      <c r="Q19" s="468"/>
+      <c r="R19" s="468"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R20" s="561"/>
+      <c r="O20" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="538"/>
+      <c r="Q20" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12885,7 +12953,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12924,47 +12992,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="575"/>
-      <c r="Q2" s="575"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12975,9 +13043,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12996,22 +13064,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="494"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13022,22 +13090,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="594"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="516"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="494"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13048,27 +13116,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="518">
+      <c r="C7" s="580"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="579" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="506">
+      <c r="J7" s="583"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13120,15 +13188,15 @@
       </c>
       <c r="H9" s="88"/>
       <c r="I9" s="88"/>
-      <c r="J9" s="317"/>
-      <c r="K9" s="317"/>
-      <c r="L9" s="317"/>
-      <c r="M9" s="317"/>
-      <c r="N9" s="317"/>
-      <c r="O9" s="317"/>
-      <c r="P9" s="317"/>
-      <c r="Q9" s="317"/>
-      <c r="R9" s="318"/>
+      <c r="J9" s="316"/>
+      <c r="K9" s="316"/>
+      <c r="L9" s="316"/>
+      <c r="M9" s="316"/>
+      <c r="N9" s="316"/>
+      <c r="O9" s="316"/>
+      <c r="P9" s="316"/>
+      <c r="Q9" s="316"/>
+      <c r="R9" s="317"/>
       <c r="S9" s="90"/>
       <c r="V9" s="91"/>
       <c r="W9" s="91"/>
@@ -13139,7 +13207,9 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="93">
+        <v>201.45</v>
+      </c>
       <c r="D10" s="93">
         <v>0.05</v>
       </c>
@@ -13154,15 +13224,15 @@
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="93"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="319"/>
-      <c r="P10" s="319"/>
-      <c r="Q10" s="319"/>
-      <c r="R10" s="320"/>
+      <c r="J10" s="318"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="318"/>
+      <c r="N10" s="318"/>
+      <c r="O10" s="318"/>
+      <c r="P10" s="318"/>
+      <c r="Q10" s="318"/>
+      <c r="R10" s="319"/>
       <c r="S10" s="86"/>
       <c r="V10" s="91"/>
       <c r="W10" s="91"/>
@@ -13173,7 +13243,7 @@
       <c r="B11" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="315">
+      <c r="C11" s="314">
         <v>5</v>
       </c>
       <c r="D11" s="97">
@@ -13190,15 +13260,15 @@
       </c>
       <c r="H11" s="98"/>
       <c r="I11" s="97"/>
-      <c r="J11" s="321"/>
-      <c r="K11" s="321"/>
-      <c r="L11" s="321"/>
-      <c r="M11" s="321"/>
-      <c r="N11" s="321"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="321"/>
-      <c r="Q11" s="321"/>
-      <c r="R11" s="322"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="320"/>
+      <c r="L11" s="320"/>
+      <c r="M11" s="320"/>
+      <c r="N11" s="320"/>
+      <c r="O11" s="320"/>
+      <c r="P11" s="320"/>
+      <c r="Q11" s="320"/>
+      <c r="R11" s="321"/>
       <c r="S11" s="86"/>
       <c r="V11" s="91"/>
       <c r="W11" s="100"/>
@@ -13209,7 +13279,7 @@
       <c r="B12" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="315">
+      <c r="C12" s="314">
         <v>10</v>
       </c>
       <c r="D12" s="97">
@@ -13226,15 +13296,15 @@
       </c>
       <c r="H12" s="98"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="321"/>
-      <c r="K12" s="321"/>
-      <c r="L12" s="321"/>
-      <c r="M12" s="321"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="321"/>
-      <c r="Q12" s="321"/>
-      <c r="R12" s="322"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="320"/>
+      <c r="L12" s="320"/>
+      <c r="M12" s="320"/>
+      <c r="N12" s="320"/>
+      <c r="O12" s="320"/>
+      <c r="P12" s="320"/>
+      <c r="Q12" s="320"/>
+      <c r="R12" s="321"/>
       <c r="S12" s="86"/>
       <c r="V12" s="91"/>
       <c r="W12" s="101"/>
@@ -13245,7 +13315,9 @@
       <c r="B13" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="376"/>
+      <c r="C13" s="374">
+        <v>109.3</v>
+      </c>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -13260,15 +13332,15 @@
       </c>
       <c r="H13" s="98"/>
       <c r="I13" s="97"/>
-      <c r="J13" s="321"/>
-      <c r="K13" s="321"/>
-      <c r="L13" s="321"/>
-      <c r="M13" s="321"/>
-      <c r="N13" s="321"/>
-      <c r="O13" s="321"/>
-      <c r="P13" s="321"/>
-      <c r="Q13" s="321"/>
-      <c r="R13" s="322"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="320"/>
+      <c r="L13" s="320"/>
+      <c r="M13" s="320"/>
+      <c r="N13" s="320"/>
+      <c r="O13" s="320"/>
+      <c r="P13" s="320"/>
+      <c r="Q13" s="320"/>
+      <c r="R13" s="321"/>
       <c r="S13" s="86"/>
       <c r="V13" s="91"/>
       <c r="W13" s="101"/>
@@ -13279,7 +13351,9 @@
       <c r="B14" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="97"/>
+      <c r="C14" s="97">
+        <v>174.5</v>
+      </c>
       <c r="D14" s="97">
         <v>0.05</v>
       </c>
@@ -13294,15 +13368,15 @@
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="97"/>
-      <c r="J14" s="321"/>
-      <c r="K14" s="321"/>
-      <c r="L14" s="321"/>
-      <c r="M14" s="321"/>
-      <c r="N14" s="321"/>
-      <c r="O14" s="321"/>
-      <c r="P14" s="321"/>
-      <c r="Q14" s="321"/>
-      <c r="R14" s="322"/>
+      <c r="J14" s="320"/>
+      <c r="K14" s="320"/>
+      <c r="L14" s="320"/>
+      <c r="M14" s="320"/>
+      <c r="N14" s="320"/>
+      <c r="O14" s="320"/>
+      <c r="P14" s="320"/>
+      <c r="Q14" s="320"/>
+      <c r="R14" s="321"/>
       <c r="S14" s="86"/>
       <c r="V14" s="91"/>
       <c r="W14" s="101"/>
@@ -13313,7 +13387,7 @@
       <c r="B15" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="315">
+      <c r="C15" s="314">
         <v>136.19999999999999</v>
       </c>
       <c r="D15" s="97">
@@ -13330,15 +13404,15 @@
       </c>
       <c r="H15" s="98"/>
       <c r="I15" s="97"/>
-      <c r="J15" s="321"/>
-      <c r="K15" s="321"/>
-      <c r="L15" s="321"/>
-      <c r="M15" s="321"/>
-      <c r="N15" s="321"/>
-      <c r="O15" s="321"/>
-      <c r="P15" s="321"/>
-      <c r="Q15" s="321"/>
-      <c r="R15" s="322"/>
+      <c r="J15" s="320"/>
+      <c r="K15" s="320"/>
+      <c r="L15" s="320"/>
+      <c r="M15" s="320"/>
+      <c r="N15" s="320"/>
+      <c r="O15" s="320"/>
+      <c r="P15" s="320"/>
+      <c r="Q15" s="320"/>
+      <c r="R15" s="321"/>
       <c r="S15" s="86"/>
       <c r="V15" s="91"/>
       <c r="W15" s="100"/>
@@ -13349,7 +13423,7 @@
       <c r="B16" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="315">
+      <c r="C16" s="314">
         <v>75.400000000000006</v>
       </c>
       <c r="D16" s="97">
@@ -13366,15 +13440,15 @@
       </c>
       <c r="H16" s="98"/>
       <c r="I16" s="97"/>
-      <c r="J16" s="321"/>
-      <c r="K16" s="321"/>
-      <c r="L16" s="321"/>
-      <c r="M16" s="321"/>
-      <c r="N16" s="321"/>
-      <c r="O16" s="321"/>
-      <c r="P16" s="321"/>
-      <c r="Q16" s="321"/>
-      <c r="R16" s="322"/>
+      <c r="J16" s="320"/>
+      <c r="K16" s="320"/>
+      <c r="L16" s="320"/>
+      <c r="M16" s="320"/>
+      <c r="N16" s="320"/>
+      <c r="O16" s="320"/>
+      <c r="P16" s="320"/>
+      <c r="Q16" s="320"/>
+      <c r="R16" s="321"/>
       <c r="S16" s="86"/>
       <c r="V16" s="91"/>
       <c r="W16" s="101"/>
@@ -13385,7 +13459,9 @@
       <c r="B17" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="104"/>
+      <c r="C17" s="104">
+        <v>24.8</v>
+      </c>
       <c r="D17" s="104">
         <v>0.05</v>
       </c>
@@ -13400,15 +13476,15 @@
       </c>
       <c r="H17" s="98"/>
       <c r="I17" s="97"/>
-      <c r="J17" s="321"/>
-      <c r="K17" s="321"/>
-      <c r="L17" s="321"/>
-      <c r="M17" s="321"/>
-      <c r="N17" s="321"/>
-      <c r="O17" s="321"/>
-      <c r="P17" s="321"/>
-      <c r="Q17" s="321"/>
-      <c r="R17" s="322"/>
+      <c r="J17" s="320"/>
+      <c r="K17" s="320"/>
+      <c r="L17" s="320"/>
+      <c r="M17" s="320"/>
+      <c r="N17" s="320"/>
+      <c r="O17" s="320"/>
+      <c r="P17" s="320"/>
+      <c r="Q17" s="320"/>
+      <c r="R17" s="321"/>
       <c r="S17" s="86"/>
       <c r="V17" s="91"/>
       <c r="W17" s="100"/>
@@ -13419,7 +13495,9 @@
       <c r="B18" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="104" t="s">
+        <v>150</v>
+      </c>
       <c r="D18" s="104">
         <v>0.05</v>
       </c>
@@ -13429,20 +13507,20 @@
       <c r="F18" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="502" t="s">
-        <v>147</v>
+      <c r="G18" s="479" t="s">
+        <v>143</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
-      <c r="J18" s="321"/>
-      <c r="K18" s="321"/>
-      <c r="L18" s="321"/>
-      <c r="M18" s="321"/>
-      <c r="N18" s="321"/>
-      <c r="O18" s="321"/>
-      <c r="P18" s="321"/>
-      <c r="Q18" s="321"/>
-      <c r="R18" s="322"/>
+      <c r="J18" s="320"/>
+      <c r="K18" s="320"/>
+      <c r="L18" s="320"/>
+      <c r="M18" s="320"/>
+      <c r="N18" s="320"/>
+      <c r="O18" s="320"/>
+      <c r="P18" s="320"/>
+      <c r="Q18" s="320"/>
+      <c r="R18" s="321"/>
       <c r="S18" s="86"/>
       <c r="V18" s="91"/>
       <c r="W18" s="100"/>
@@ -13453,7 +13531,7 @@
       <c r="B19" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="353"/>
+      <c r="C19" s="352"/>
       <c r="D19" s="104">
         <v>0.02</v>
       </c>
@@ -13464,19 +13542,19 @@
         <v>16</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H19" s="105"/>
       <c r="I19" s="104"/>
-      <c r="J19" s="323"/>
-      <c r="K19" s="323"/>
-      <c r="L19" s="323"/>
-      <c r="M19" s="323"/>
-      <c r="N19" s="323"/>
-      <c r="O19" s="323"/>
-      <c r="P19" s="323"/>
-      <c r="Q19" s="323"/>
-      <c r="R19" s="324"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="322"/>
+      <c r="L19" s="322"/>
+      <c r="M19" s="322"/>
+      <c r="N19" s="322"/>
+      <c r="O19" s="322"/>
+      <c r="P19" s="322"/>
+      <c r="Q19" s="322"/>
+      <c r="R19" s="323"/>
       <c r="S19" s="86"/>
       <c r="V19" s="91"/>
       <c r="W19" s="100"/>
@@ -13487,7 +13565,9 @@
       <c r="B20" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="316"/>
+      <c r="C20" s="315">
+        <v>0.2</v>
+      </c>
       <c r="D20" s="104">
         <v>0.02</v>
       </c>
@@ -13502,15 +13582,15 @@
       </c>
       <c r="H20" s="106"/>
       <c r="I20" s="107"/>
-      <c r="J20" s="325"/>
-      <c r="K20" s="325"/>
-      <c r="L20" s="325"/>
-      <c r="M20" s="325"/>
-      <c r="N20" s="325"/>
-      <c r="O20" s="325"/>
-      <c r="P20" s="325"/>
-      <c r="Q20" s="325"/>
-      <c r="R20" s="326"/>
+      <c r="J20" s="324"/>
+      <c r="K20" s="324"/>
+      <c r="L20" s="324"/>
+      <c r="M20" s="324"/>
+      <c r="N20" s="324"/>
+      <c r="O20" s="324"/>
+      <c r="P20" s="324"/>
+      <c r="Q20" s="324"/>
+      <c r="R20" s="325"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13536,25 +13616,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="637" t="s">
-        <v>135</v>
-      </c>
-      <c r="M23" s="637"/>
-      <c r="N23" s="637"/>
-      <c r="O23" s="472"/>
-      <c r="P23" s="472"/>
-      <c r="Q23" s="488"/>
-      <c r="R23" s="488"/>
+      <c r="L23" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" s="616"/>
+      <c r="N23" s="616"/>
+      <c r="O23" s="452"/>
+      <c r="P23" s="452"/>
+      <c r="Q23" s="468"/>
+      <c r="R23" s="468"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P24" s="559"/>
-      <c r="Q24" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R24" s="561"/>
+      <c r="O24" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="538"/>
+      <c r="Q24" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R24" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13607,7 +13687,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10:C11"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13646,47 +13726,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="563"/>
-      <c r="C2" s="564"/>
-      <c r="D2" s="565"/>
-      <c r="E2" s="572" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="573"/>
-      <c r="G2" s="573"/>
-      <c r="H2" s="574"/>
-      <c r="I2" s="579" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="580"/>
-      <c r="K2" s="583">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="584"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="638"/>
-      <c r="Q2" s="638"/>
+      <c r="P2" s="617"/>
+      <c r="Q2" s="617"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="566"/>
-      <c r="C3" s="567"/>
-      <c r="D3" s="568"/>
-      <c r="E3" s="576" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="577"/>
-      <c r="G3" s="577"/>
-      <c r="H3" s="578"/>
-      <c r="I3" s="581"/>
-      <c r="J3" s="582"/>
-      <c r="K3" s="585"/>
-      <c r="L3" s="586"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13697,9 +13777,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="570"/>
-      <c r="D4" s="571"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13718,22 +13798,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="591"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="592"/>
-      <c r="J5" s="593"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="494"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13744,22 +13824,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="594"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="592"/>
-      <c r="J6" s="593"/>
-      <c r="K6" s="516"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="494"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13770,27 +13850,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="518">
+      <c r="C7" s="580"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="600" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="579" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="604"/>
-      <c r="K7" s="506">
+      <c r="J7" s="583"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13842,15 +13922,15 @@
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
-      <c r="J9" s="327"/>
-      <c r="K9" s="327"/>
-      <c r="L9" s="327"/>
-      <c r="M9" s="327"/>
-      <c r="N9" s="327"/>
-      <c r="O9" s="327"/>
-      <c r="P9" s="327"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="328"/>
+      <c r="J9" s="326"/>
+      <c r="K9" s="326"/>
+      <c r="L9" s="326"/>
+      <c r="M9" s="326"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="326"/>
+      <c r="P9" s="326"/>
+      <c r="Q9" s="326"/>
+      <c r="R9" s="327"/>
       <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13858,7 +13938,7 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="377"/>
+      <c r="C10" s="375"/>
       <c r="D10" s="44">
         <v>0.05</v>
       </c>
@@ -13873,15 +13953,15 @@
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="329"/>
-      <c r="K10" s="329"/>
-      <c r="L10" s="329"/>
-      <c r="M10" s="329"/>
-      <c r="N10" s="329"/>
-      <c r="O10" s="329"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="329"/>
-      <c r="R10" s="330"/>
+      <c r="J10" s="328"/>
+      <c r="K10" s="328"/>
+      <c r="L10" s="328"/>
+      <c r="M10" s="328"/>
+      <c r="N10" s="328"/>
+      <c r="O10" s="328"/>
+      <c r="P10" s="328"/>
+      <c r="Q10" s="328"/>
+      <c r="R10" s="329"/>
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13889,7 +13969,9 @@
       <c r="B11" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="44">
+        <v>4</v>
+      </c>
       <c r="D11" s="44">
         <v>0.05</v>
       </c>
@@ -13904,15 +13986,15 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="329"/>
-      <c r="K11" s="329"/>
-      <c r="L11" s="329"/>
-      <c r="M11" s="329"/>
-      <c r="N11" s="329"/>
-      <c r="O11" s="329"/>
-      <c r="P11" s="329"/>
-      <c r="Q11" s="329"/>
-      <c r="R11" s="330"/>
+      <c r="J11" s="328"/>
+      <c r="K11" s="328"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="328"/>
+      <c r="P11" s="328"/>
+      <c r="Q11" s="328"/>
+      <c r="R11" s="329"/>
       <c r="S11" s="32"/>
     </row>
     <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13920,7 +14002,7 @@
       <c r="B12" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="333">
+      <c r="C12" s="332">
         <v>57</v>
       </c>
       <c r="D12" s="44">
@@ -13937,15 +14019,15 @@
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="329"/>
-      <c r="K12" s="329"/>
-      <c r="L12" s="329"/>
-      <c r="M12" s="329"/>
-      <c r="N12" s="329"/>
-      <c r="O12" s="329"/>
-      <c r="P12" s="329"/>
-      <c r="Q12" s="329"/>
-      <c r="R12" s="330"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
+      <c r="P12" s="328"/>
+      <c r="Q12" s="328"/>
+      <c r="R12" s="329"/>
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13953,7 +14035,7 @@
       <c r="B13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="333">
+      <c r="C13" s="332">
         <v>50</v>
       </c>
       <c r="D13" s="44">
@@ -13970,15 +14052,15 @@
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="329"/>
-      <c r="K13" s="329"/>
-      <c r="L13" s="329"/>
-      <c r="M13" s="329"/>
-      <c r="N13" s="329"/>
-      <c r="O13" s="329"/>
-      <c r="P13" s="329"/>
-      <c r="Q13" s="329"/>
-      <c r="R13" s="330"/>
+      <c r="J13" s="328"/>
+      <c r="K13" s="328"/>
+      <c r="L13" s="328"/>
+      <c r="M13" s="328"/>
+      <c r="N13" s="328"/>
+      <c r="O13" s="328"/>
+      <c r="P13" s="328"/>
+      <c r="Q13" s="328"/>
+      <c r="R13" s="329"/>
       <c r="S13" s="32"/>
     </row>
     <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -13986,7 +14068,7 @@
       <c r="B14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="333">
+      <c r="C14" s="332">
         <v>62</v>
       </c>
       <c r="D14" s="44">
@@ -14003,15 +14085,15 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="329"/>
-      <c r="K14" s="329"/>
-      <c r="L14" s="329"/>
-      <c r="M14" s="329"/>
-      <c r="N14" s="329"/>
-      <c r="O14" s="329"/>
-      <c r="P14" s="329"/>
-      <c r="Q14" s="329"/>
-      <c r="R14" s="330"/>
+      <c r="J14" s="328"/>
+      <c r="K14" s="328"/>
+      <c r="L14" s="328"/>
+      <c r="M14" s="328"/>
+      <c r="N14" s="328"/>
+      <c r="O14" s="328"/>
+      <c r="P14" s="328"/>
+      <c r="Q14" s="328"/>
+      <c r="R14" s="329"/>
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14019,7 +14101,7 @@
       <c r="B15" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="334">
+      <c r="C15" s="333">
         <v>12.7</v>
       </c>
       <c r="D15" s="49">
@@ -14036,15 +14118,15 @@
       </c>
       <c r="H15" s="48"/>
       <c r="I15" s="49"/>
-      <c r="J15" s="331"/>
-      <c r="K15" s="331"/>
-      <c r="L15" s="331"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="331"/>
-      <c r="O15" s="331"/>
-      <c r="P15" s="331"/>
-      <c r="Q15" s="331"/>
-      <c r="R15" s="332"/>
+      <c r="J15" s="330"/>
+      <c r="K15" s="330"/>
+      <c r="L15" s="330"/>
+      <c r="M15" s="330"/>
+      <c r="N15" s="330"/>
+      <c r="O15" s="330"/>
+      <c r="P15" s="330"/>
+      <c r="Q15" s="330"/>
+      <c r="R15" s="331"/>
       <c r="S15" s="32"/>
     </row>
     <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14070,25 +14152,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="637" t="s">
-        <v>135</v>
-      </c>
-      <c r="M18" s="637"/>
-      <c r="N18" s="637"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="472"/>
-      <c r="Q18" s="488"/>
-      <c r="R18" s="488"/>
+      <c r="L18" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="616"/>
+      <c r="N18" s="616"/>
+      <c r="O18" s="452"/>
+      <c r="P18" s="452"/>
+      <c r="Q18" s="468"/>
+      <c r="R18" s="468"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="559"/>
-      <c r="Q19" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R19" s="561"/>
+      <c r="O19" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="538"/>
+      <c r="Q19" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14141,11 +14223,11 @@
   </sheetPr>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14184,60 +14266,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="612"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="620" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="621"/>
-      <c r="G2" s="621"/>
-      <c r="H2" s="622"/>
-      <c r="I2" s="626" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="627"/>
-      <c r="K2" s="630">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B18</f>
         <v>160</v>
       </c>
-      <c r="L2" s="631"/>
-      <c r="M2" s="639"/>
-      <c r="N2" s="640"/>
-      <c r="O2" s="640"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
-      <c r="R2" s="641"/>
+      <c r="L2" s="610"/>
+      <c r="M2" s="618"/>
+      <c r="N2" s="619"/>
+      <c r="O2" s="619"/>
+      <c r="P2" s="619"/>
+      <c r="Q2" s="619"/>
+      <c r="R2" s="620"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="614"/>
-      <c r="C3" s="615"/>
-      <c r="D3" s="616"/>
-      <c r="E3" s="623" t="s">
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="624"/>
-      <c r="G3" s="624"/>
-      <c r="H3" s="625"/>
-      <c r="I3" s="628"/>
-      <c r="J3" s="629"/>
-      <c r="K3" s="632"/>
-      <c r="L3" s="633"/>
-      <c r="M3" s="642"/>
-      <c r="N3" s="643"/>
-      <c r="O3" s="643"/>
-      <c r="P3" s="643"/>
-      <c r="Q3" s="643"/>
-      <c r="R3" s="644"/>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
+      <c r="M3" s="621"/>
+      <c r="N3" s="622"/>
+      <c r="O3" s="622"/>
+      <c r="P3" s="622"/>
+      <c r="Q3" s="622"/>
+      <c r="R3" s="623"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="617"/>
-      <c r="C4" s="618"/>
-      <c r="D4" s="619"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14246,95 +14328,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="642"/>
-      <c r="N4" s="643"/>
-      <c r="O4" s="643"/>
-      <c r="P4" s="643"/>
-      <c r="Q4" s="643"/>
-      <c r="R4" s="644"/>
+      <c r="M4" s="621"/>
+      <c r="N4" s="622"/>
+      <c r="O4" s="622"/>
+      <c r="P4" s="622"/>
+      <c r="Q4" s="622"/>
+      <c r="R4" s="623"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="517"/>
-      <c r="M5" s="642"/>
-      <c r="N5" s="643"/>
-      <c r="O5" s="643"/>
-      <c r="P5" s="643"/>
-      <c r="Q5" s="643"/>
-      <c r="R5" s="644"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="495"/>
+      <c r="M5" s="621"/>
+      <c r="N5" s="622"/>
+      <c r="O5" s="622"/>
+      <c r="P5" s="622"/>
+      <c r="Q5" s="622"/>
+      <c r="R5" s="623"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="517"/>
-      <c r="M6" s="642"/>
-      <c r="N6" s="643"/>
-      <c r="O6" s="643"/>
-      <c r="P6" s="643"/>
-      <c r="Q6" s="643"/>
-      <c r="R6" s="644"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="495"/>
+      <c r="M6" s="621"/>
+      <c r="N6" s="622"/>
+      <c r="O6" s="622"/>
+      <c r="P6" s="622"/>
+      <c r="Q6" s="622"/>
+      <c r="R6" s="623"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="518">
+      <c r="C7" s="588"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="506">
+      <c r="J7" s="588"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
-      <c r="M7" s="642"/>
-      <c r="N7" s="643"/>
-      <c r="O7" s="643"/>
-      <c r="P7" s="643"/>
-      <c r="Q7" s="643"/>
-      <c r="R7" s="644"/>
+      <c r="L7" s="485"/>
+      <c r="M7" s="621"/>
+      <c r="N7" s="622"/>
+      <c r="O7" s="622"/>
+      <c r="P7" s="622"/>
+      <c r="Q7" s="622"/>
+      <c r="R7" s="623"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14383,12 +14465,12 @@
       <c r="J9" s="192"/>
       <c r="K9" s="192"/>
       <c r="L9" s="192"/>
-      <c r="M9" s="317"/>
-      <c r="N9" s="317"/>
-      <c r="O9" s="317"/>
-      <c r="P9" s="317"/>
-      <c r="Q9" s="317"/>
-      <c r="R9" s="318"/>
+      <c r="M9" s="316"/>
+      <c r="N9" s="316"/>
+      <c r="O9" s="316"/>
+      <c r="P9" s="316"/>
+      <c r="Q9" s="316"/>
+      <c r="R9" s="317"/>
       <c r="S9" s="90"/>
     </row>
     <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -14396,7 +14478,7 @@
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="335">
+      <c r="C10" s="334">
         <v>75.400000000000006</v>
       </c>
       <c r="D10" s="93">
@@ -14416,12 +14498,12 @@
       <c r="J10" s="93"/>
       <c r="K10" s="93"/>
       <c r="L10" s="93"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="319"/>
-      <c r="P10" s="319"/>
-      <c r="Q10" s="319"/>
-      <c r="R10" s="320"/>
+      <c r="M10" s="318"/>
+      <c r="N10" s="318"/>
+      <c r="O10" s="318"/>
+      <c r="P10" s="318"/>
+      <c r="Q10" s="318"/>
+      <c r="R10" s="319"/>
       <c r="S10" s="86"/>
     </row>
     <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -14429,7 +14511,9 @@
       <c r="B11" s="193" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="128">
+        <v>25</v>
+      </c>
       <c r="D11" s="128">
         <v>0.05</v>
       </c>
@@ -14447,12 +14531,12 @@
       <c r="J11" s="97"/>
       <c r="K11" s="97"/>
       <c r="L11" s="97"/>
-      <c r="M11" s="321"/>
-      <c r="N11" s="321"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="321"/>
-      <c r="Q11" s="321"/>
-      <c r="R11" s="322"/>
+      <c r="M11" s="320"/>
+      <c r="N11" s="320"/>
+      <c r="O11" s="320"/>
+      <c r="P11" s="320"/>
+      <c r="Q11" s="320"/>
+      <c r="R11" s="321"/>
       <c r="S11" s="86"/>
     </row>
     <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -14460,7 +14544,9 @@
       <c r="B12" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="128"/>
+      <c r="C12" s="128">
+        <v>24.9</v>
+      </c>
       <c r="D12" s="128">
         <v>0.05</v>
       </c>
@@ -14478,53 +14564,53 @@
       <c r="J12" s="97"/>
       <c r="K12" s="97"/>
       <c r="L12" s="97"/>
-      <c r="M12" s="321"/>
-      <c r="N12" s="321"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="321"/>
-      <c r="Q12" s="321"/>
-      <c r="R12" s="322"/>
+      <c r="M12" s="320"/>
+      <c r="N12" s="320"/>
+      <c r="O12" s="320"/>
+      <c r="P12" s="320"/>
+      <c r="Q12" s="320"/>
+      <c r="R12" s="321"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="483" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="473"/>
-      <c r="B13" s="474" t="s">
+    <row r="13" spans="1:19" s="463" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="453"/>
+      <c r="B13" s="454" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="475">
+      <c r="C13" s="455">
         <v>38.1</v>
       </c>
-      <c r="D13" s="476">
+      <c r="D13" s="456">
         <v>0.03</v>
       </c>
-      <c r="E13" s="476">
+      <c r="E13" s="456">
         <v>0</v>
       </c>
-      <c r="F13" s="477" t="s">
+      <c r="F13" s="457" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="478"/>
-      <c r="I13" s="479"/>
-      <c r="J13" s="479"/>
-      <c r="K13" s="479"/>
-      <c r="L13" s="479"/>
-      <c r="M13" s="480"/>
-      <c r="N13" s="480"/>
-      <c r="O13" s="480"/>
-      <c r="P13" s="480"/>
-      <c r="Q13" s="480"/>
-      <c r="R13" s="481"/>
-      <c r="S13" s="482"/>
+        <v>133</v>
+      </c>
+      <c r="H13" s="458"/>
+      <c r="I13" s="459"/>
+      <c r="J13" s="459"/>
+      <c r="K13" s="459"/>
+      <c r="L13" s="459"/>
+      <c r="M13" s="460"/>
+      <c r="N13" s="460"/>
+      <c r="O13" s="460"/>
+      <c r="P13" s="460"/>
+      <c r="Q13" s="460"/>
+      <c r="R13" s="461"/>
+      <c r="S13" s="462"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="315">
+      <c r="C14" s="314">
         <v>45.3</v>
       </c>
       <c r="D14" s="97">
@@ -14537,19 +14623,19 @@
         <v>16</v>
       </c>
       <c r="G14" s="296" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="97"/>
       <c r="J14" s="97"/>
       <c r="K14" s="97"/>
       <c r="L14" s="97"/>
-      <c r="M14" s="321"/>
-      <c r="N14" s="321"/>
-      <c r="O14" s="321"/>
-      <c r="P14" s="321"/>
-      <c r="Q14" s="321"/>
-      <c r="R14" s="322"/>
+      <c r="M14" s="320"/>
+      <c r="N14" s="320"/>
+      <c r="O14" s="320"/>
+      <c r="P14" s="320"/>
+      <c r="Q14" s="320"/>
+      <c r="R14" s="321"/>
       <c r="S14" s="86"/>
     </row>
     <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -14557,7 +14643,7 @@
       <c r="B15" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="315">
+      <c r="C15" s="314">
         <v>3.1</v>
       </c>
       <c r="D15" s="97">
@@ -14577,12 +14663,12 @@
       <c r="J15" s="97"/>
       <c r="K15" s="97"/>
       <c r="L15" s="97"/>
-      <c r="M15" s="321"/>
-      <c r="N15" s="321"/>
-      <c r="O15" s="321"/>
-      <c r="P15" s="321"/>
-      <c r="Q15" s="321"/>
-      <c r="R15" s="322"/>
+      <c r="M15" s="320"/>
+      <c r="N15" s="320"/>
+      <c r="O15" s="320"/>
+      <c r="P15" s="320"/>
+      <c r="Q15" s="320"/>
+      <c r="R15" s="321"/>
       <c r="S15" s="86"/>
     </row>
     <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -14590,7 +14676,9 @@
       <c r="B16" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="97"/>
+      <c r="C16" s="97">
+        <v>50.8</v>
+      </c>
       <c r="D16" s="97">
         <v>0.1</v>
       </c>
@@ -14608,12 +14696,12 @@
       <c r="J16" s="97"/>
       <c r="K16" s="97"/>
       <c r="L16" s="97"/>
-      <c r="M16" s="321"/>
-      <c r="N16" s="321"/>
-      <c r="O16" s="321"/>
-      <c r="P16" s="321"/>
-      <c r="Q16" s="321"/>
-      <c r="R16" s="322"/>
+      <c r="M16" s="320"/>
+      <c r="N16" s="320"/>
+      <c r="O16" s="320"/>
+      <c r="P16" s="320"/>
+      <c r="Q16" s="320"/>
+      <c r="R16" s="321"/>
       <c r="S16" s="86"/>
     </row>
     <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -14621,7 +14709,9 @@
       <c r="B17" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="97"/>
+      <c r="C17" s="97">
+        <v>23.6</v>
+      </c>
       <c r="D17" s="97">
         <v>0.05</v>
       </c>
@@ -14639,12 +14729,12 @@
       <c r="J17" s="97"/>
       <c r="K17" s="97"/>
       <c r="L17" s="97"/>
-      <c r="M17" s="321"/>
-      <c r="N17" s="321"/>
-      <c r="O17" s="321"/>
-      <c r="P17" s="321"/>
-      <c r="Q17" s="321"/>
-      <c r="R17" s="322"/>
+      <c r="M17" s="320"/>
+      <c r="N17" s="320"/>
+      <c r="O17" s="320"/>
+      <c r="P17" s="320"/>
+      <c r="Q17" s="320"/>
+      <c r="R17" s="321"/>
       <c r="S17" s="86"/>
     </row>
     <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
@@ -14652,7 +14742,7 @@
       <c r="B18" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="315">
+      <c r="C18" s="314">
         <v>9.52</v>
       </c>
       <c r="D18" s="97">
@@ -14665,19 +14755,19 @@
         <v>16</v>
       </c>
       <c r="G18" s="296" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
       <c r="J18" s="97"/>
       <c r="K18" s="97"/>
       <c r="L18" s="97"/>
-      <c r="M18" s="321"/>
-      <c r="N18" s="321"/>
-      <c r="O18" s="321"/>
-      <c r="P18" s="321"/>
-      <c r="Q18" s="321"/>
-      <c r="R18" s="322"/>
+      <c r="M18" s="320"/>
+      <c r="N18" s="320"/>
+      <c r="O18" s="320"/>
+      <c r="P18" s="320"/>
+      <c r="Q18" s="320"/>
+      <c r="R18" s="321"/>
       <c r="S18" s="86"/>
     </row>
     <row r="19" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -14685,7 +14775,9 @@
       <c r="B19" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="376"/>
+      <c r="C19" s="374">
+        <v>27.85</v>
+      </c>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
       <c r="F19" s="114"/>
@@ -14695,12 +14787,12 @@
       <c r="J19" s="97"/>
       <c r="K19" s="97"/>
       <c r="L19" s="97"/>
-      <c r="M19" s="321"/>
-      <c r="N19" s="321"/>
-      <c r="O19" s="321"/>
-      <c r="P19" s="321"/>
-      <c r="Q19" s="321"/>
-      <c r="R19" s="322"/>
+      <c r="M19" s="320"/>
+      <c r="N19" s="320"/>
+      <c r="O19" s="320"/>
+      <c r="P19" s="320"/>
+      <c r="Q19" s="320"/>
+      <c r="R19" s="321"/>
       <c r="S19" s="86"/>
     </row>
     <row r="20" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
@@ -14708,7 +14800,9 @@
       <c r="B20" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="97"/>
+      <c r="C20" s="97">
+        <v>27.2</v>
+      </c>
       <c r="D20" s="97">
         <v>0.05</v>
       </c>
@@ -14726,22 +14820,22 @@
       <c r="J20" s="97"/>
       <c r="K20" s="97"/>
       <c r="L20" s="97"/>
-      <c r="M20" s="321"/>
-      <c r="N20" s="321"/>
-      <c r="O20" s="321"/>
-      <c r="P20" s="321"/>
-      <c r="Q20" s="321"/>
-      <c r="R20" s="322"/>
+      <c r="M20" s="320"/>
+      <c r="N20" s="320"/>
+      <c r="O20" s="320"/>
+      <c r="P20" s="320"/>
+      <c r="Q20" s="320"/>
+      <c r="R20" s="321"/>
       <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="587" t="s">
+      <c r="B21" s="566" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="588"/>
-      <c r="D21" s="588"/>
-      <c r="E21" s="589"/>
+      <c r="C21" s="567"/>
+      <c r="D21" s="567"/>
+      <c r="E21" s="568"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14753,12 +14847,12 @@
       <c r="J21" s="107"/>
       <c r="K21" s="107"/>
       <c r="L21" s="107"/>
-      <c r="M21" s="325"/>
-      <c r="N21" s="325"/>
-      <c r="O21" s="325"/>
-      <c r="P21" s="325"/>
-      <c r="Q21" s="325"/>
-      <c r="R21" s="326"/>
+      <c r="M21" s="324"/>
+      <c r="N21" s="324"/>
+      <c r="O21" s="324"/>
+      <c r="P21" s="324"/>
+      <c r="Q21" s="324"/>
+      <c r="R21" s="325"/>
       <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14786,25 +14880,25 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="637" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" s="637"/>
-      <c r="N24" s="637"/>
-      <c r="O24" s="472"/>
-      <c r="P24" s="472"/>
-      <c r="Q24" s="488"/>
-      <c r="R24" s="488"/>
+      <c r="L24" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="616"/>
+      <c r="N24" s="616"/>
+      <c r="O24" s="452"/>
+      <c r="P24" s="452"/>
+      <c r="Q24" s="468"/>
+      <c r="R24" s="468"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P25" s="559"/>
-      <c r="Q25" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R25" s="561"/>
+      <c r="O25" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P25" s="538"/>
+      <c r="Q25" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R25" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14856,7 +14950,7 @@
       <pane xSplit="7" ySplit="8" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14894,47 +14988,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="611"/>
-      <c r="C2" s="612"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="620" t="s">
+      <c r="B2" s="590"/>
+      <c r="C2" s="591"/>
+      <c r="D2" s="592"/>
+      <c r="E2" s="599" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="621"/>
-      <c r="G2" s="621"/>
-      <c r="H2" s="622"/>
-      <c r="I2" s="626" t="s">
+      <c r="F2" s="600"/>
+      <c r="G2" s="600"/>
+      <c r="H2" s="601"/>
+      <c r="I2" s="605" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="627"/>
-      <c r="K2" s="630">
+      <c r="J2" s="606"/>
+      <c r="K2" s="609">
         <f>Данные!B19</f>
         <v>200</v>
       </c>
-      <c r="L2" s="631"/>
+      <c r="L2" s="610"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="624"/>
+      <c r="Q2" s="624"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="614"/>
-      <c r="C3" s="615"/>
-      <c r="D3" s="616"/>
-      <c r="E3" s="623" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="624"/>
-      <c r="G3" s="624"/>
-      <c r="H3" s="625"/>
-      <c r="I3" s="628"/>
-      <c r="J3" s="629"/>
-      <c r="K3" s="632"/>
-      <c r="L3" s="633"/>
+      <c r="B3" s="593"/>
+      <c r="C3" s="594"/>
+      <c r="D3" s="595"/>
+      <c r="E3" s="602" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="603"/>
+      <c r="G3" s="603"/>
+      <c r="H3" s="604"/>
+      <c r="I3" s="607"/>
+      <c r="J3" s="608"/>
+      <c r="K3" s="611"/>
+      <c r="L3" s="612"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14945,9 +15039,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="617"/>
-      <c r="C4" s="618"/>
-      <c r="D4" s="619"/>
+      <c r="B4" s="596"/>
+      <c r="C4" s="597"/>
+      <c r="D4" s="598"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14966,22 +15060,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="590" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="493" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="607"/>
-      <c r="K5" s="608"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="494"/>
+      <c r="F5" s="494"/>
+      <c r="G5" s="494"/>
+      <c r="H5" s="495"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="495"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14992,22 +15086,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="590" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="605"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="487" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="606"/>
-      <c r="J6" s="607"/>
-      <c r="K6" s="608"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="495"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15018,27 +15112,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="600" t="s">
+      <c r="B7" s="579" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="609"/>
-      <c r="D7" s="518">
+      <c r="C7" s="588"/>
+      <c r="D7" s="496">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="602"/>
-      <c r="F7" s="602"/>
-      <c r="G7" s="602"/>
-      <c r="H7" s="603"/>
-      <c r="I7" s="610" t="s">
+      <c r="E7" s="581"/>
+      <c r="F7" s="581"/>
+      <c r="G7" s="581"/>
+      <c r="H7" s="582"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="K7" s="506">
+      <c r="J7" s="588"/>
+      <c r="K7" s="484">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="485"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15106,7 +15200,9 @@
       <c r="B10" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="97"/>
+      <c r="C10" s="97">
+        <v>24.7</v>
+      </c>
       <c r="D10" s="97">
         <v>0.05</v>
       </c>
@@ -15137,7 +15233,9 @@
       <c r="B11" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="97">
+        <v>19.95</v>
+      </c>
       <c r="D11" s="97">
         <v>0.02</v>
       </c>
@@ -15163,45 +15261,45 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="483" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="473"/>
-      <c r="B12" s="484" t="s">
+    <row r="12" spans="1:19" s="463" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="453"/>
+      <c r="B12" s="464" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="485">
+      <c r="C12" s="465">
         <v>28.6</v>
       </c>
-      <c r="D12" s="479">
+      <c r="D12" s="459">
         <v>0</v>
       </c>
-      <c r="E12" s="479">
+      <c r="E12" s="459">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="477" t="s">
+      <c r="F12" s="457" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="486"/>
-      <c r="I12" s="479"/>
-      <c r="J12" s="479"/>
-      <c r="K12" s="479"/>
-      <c r="L12" s="479"/>
-      <c r="M12" s="479"/>
-      <c r="N12" s="479"/>
-      <c r="O12" s="479"/>
-      <c r="P12" s="479"/>
-      <c r="Q12" s="479"/>
-      <c r="R12" s="487"/>
-      <c r="S12" s="482"/>
+        <v>135</v>
+      </c>
+      <c r="H12" s="466"/>
+      <c r="I12" s="459"/>
+      <c r="J12" s="459"/>
+      <c r="K12" s="459"/>
+      <c r="L12" s="459"/>
+      <c r="M12" s="459"/>
+      <c r="N12" s="459"/>
+      <c r="O12" s="459"/>
+      <c r="P12" s="459"/>
+      <c r="Q12" s="459"/>
+      <c r="R12" s="467"/>
+      <c r="S12" s="462"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="315">
+      <c r="C13" s="314">
         <v>62</v>
       </c>
       <c r="D13" s="97">
@@ -15234,7 +15332,9 @@
       <c r="B14" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="97"/>
+      <c r="C14" s="97">
+        <v>12.9</v>
+      </c>
       <c r="D14" s="97">
         <v>0</v>
       </c>
@@ -15265,7 +15365,7 @@
       <c r="B15" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="315">
+      <c r="C15" s="314">
         <v>9.5</v>
       </c>
       <c r="D15" s="97">
@@ -15295,12 +15395,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="587" t="s">
+      <c r="B16" s="566" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="588"/>
-      <c r="D16" s="588"/>
-      <c r="E16" s="589"/>
+      <c r="C16" s="567"/>
+      <c r="D16" s="567"/>
+      <c r="E16" s="568"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15345,25 +15445,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="637" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="637"/>
-      <c r="N19" s="637"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="L19" s="616" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="616"/>
+      <c r="N19" s="616"/>
+      <c r="O19" s="452"/>
+      <c r="P19" s="452"/>
+      <c r="Q19" s="468"/>
+      <c r="R19" s="468"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="559" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="559"/>
-      <c r="Q20" s="560" t="s">
-        <v>140</v>
-      </c>
-      <c r="R20" s="561"/>
+      <c r="O20" s="538" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="538"/>
+      <c r="Q20" s="539" t="s">
+        <v>137</v>
+      </c>
+      <c r="R20" s="540"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-500-4 (Фляга 0,5 л.)/XIII-В-28-2-500-4 (Фляга 0,5 л.) от 26.06.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-500-4 (Фляга 0,5 л.)/XIII-В-28-2-500-4 (Фляга 0,5 л.) от 26.06.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XIII-В-28-2-500-4 (Фляга 0,5 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F7CD2-EC1A-4A90-8129-279E6A965BB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A2E34-3BC7-4C88-8812-C818E41513F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3635,11 +3635,53 @@
     <xf numFmtId="14" fontId="58" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3685,114 +3727,150 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3893,40 +3971,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3946,84 +4072,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4054,83 +4102,35 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6789,25 +6789,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="500" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="490"/>
-      <c r="C1" s="490"/>
-      <c r="D1" s="490"/>
-      <c r="E1" s="490"/>
+      <c r="B1" s="504"/>
+      <c r="C1" s="504"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
       <c r="G1" s="362" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="487" t="s">
+      <c r="A2" s="501" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="488"/>
-      <c r="C2" s="488"/>
-      <c r="D2" s="488"/>
-      <c r="E2" s="489"/>
+      <c r="B2" s="502"/>
+      <c r="C2" s="502"/>
+      <c r="D2" s="502"/>
+      <c r="E2" s="503"/>
       <c r="G2" s="361" t="s">
         <v>76</v>
       </c>
@@ -6818,45 +6818,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="491" t="s">
+      <c r="A4" s="505" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="492"/>
-      <c r="C4" s="492"/>
-      <c r="D4" s="492"/>
-      <c r="E4" s="492"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="506"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="493" t="s">
+      <c r="A5" s="507" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="494"/>
-      <c r="C5" s="494"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="495"/>
+      <c r="B5" s="508"/>
+      <c r="C5" s="508"/>
+      <c r="D5" s="508"/>
+      <c r="E5" s="509"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="486" t="s">
+      <c r="A7" s="500" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="490"/>
-      <c r="C7" s="490"/>
-      <c r="D7" s="490"/>
-      <c r="E7" s="490"/>
+      <c r="B7" s="504"/>
+      <c r="C7" s="504"/>
+      <c r="D7" s="504"/>
+      <c r="E7" s="504"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="496"/>
-      <c r="B8" s="497"/>
-      <c r="C8" s="497"/>
-      <c r="D8" s="497"/>
-      <c r="E8" s="498"/>
+      <c r="A8" s="510"/>
+      <c r="B8" s="511"/>
+      <c r="C8" s="511"/>
+      <c r="D8" s="511"/>
+      <c r="E8" s="512"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="486" t="s">
+      <c r="A10" s="500" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="486"/>
+      <c r="B10" s="500"/>
       <c r="C10" s="363"/>
       <c r="D10" s="369" t="s">
         <v>90</v>
@@ -6867,33 +6867,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="484"/>
-      <c r="B11" s="485"/>
+      <c r="A11" s="498"/>
+      <c r="B11" s="499"/>
       <c r="D11" s="368">
         <v>44041</v>
       </c>
-      <c r="F11" s="481" t="s">
+      <c r="F11" s="513" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="481"/>
-      <c r="H11" s="481"/>
-      <c r="I11" s="481"/>
-      <c r="J11" s="482" t="s">
+      <c r="G11" s="513"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="514" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="482"/>
+      <c r="K11" s="514"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="481" t="s">
+      <c r="F12" s="513" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="481"/>
-      <c r="H12" s="481"/>
-      <c r="I12" s="481"/>
-      <c r="J12" s="482" t="s">
+      <c r="G12" s="513"/>
+      <c r="H12" s="513"/>
+      <c r="I12" s="513"/>
+      <c r="J12" s="514" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="482"/>
+      <c r="K12" s="514"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
@@ -6911,16 +6911,16 @@
       <c r="E13" s="451" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="481" t="s">
+      <c r="F13" s="513" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="481"/>
-      <c r="H13" s="481"/>
-      <c r="I13" s="481"/>
-      <c r="J13" s="482" t="s">
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="514" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="482"/>
+      <c r="K13" s="514"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="364" t="s">
@@ -7153,11 +7153,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="483" t="s">
+      <c r="A29" s="497" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="483"/>
-      <c r="C29" s="483"/>
+      <c r="B29" s="497"/>
+      <c r="C29" s="497"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="362" t="s">
@@ -7166,6 +7166,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7175,12 +7181,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7234,47 +7234,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="625"/>
-      <c r="Q2" s="625"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7285,9 +7285,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7306,22 +7306,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7332,22 +7332,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7358,27 +7358,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="496">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="484">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7761,33 +7761,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="616" t="s">
+      <c r="L21" s="632" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="616"/>
-      <c r="N21" s="616"/>
+      <c r="M21" s="632"/>
+      <c r="N21" s="632"/>
       <c r="O21" s="452"/>
       <c r="P21" s="452"/>
       <c r="Q21" s="468"/>
       <c r="R21" s="468"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="538" t="s">
+      <c r="O22" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P22" s="538"/>
-      <c r="Q22" s="539" t="s">
+      <c r="P22" s="564"/>
+      <c r="Q22" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R22" s="540"/>
+      <c r="R22" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7804,6 +7799,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7869,47 +7869,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7920,9 +7920,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7941,22 +7941,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7967,22 +7967,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7993,27 +7993,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="496">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="484">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8342,12 +8342,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="627" t="s">
+      <c r="B18" s="642" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="628"/>
-      <c r="D18" s="628"/>
-      <c r="E18" s="629"/>
+      <c r="C18" s="643"/>
+      <c r="D18" s="643"/>
+      <c r="E18" s="644"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8390,37 +8390,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="616" t="s">
+      <c r="L21" s="632" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="616"/>
-      <c r="N21" s="616"/>
+      <c r="M21" s="632"/>
+      <c r="N21" s="632"/>
       <c r="O21" s="452"/>
       <c r="P21" s="452"/>
       <c r="Q21" s="468"/>
       <c r="R21" s="468"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="538" t="s">
+      <c r="O22" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P22" s="538"/>
-      <c r="Q22" s="539" t="s">
+      <c r="P22" s="564"/>
+      <c r="Q22" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R22" s="540"/>
+      <c r="R22" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8434,6 +8425,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8508,47 +8508,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8559,9 +8559,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8580,22 +8580,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8606,22 +8606,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8632,27 +8632,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="496">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="484">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8963,33 +8963,28 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="616" t="s">
+      <c r="L19" s="632" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="616"/>
-      <c r="N19" s="616"/>
+      <c r="M19" s="632"/>
+      <c r="N19" s="632"/>
       <c r="O19" s="452"/>
       <c r="P19" s="452"/>
       <c r="Q19" s="468"/>
       <c r="R19" s="468"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="538" t="s">
+      <c r="O20" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P20" s="538"/>
-      <c r="Q20" s="539" t="s">
+      <c r="P20" s="564"/>
+      <c r="Q20" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R20" s="540"/>
+      <c r="R20" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9006,6 +9001,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9062,47 +9062,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="632">
+      <c r="J2" s="619"/>
+      <c r="K2" s="647">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="L2" s="633"/>
+      <c r="L2" s="648"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
+      <c r="P2" s="651"/>
+      <c r="Q2" s="651"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="634"/>
-      <c r="L3" s="635"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="649"/>
+      <c r="L3" s="650"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9113,9 +9113,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9134,22 +9134,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9160,22 +9160,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9186,27 +9186,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="496">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="484">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9472,33 +9472,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="616" t="s">
+      <c r="L18" s="632" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="616"/>
-      <c r="N18" s="616"/>
+      <c r="M18" s="632"/>
+      <c r="N18" s="632"/>
       <c r="O18" s="452"/>
       <c r="P18" s="452"/>
       <c r="Q18" s="468"/>
       <c r="R18" s="468"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="538" t="s">
+      <c r="O19" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="538"/>
-      <c r="Q19" s="539" t="s">
+      <c r="P19" s="564"/>
+      <c r="Q19" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R19" s="540"/>
+      <c r="R19" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9515,6 +9510,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9543,8 +9543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10173,14 +10173,14 @@
       <c r="D23" s="368">
         <v>44319</v>
       </c>
-      <c r="E23" s="646">
+      <c r="E23" s="491">
         <v>2531340</v>
       </c>
-      <c r="F23" s="646">
+      <c r="F23" s="491">
         <v>2618407</v>
       </c>
       <c r="G23" s="417">
-        <f t="shared" ref="G23" si="5">F23/A$20</f>
+        <f t="shared" ref="G23:G24" si="5">F23/A$20</f>
         <v>0.15585755952380953</v>
       </c>
       <c r="H23" s="424">
@@ -10191,7 +10191,7 @@
         <f t="shared" ref="I23" si="7">I22-G23</f>
         <v>0.54250363095238097</v>
       </c>
-      <c r="J23" s="636">
+      <c r="J23" s="481">
         <v>371</v>
       </c>
       <c r="K23" s="420"/>
@@ -10199,15 +10199,36 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="426"/>
-      <c r="B24" s="368"/>
-      <c r="C24" s="368"/>
-      <c r="D24" s="368"/>
-      <c r="E24" s="647"/>
-      <c r="F24" s="647"/>
-      <c r="G24" s="637"/>
-      <c r="H24" s="650"/>
-      <c r="I24" s="429"/>
-      <c r="J24" s="471"/>
+      <c r="B24" s="368">
+        <v>44368</v>
+      </c>
+      <c r="C24" s="368">
+        <v>44374</v>
+      </c>
+      <c r="D24" s="368">
+        <v>44378</v>
+      </c>
+      <c r="E24" s="492">
+        <v>1030176</v>
+      </c>
+      <c r="F24" s="492">
+        <v>1077216</v>
+      </c>
+      <c r="G24" s="482">
+        <f t="shared" si="5"/>
+        <v>6.4119999999999996E-2</v>
+      </c>
+      <c r="H24" s="424">
+        <f t="shared" ref="H24" si="8">H23-F24</f>
+        <v>8036845</v>
+      </c>
+      <c r="I24" s="425">
+        <f t="shared" ref="I24" si="9">I23-G24</f>
+        <v>0.47838363095238096</v>
+      </c>
+      <c r="J24" s="471">
+        <v>371</v>
+      </c>
       <c r="K24" s="430"/>
       <c r="L24" s="381"/>
     </row>
@@ -10216,10 +10237,10 @@
       <c r="B25" s="368"/>
       <c r="C25" s="368"/>
       <c r="D25" s="368"/>
-      <c r="E25" s="647"/>
-      <c r="F25" s="647"/>
-      <c r="G25" s="637"/>
-      <c r="H25" s="650"/>
+      <c r="E25" s="492"/>
+      <c r="F25" s="492"/>
+      <c r="G25" s="482"/>
+      <c r="H25" s="495"/>
       <c r="I25" s="429"/>
       <c r="J25" s="471"/>
       <c r="K25" s="420"/>
@@ -10230,10 +10251,10 @@
       <c r="B26" s="368"/>
       <c r="C26" s="368"/>
       <c r="D26" s="368"/>
-      <c r="E26" s="647"/>
-      <c r="F26" s="647"/>
-      <c r="G26" s="637"/>
-      <c r="H26" s="650"/>
+      <c r="E26" s="492"/>
+      <c r="F26" s="492"/>
+      <c r="G26" s="482"/>
+      <c r="H26" s="495"/>
       <c r="I26" s="429"/>
       <c r="J26" s="471"/>
       <c r="K26" s="420"/>
@@ -10244,10 +10265,10 @@
       <c r="B27" s="368"/>
       <c r="C27" s="368"/>
       <c r="D27" s="368"/>
-      <c r="E27" s="647"/>
-      <c r="F27" s="647"/>
-      <c r="G27" s="637"/>
-      <c r="H27" s="650"/>
+      <c r="E27" s="492"/>
+      <c r="F27" s="492"/>
+      <c r="G27" s="482"/>
+      <c r="H27" s="495"/>
       <c r="I27" s="429"/>
       <c r="J27" s="471"/>
       <c r="K27" s="420"/>
@@ -10258,12 +10279,12 @@
       <c r="B28" s="368"/>
       <c r="C28" s="368"/>
       <c r="D28" s="365"/>
-      <c r="E28" s="646"/>
-      <c r="F28" s="647"/>
-      <c r="G28" s="638"/>
-      <c r="H28" s="650"/>
-      <c r="I28" s="639"/>
-      <c r="J28" s="640"/>
+      <c r="E28" s="491"/>
+      <c r="F28" s="492"/>
+      <c r="G28" s="483"/>
+      <c r="H28" s="495"/>
+      <c r="I28" s="484"/>
+      <c r="J28" s="485"/>
       <c r="K28" s="420"/>
       <c r="L28" s="381"/>
     </row>
@@ -10272,26 +10293,26 @@
       <c r="B29" s="368"/>
       <c r="C29" s="368"/>
       <c r="D29" s="365"/>
-      <c r="E29" s="646"/>
-      <c r="F29" s="647"/>
-      <c r="G29" s="637"/>
-      <c r="H29" s="650"/>
-      <c r="I29" s="639"/>
-      <c r="J29" s="640"/>
+      <c r="E29" s="491"/>
+      <c r="F29" s="492"/>
+      <c r="G29" s="482"/>
+      <c r="H29" s="495"/>
+      <c r="I29" s="484"/>
+      <c r="J29" s="485"/>
       <c r="K29" s="420"/>
       <c r="L29" s="381"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="431"/>
-      <c r="B30" s="641"/>
-      <c r="C30" s="641"/>
-      <c r="D30" s="642"/>
-      <c r="E30" s="648"/>
-      <c r="F30" s="649"/>
-      <c r="G30" s="643"/>
-      <c r="H30" s="651"/>
-      <c r="I30" s="644"/>
-      <c r="J30" s="645"/>
+      <c r="B30" s="486"/>
+      <c r="C30" s="486"/>
+      <c r="D30" s="487"/>
+      <c r="E30" s="493"/>
+      <c r="F30" s="494"/>
+      <c r="G30" s="488"/>
+      <c r="H30" s="496"/>
+      <c r="I30" s="489"/>
+      <c r="J30" s="490"/>
       <c r="K30" s="381"/>
       <c r="L30" s="381"/>
     </row>
@@ -10304,23 +10325,23 @@
       <c r="D31" s="434"/>
       <c r="E31" s="477">
         <f>SUM(E20:E30)</f>
-        <v>7401744</v>
+        <v>8431920</v>
       </c>
       <c r="F31" s="478">
         <f>SUM(F20:F30)</f>
-        <v>7685939</v>
+        <v>8763155</v>
       </c>
       <c r="G31" s="435">
         <f>SUM(G20:G30)</f>
-        <v>0.45749636904761909</v>
+        <v>0.5216163690476191</v>
       </c>
       <c r="H31" s="436">
         <f>A20-F31</f>
-        <v>9114061</v>
+        <v>8036845</v>
       </c>
       <c r="I31" s="437">
         <f>1-G31</f>
-        <v>0.54250363095238097</v>
+        <v>0.4783836309523809</v>
       </c>
       <c r="J31" s="472"/>
       <c r="K31" s="438"/>
@@ -10339,12 +10360,12 @@
       <c r="J34" s="381"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="504" t="s">
+      <c r="A35" s="517" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="504"/>
-      <c r="C35" s="504"/>
-      <c r="D35" s="504"/>
+      <c r="B35" s="517"/>
+      <c r="C35" s="517"/>
+      <c r="D35" s="517"/>
       <c r="E35" s="381"/>
       <c r="F35" s="381"/>
       <c r="G35" s="381"/>
@@ -10353,10 +10374,10 @@
       <c r="J35" s="381"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="505" t="s">
+      <c r="A36" s="518" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="505"/>
+      <c r="B36" s="518"/>
       <c r="C36" s="439" t="s">
         <v>126</v>
       </c>
@@ -10371,18 +10392,18 @@
       <c r="J36" s="381"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="506">
+      <c r="A37" s="519">
         <f>A20-F31</f>
-        <v>9114061</v>
-      </c>
-      <c r="B37" s="507"/>
+        <v>8036845</v>
+      </c>
+      <c r="B37" s="520"/>
       <c r="C37" s="440">
         <f>1-G31</f>
-        <v>0.54250363095238097</v>
+        <v>0.4783836309523809</v>
       </c>
       <c r="D37" s="441">
         <f>(C37/0.8)*100</f>
-        <v>67.812953869047618</v>
+        <v>59.797953869047603</v>
       </c>
       <c r="E37" s="442" t="s">
         <v>128</v>
@@ -10437,8 +10458,8 @@
       <c r="F41" s="444"/>
       <c r="G41" s="444"/>
       <c r="H41" s="444"/>
-      <c r="I41" s="499"/>
-      <c r="J41" s="500"/>
+      <c r="I41" s="521"/>
+      <c r="J41" s="522"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="445"/>
@@ -10532,9 +10553,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="381"/>
-      <c r="B51" s="502"/>
-      <c r="C51" s="502"/>
-      <c r="D51" s="503"/>
+      <c r="B51" s="515"/>
+      <c r="C51" s="515"/>
+      <c r="D51" s="516"/>
       <c r="E51" s="442"/>
       <c r="F51" s="381"/>
       <c r="G51" s="381"/>
@@ -10551,8 +10572,8 @@
       <c r="F52" s="444"/>
       <c r="G52" s="444"/>
       <c r="H52" s="444"/>
-      <c r="I52" s="499"/>
-      <c r="J52" s="500"/>
+      <c r="I52" s="521"/>
+      <c r="J52" s="522"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="445"/>
@@ -10563,8 +10584,8 @@
       <c r="F53" s="404"/>
       <c r="G53" s="404"/>
       <c r="H53" s="446"/>
-      <c r="I53" s="501"/>
-      <c r="J53" s="501"/>
+      <c r="I53" s="523"/>
+      <c r="J53" s="523"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="445"/>
@@ -10575,8 +10596,8 @@
       <c r="F54" s="400"/>
       <c r="G54" s="400"/>
       <c r="H54" s="400"/>
-      <c r="I54" s="501"/>
-      <c r="J54" s="501"/>
+      <c r="I54" s="523"/>
+      <c r="J54" s="523"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="381"/>
@@ -10589,25 +10610,25 @@
       <c r="H55" s="381"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="499"/>
-      <c r="C60" s="500"/>
+      <c r="B60" s="521"/>
+      <c r="C60" s="522"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="499"/>
-      <c r="C67" s="500"/>
+      <c r="B67" s="521"/>
+      <c r="C67" s="522"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B67:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10690,47 +10711,47 @@
       <c r="J8" s="309"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="533" t="s">
+      <c r="A11" s="525" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="533"/>
-      <c r="C11" s="533"/>
-      <c r="D11" s="533"/>
-      <c r="E11" s="533"/>
-      <c r="F11" s="533"/>
-      <c r="G11" s="533"/>
-      <c r="H11" s="533"/>
-      <c r="I11" s="533"/>
-      <c r="J11" s="533"/>
+      <c r="B11" s="525"/>
+      <c r="C11" s="525"/>
+      <c r="D11" s="525"/>
+      <c r="E11" s="525"/>
+      <c r="F11" s="525"/>
+      <c r="G11" s="525"/>
+      <c r="H11" s="525"/>
+      <c r="I11" s="525"/>
+      <c r="J11" s="525"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="532" t="s">
+      <c r="A12" s="524" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="532"/>
-      <c r="C12" s="532"/>
-      <c r="D12" s="532"/>
-      <c r="E12" s="532"/>
-      <c r="F12" s="532"/>
-      <c r="G12" s="532"/>
-      <c r="H12" s="532"/>
-      <c r="I12" s="532"/>
-      <c r="J12" s="532"/>
+      <c r="B12" s="524"/>
+      <c r="C12" s="524"/>
+      <c r="D12" s="524"/>
+      <c r="E12" s="524"/>
+      <c r="F12" s="524"/>
+      <c r="G12" s="524"/>
+      <c r="H12" s="524"/>
+      <c r="I12" s="524"/>
+      <c r="J12" s="524"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="534" t="str">
+      <c r="A13" s="526" t="str">
         <f>Данные!A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="B13" s="533"/>
-      <c r="C13" s="533"/>
-      <c r="D13" s="533"/>
-      <c r="E13" s="533"/>
-      <c r="F13" s="533"/>
-      <c r="G13" s="533"/>
-      <c r="H13" s="533"/>
-      <c r="I13" s="533"/>
-      <c r="J13" s="533"/>
+      <c r="B13" s="525"/>
+      <c r="C13" s="525"/>
+      <c r="D13" s="525"/>
+      <c r="E13" s="525"/>
+      <c r="F13" s="525"/>
+      <c r="G13" s="525"/>
+      <c r="H13" s="525"/>
+      <c r="I13" s="525"/>
+      <c r="J13" s="525"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10867,7 +10888,7 @@
         <v>67</v>
       </c>
       <c r="F22" s="530"/>
-      <c r="G22" s="531" t="s">
+      <c r="G22" s="548" t="s">
         <v>68</v>
       </c>
       <c r="H22" s="530" t="s">
@@ -10883,467 +10904,467 @@
       <c r="D23" s="530"/>
       <c r="E23" s="530"/>
       <c r="F23" s="530"/>
-      <c r="G23" s="531"/>
+      <c r="G23" s="548"/>
       <c r="H23" s="530"/>
       <c r="I23" s="530"/>
       <c r="J23" s="530"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="509">
+      <c r="A24" s="531">
         <v>1</v>
       </c>
-      <c r="B24" s="535" t="s">
+      <c r="B24" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="536"/>
-      <c r="D24" s="537"/>
-      <c r="E24" s="514" t="str">
+      <c r="C24" s="546"/>
+      <c r="D24" s="547"/>
+      <c r="E24" s="533" t="str">
         <f>Данные!C14</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F24" s="515"/>
-      <c r="G24" s="518">
+      <c r="F24" s="534"/>
+      <c r="G24" s="537">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="520"/>
-      <c r="I24" s="521"/>
-      <c r="J24" s="522"/>
+      <c r="H24" s="539"/>
+      <c r="I24" s="540"/>
+      <c r="J24" s="541"/>
     </row>
     <row r="25" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="510"/>
-      <c r="B25" s="526" t="str">
+      <c r="A25" s="532"/>
+      <c r="B25" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C25" s="527"/>
-      <c r="D25" s="528"/>
-      <c r="E25" s="529"/>
-      <c r="F25" s="517"/>
-      <c r="G25" s="519"/>
-      <c r="H25" s="523"/>
-      <c r="I25" s="524"/>
-      <c r="J25" s="525"/>
+      <c r="C25" s="528"/>
+      <c r="D25" s="529"/>
+      <c r="E25" s="535"/>
+      <c r="F25" s="536"/>
+      <c r="G25" s="538"/>
+      <c r="H25" s="542"/>
+      <c r="I25" s="543"/>
+      <c r="J25" s="544"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="509">
+      <c r="A26" s="531">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="511" t="s">
+      <c r="B26" s="549" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="512"/>
-      <c r="D26" s="513"/>
-      <c r="E26" s="514" t="str">
+      <c r="C26" s="550"/>
+      <c r="D26" s="551"/>
+      <c r="E26" s="533" t="str">
         <f>Данные!C15</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F26" s="515"/>
-      <c r="G26" s="518">
+      <c r="F26" s="534"/>
+      <c r="G26" s="537">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="520"/>
-      <c r="I26" s="521"/>
-      <c r="J26" s="522"/>
+      <c r="H26" s="539"/>
+      <c r="I26" s="540"/>
+      <c r="J26" s="541"/>
     </row>
     <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="510"/>
-      <c r="B27" s="526" t="str">
+      <c r="A27" s="532"/>
+      <c r="B27" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C27" s="527"/>
-      <c r="D27" s="528"/>
-      <c r="E27" s="529"/>
-      <c r="F27" s="517"/>
-      <c r="G27" s="519"/>
-      <c r="H27" s="523"/>
-      <c r="I27" s="524"/>
-      <c r="J27" s="525"/>
+      <c r="C27" s="528"/>
+      <c r="D27" s="529"/>
+      <c r="E27" s="535"/>
+      <c r="F27" s="536"/>
+      <c r="G27" s="538"/>
+      <c r="H27" s="542"/>
+      <c r="I27" s="543"/>
+      <c r="J27" s="544"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="509">
+      <c r="A28" s="531">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="511" t="s">
+      <c r="B28" s="549" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="512"/>
-      <c r="D28" s="513"/>
-      <c r="E28" s="514" t="str">
+      <c r="C28" s="550"/>
+      <c r="D28" s="551"/>
+      <c r="E28" s="533" t="str">
         <f>Данные!C16</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F28" s="515"/>
-      <c r="G28" s="518">
+      <c r="F28" s="534"/>
+      <c r="G28" s="537">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="H28" s="520" t="s">
+      <c r="H28" s="539" t="s">
         <v>151</v>
       </c>
-      <c r="I28" s="521"/>
-      <c r="J28" s="522"/>
+      <c r="I28" s="540"/>
+      <c r="J28" s="541"/>
     </row>
     <row r="29" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="510"/>
-      <c r="B29" s="526" t="str">
+      <c r="A29" s="532"/>
+      <c r="B29" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C29" s="527"/>
-      <c r="D29" s="528"/>
-      <c r="E29" s="529"/>
-      <c r="F29" s="517"/>
-      <c r="G29" s="519"/>
-      <c r="H29" s="523"/>
-      <c r="I29" s="524"/>
-      <c r="J29" s="525"/>
+      <c r="C29" s="528"/>
+      <c r="D29" s="529"/>
+      <c r="E29" s="535"/>
+      <c r="F29" s="536"/>
+      <c r="G29" s="538"/>
+      <c r="H29" s="542"/>
+      <c r="I29" s="543"/>
+      <c r="J29" s="544"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="509">
+      <c r="A30" s="531">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="511" t="s">
+      <c r="B30" s="549" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="512"/>
-      <c r="D30" s="513"/>
-      <c r="E30" s="514" t="str">
+      <c r="C30" s="550"/>
+      <c r="D30" s="551"/>
+      <c r="E30" s="533" t="str">
         <f>Данные!C17</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F30" s="515"/>
-      <c r="G30" s="518">
+      <c r="F30" s="534"/>
+      <c r="G30" s="537">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="520"/>
-      <c r="I30" s="521"/>
-      <c r="J30" s="522"/>
+      <c r="H30" s="539"/>
+      <c r="I30" s="540"/>
+      <c r="J30" s="541"/>
     </row>
     <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="510"/>
-      <c r="B31" s="526" t="str">
+      <c r="A31" s="532"/>
+      <c r="B31" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C31" s="527"/>
-      <c r="D31" s="528"/>
-      <c r="E31" s="516"/>
-      <c r="F31" s="517"/>
-      <c r="G31" s="519"/>
-      <c r="H31" s="523"/>
-      <c r="I31" s="524"/>
-      <c r="J31" s="525"/>
+      <c r="C31" s="528"/>
+      <c r="D31" s="529"/>
+      <c r="E31" s="552"/>
+      <c r="F31" s="536"/>
+      <c r="G31" s="538"/>
+      <c r="H31" s="542"/>
+      <c r="I31" s="543"/>
+      <c r="J31" s="544"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="509">
+      <c r="A32" s="531">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="511" t="s">
+      <c r="B32" s="549" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="512"/>
-      <c r="D32" s="513"/>
-      <c r="E32" s="514" t="str">
+      <c r="C32" s="550"/>
+      <c r="D32" s="551"/>
+      <c r="E32" s="533" t="str">
         <f>Данные!C18</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F32" s="515"/>
-      <c r="G32" s="518">
+      <c r="F32" s="534"/>
+      <c r="G32" s="537">
         <f>Данные!B18</f>
         <v>160</v>
       </c>
-      <c r="H32" s="520"/>
-      <c r="I32" s="521"/>
-      <c r="J32" s="522"/>
+      <c r="H32" s="539"/>
+      <c r="I32" s="540"/>
+      <c r="J32" s="541"/>
     </row>
     <row r="33" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="510"/>
-      <c r="B33" s="526" t="str">
+      <c r="A33" s="532"/>
+      <c r="B33" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C33" s="527"/>
-      <c r="D33" s="528"/>
-      <c r="E33" s="516"/>
-      <c r="F33" s="517"/>
-      <c r="G33" s="519"/>
-      <c r="H33" s="523"/>
-      <c r="I33" s="524"/>
-      <c r="J33" s="525"/>
+      <c r="C33" s="528"/>
+      <c r="D33" s="529"/>
+      <c r="E33" s="552"/>
+      <c r="F33" s="536"/>
+      <c r="G33" s="538"/>
+      <c r="H33" s="542"/>
+      <c r="I33" s="543"/>
+      <c r="J33" s="544"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="509">
+      <c r="A34" s="531">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="511" t="s">
+      <c r="B34" s="549" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="512"/>
-      <c r="D34" s="513"/>
-      <c r="E34" s="514" t="str">
+      <c r="C34" s="550"/>
+      <c r="D34" s="551"/>
+      <c r="E34" s="533" t="str">
         <f>Данные!C19</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F34" s="515"/>
-      <c r="G34" s="518">
+      <c r="F34" s="534"/>
+      <c r="G34" s="537">
         <f>Данные!B19</f>
         <v>200</v>
       </c>
-      <c r="H34" s="520"/>
-      <c r="I34" s="521"/>
-      <c r="J34" s="522"/>
+      <c r="H34" s="539"/>
+      <c r="I34" s="540"/>
+      <c r="J34" s="541"/>
     </row>
     <row r="35" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="510"/>
-      <c r="B35" s="526" t="str">
+      <c r="A35" s="532"/>
+      <c r="B35" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C35" s="527"/>
-      <c r="D35" s="528"/>
-      <c r="E35" s="516"/>
-      <c r="F35" s="517"/>
-      <c r="G35" s="519"/>
-      <c r="H35" s="523"/>
-      <c r="I35" s="524"/>
-      <c r="J35" s="525"/>
+      <c r="C35" s="528"/>
+      <c r="D35" s="529"/>
+      <c r="E35" s="552"/>
+      <c r="F35" s="536"/>
+      <c r="G35" s="538"/>
+      <c r="H35" s="542"/>
+      <c r="I35" s="543"/>
+      <c r="J35" s="544"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="509">
+      <c r="A36" s="531">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="511" t="s">
+      <c r="B36" s="549" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="512"/>
-      <c r="D36" s="513"/>
-      <c r="E36" s="514" t="str">
+      <c r="C36" s="550"/>
+      <c r="D36" s="551"/>
+      <c r="E36" s="533" t="str">
         <f>Данные!C20</f>
         <v>FLYAGA 500 ml</v>
       </c>
-      <c r="F36" s="515"/>
-      <c r="G36" s="518">
+      <c r="F36" s="534"/>
+      <c r="G36" s="537">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="520"/>
-      <c r="I36" s="521"/>
-      <c r="J36" s="522"/>
+      <c r="H36" s="539"/>
+      <c r="I36" s="540"/>
+      <c r="J36" s="541"/>
     </row>
     <row r="37" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="510"/>
-      <c r="B37" s="526" t="str">
+      <c r="A37" s="532"/>
+      <c r="B37" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C37" s="527"/>
-      <c r="D37" s="528"/>
-      <c r="E37" s="516"/>
-      <c r="F37" s="517"/>
-      <c r="G37" s="519"/>
-      <c r="H37" s="523"/>
-      <c r="I37" s="524"/>
-      <c r="J37" s="525"/>
+      <c r="C37" s="528"/>
+      <c r="D37" s="529"/>
+      <c r="E37" s="552"/>
+      <c r="F37" s="536"/>
+      <c r="G37" s="538"/>
+      <c r="H37" s="542"/>
+      <c r="I37" s="543"/>
+      <c r="J37" s="544"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="509">
+      <c r="A38" s="531">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="511" t="s">
+      <c r="B38" s="549" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="512"/>
-      <c r="D38" s="513"/>
-      <c r="E38" s="514">
+      <c r="C38" s="550"/>
+      <c r="D38" s="551"/>
+      <c r="E38" s="533">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="515"/>
-      <c r="G38" s="518">
+      <c r="F38" s="534"/>
+      <c r="G38" s="537">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="520"/>
-      <c r="I38" s="521"/>
-      <c r="J38" s="522"/>
+      <c r="H38" s="539"/>
+      <c r="I38" s="540"/>
+      <c r="J38" s="541"/>
     </row>
     <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="510"/>
-      <c r="B39" s="526" t="str">
+      <c r="A39" s="532"/>
+      <c r="B39" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C39" s="527"/>
-      <c r="D39" s="528"/>
-      <c r="E39" s="516"/>
-      <c r="F39" s="517"/>
-      <c r="G39" s="519"/>
-      <c r="H39" s="523"/>
-      <c r="I39" s="524"/>
-      <c r="J39" s="525"/>
+      <c r="C39" s="528"/>
+      <c r="D39" s="529"/>
+      <c r="E39" s="552"/>
+      <c r="F39" s="536"/>
+      <c r="G39" s="538"/>
+      <c r="H39" s="542"/>
+      <c r="I39" s="543"/>
+      <c r="J39" s="544"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="509">
+      <c r="A40" s="531">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="511" t="s">
+      <c r="B40" s="549" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="512"/>
-      <c r="D40" s="513"/>
-      <c r="E40" s="514">
+      <c r="C40" s="550"/>
+      <c r="D40" s="551"/>
+      <c r="E40" s="533">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F40" s="515"/>
-      <c r="G40" s="518">
+      <c r="F40" s="534"/>
+      <c r="G40" s="537">
         <f>Данные!B23</f>
         <v>0</v>
       </c>
-      <c r="H40" s="520"/>
-      <c r="I40" s="521"/>
-      <c r="J40" s="522"/>
+      <c r="H40" s="539"/>
+      <c r="I40" s="540"/>
+      <c r="J40" s="541"/>
     </row>
     <row r="41" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="510"/>
-      <c r="B41" s="526" t="str">
+      <c r="A41" s="532"/>
+      <c r="B41" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C41" s="527"/>
-      <c r="D41" s="528"/>
-      <c r="E41" s="516"/>
-      <c r="F41" s="517"/>
-      <c r="G41" s="519"/>
-      <c r="H41" s="523"/>
-      <c r="I41" s="524"/>
-      <c r="J41" s="525"/>
+      <c r="C41" s="528"/>
+      <c r="D41" s="529"/>
+      <c r="E41" s="552"/>
+      <c r="F41" s="536"/>
+      <c r="G41" s="538"/>
+      <c r="H41" s="542"/>
+      <c r="I41" s="543"/>
+      <c r="J41" s="544"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="509">
+      <c r="A42" s="531">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="511" t="s">
+      <c r="B42" s="549" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="512"/>
-      <c r="D42" s="513"/>
-      <c r="E42" s="514">
+      <c r="C42" s="550"/>
+      <c r="D42" s="551"/>
+      <c r="E42" s="533">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="515"/>
-      <c r="G42" s="518">
+      <c r="F42" s="534"/>
+      <c r="G42" s="537">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="520"/>
-      <c r="I42" s="521"/>
-      <c r="J42" s="522"/>
+      <c r="H42" s="539"/>
+      <c r="I42" s="540"/>
+      <c r="J42" s="541"/>
     </row>
     <row r="43" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="510"/>
-      <c r="B43" s="526" t="str">
+      <c r="A43" s="532"/>
+      <c r="B43" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C43" s="527"/>
-      <c r="D43" s="528"/>
-      <c r="E43" s="516"/>
-      <c r="F43" s="517"/>
-      <c r="G43" s="519"/>
-      <c r="H43" s="523"/>
-      <c r="I43" s="524"/>
-      <c r="J43" s="525"/>
+      <c r="C43" s="528"/>
+      <c r="D43" s="529"/>
+      <c r="E43" s="552"/>
+      <c r="F43" s="536"/>
+      <c r="G43" s="538"/>
+      <c r="H43" s="542"/>
+      <c r="I43" s="543"/>
+      <c r="J43" s="544"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="509">
+      <c r="A44" s="531">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="511" t="s">
+      <c r="B44" s="549" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="512"/>
-      <c r="D44" s="513"/>
-      <c r="E44" s="514">
+      <c r="C44" s="550"/>
+      <c r="D44" s="551"/>
+      <c r="E44" s="533">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="515"/>
-      <c r="G44" s="518">
+      <c r="F44" s="534"/>
+      <c r="G44" s="537">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="520"/>
-      <c r="I44" s="521"/>
-      <c r="J44" s="522"/>
+      <c r="H44" s="539"/>
+      <c r="I44" s="540"/>
+      <c r="J44" s="541"/>
     </row>
     <row r="45" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="510"/>
-      <c r="B45" s="526" t="str">
+      <c r="A45" s="532"/>
+      <c r="B45" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C45" s="527"/>
-      <c r="D45" s="528"/>
-      <c r="E45" s="516"/>
-      <c r="F45" s="517"/>
-      <c r="G45" s="519"/>
-      <c r="H45" s="523"/>
-      <c r="I45" s="524"/>
-      <c r="J45" s="525"/>
+      <c r="C45" s="528"/>
+      <c r="D45" s="529"/>
+      <c r="E45" s="552"/>
+      <c r="F45" s="536"/>
+      <c r="G45" s="538"/>
+      <c r="H45" s="542"/>
+      <c r="I45" s="543"/>
+      <c r="J45" s="544"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="509">
+      <c r="A46" s="531">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="511" t="s">
+      <c r="B46" s="549" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="512"/>
-      <c r="D46" s="513"/>
-      <c r="E46" s="514">
+      <c r="C46" s="550"/>
+      <c r="D46" s="551"/>
+      <c r="E46" s="533">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F46" s="515"/>
-      <c r="G46" s="518">
+      <c r="F46" s="534"/>
+      <c r="G46" s="537">
         <f>Данные!B24</f>
         <v>0</v>
       </c>
-      <c r="H46" s="520"/>
-      <c r="I46" s="521"/>
-      <c r="J46" s="522"/>
+      <c r="H46" s="539"/>
+      <c r="I46" s="540"/>
+      <c r="J46" s="541"/>
     </row>
     <row r="47" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="510"/>
-      <c r="B47" s="526" t="str">
+      <c r="A47" s="532"/>
+      <c r="B47" s="527" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту БутылкаXIII-В-28-2-500-4 (Фляга 0,5 л.))</v>
       </c>
-      <c r="C47" s="527"/>
-      <c r="D47" s="528"/>
-      <c r="E47" s="516"/>
-      <c r="F47" s="517"/>
-      <c r="G47" s="519"/>
-      <c r="H47" s="523"/>
-      <c r="I47" s="524"/>
-      <c r="J47" s="525"/>
+      <c r="C47" s="528"/>
+      <c r="D47" s="529"/>
+      <c r="E47" s="552"/>
+      <c r="F47" s="536"/>
+      <c r="G47" s="538"/>
+      <c r="H47" s="542"/>
+      <c r="I47" s="543"/>
+      <c r="J47" s="544"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11358,18 +11379,18 @@
       <c r="J48" s="305"/>
     </row>
     <row r="49" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="508" t="s">
+      <c r="A49" s="553" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="508"/>
-      <c r="C49" s="508"/>
-      <c r="D49" s="508"/>
-      <c r="E49" s="508"/>
-      <c r="F49" s="508"/>
-      <c r="G49" s="508"/>
-      <c r="H49" s="508"/>
-      <c r="I49" s="508"/>
-      <c r="J49" s="508"/>
+      <c r="B49" s="553"/>
+      <c r="C49" s="553"/>
+      <c r="D49" s="553"/>
+      <c r="E49" s="553"/>
+      <c r="F49" s="553"/>
+      <c r="G49" s="553"/>
+      <c r="H49" s="553"/>
+      <c r="I49" s="553"/>
+      <c r="J49" s="553"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="304"/>
@@ -11470,6 +11491,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11486,71 +11572,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11608,47 +11629,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="568"/>
+      <c r="C2" s="569"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="577" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="578"/>
+      <c r="G2" s="578"/>
+      <c r="H2" s="579"/>
+      <c r="I2" s="584" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="585"/>
+      <c r="K2" s="588">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="589"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="580"/>
+      <c r="Q2" s="580"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="571"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="581" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="582"/>
+      <c r="H3" s="583"/>
+      <c r="I3" s="586"/>
+      <c r="J3" s="587"/>
+      <c r="K3" s="590"/>
+      <c r="L3" s="591"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11659,9 +11680,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="574"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="576"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11680,22 +11701,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="596"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="494"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="558"/>
+      <c r="K5" s="508"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11706,22 +11727,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="494"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="557"/>
+      <c r="J6" s="558"/>
+      <c r="K6" s="508"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11732,27 +11753,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="580"/>
-      <c r="D7" s="496">
+      <c r="C7" s="560"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="579" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="583"/>
-      <c r="K7" s="484">
+      <c r="J7" s="563"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12242,12 +12263,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="576" t="s">
+      <c r="B23" s="554" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="577"/>
-      <c r="D23" s="577"/>
-      <c r="E23" s="578"/>
+      <c r="C23" s="555"/>
+      <c r="D23" s="555"/>
+      <c r="E23" s="556"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12269,12 +12290,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="566" t="s">
+      <c r="B24" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="567"/>
-      <c r="D24" s="567"/>
-      <c r="E24" s="568"/>
+      <c r="C24" s="593"/>
+      <c r="D24" s="593"/>
+      <c r="E24" s="594"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12317,35 +12338,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="541" t="s">
+      <c r="K27" s="567" t="s">
         <v>132</v>
       </c>
-      <c r="L27" s="541"/>
-      <c r="M27" s="541"/>
+      <c r="L27" s="567"/>
+      <c r="M27" s="567"/>
       <c r="N27" s="452"/>
       <c r="O27" s="452"/>
       <c r="P27" s="468"/>
       <c r="Q27" s="468"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="538" t="s">
+      <c r="N28" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="O28" s="538"/>
-      <c r="P28" s="539" t="s">
+      <c r="O28" s="564"/>
+      <c r="P28" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="Q28" s="540"/>
+      <c r="Q28" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12362,6 +12376,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12427,50 +12448,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590">
+      <c r="B2" s="603">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="580"/>
+      <c r="Q2" s="580"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12481,9 +12502,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12502,22 +12523,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12528,22 +12549,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12554,27 +12575,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="496">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="484">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12769,12 +12790,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="614" t="s">
+      <c r="B14" s="601" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="615"/>
-      <c r="D14" s="615"/>
-      <c r="E14" s="615"/>
+      <c r="C14" s="602"/>
+      <c r="D14" s="602"/>
+      <c r="E14" s="602"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12796,13 +12817,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="576" t="s">
+      <c r="B15" s="554" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="577"/>
-      <c r="D15" s="577"/>
-      <c r="E15" s="577"/>
-      <c r="F15" s="613"/>
+      <c r="C15" s="555"/>
+      <c r="D15" s="555"/>
+      <c r="E15" s="555"/>
+      <c r="F15" s="600"/>
       <c r="G15" s="56" t="s">
         <v>74</v>
       </c>
@@ -12821,12 +12842,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="566" t="s">
+      <c r="B16" s="592" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="567"/>
-      <c r="D16" s="567"/>
-      <c r="E16" s="568"/>
+      <c r="C16" s="593"/>
+      <c r="D16" s="593"/>
+      <c r="E16" s="594"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12873,39 +12894,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="541" t="s">
+      <c r="L19" s="567" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="541"/>
-      <c r="N19" s="541"/>
+      <c r="M19" s="567"/>
+      <c r="N19" s="567"/>
       <c r="O19" s="452"/>
       <c r="P19" s="452"/>
       <c r="Q19" s="468"/>
       <c r="R19" s="468"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="538" t="s">
+      <c r="O20" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P20" s="538"/>
-      <c r="Q20" s="539" t="s">
+      <c r="P20" s="564"/>
+      <c r="Q20" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R20" s="540"/>
+      <c r="R20" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12919,6 +12929,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12992,47 +13013,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="568"/>
+      <c r="C2" s="569"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="577" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="578"/>
+      <c r="G2" s="578"/>
+      <c r="H2" s="579"/>
+      <c r="I2" s="584" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="585"/>
+      <c r="K2" s="588">
         <f>Данные!B16</f>
         <v>32</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="589"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="580"/>
+      <c r="Q2" s="580"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="571"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="581" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="582"/>
+      <c r="H3" s="583"/>
+      <c r="I3" s="586"/>
+      <c r="J3" s="587"/>
+      <c r="K3" s="590"/>
+      <c r="L3" s="591"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13043,9 +13064,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="574"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="576"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13064,22 +13085,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="596"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="494"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="558"/>
+      <c r="K5" s="508"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13090,22 +13111,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="494"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="557"/>
+      <c r="J6" s="558"/>
+      <c r="K6" s="508"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13116,27 +13137,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="580"/>
-      <c r="D7" s="496">
+      <c r="C7" s="560"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="579" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="583"/>
-      <c r="K7" s="484">
+      <c r="J7" s="563"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13616,28 +13637,35 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="616" t="s">
+      <c r="L23" s="632" t="s">
         <v>132</v>
       </c>
-      <c r="M23" s="616"/>
-      <c r="N23" s="616"/>
+      <c r="M23" s="632"/>
+      <c r="N23" s="632"/>
       <c r="O23" s="452"/>
       <c r="P23" s="452"/>
       <c r="Q23" s="468"/>
       <c r="R23" s="468"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="538" t="s">
+      <c r="O24" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P24" s="538"/>
-      <c r="Q24" s="539" t="s">
+      <c r="P24" s="564"/>
+      <c r="Q24" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R24" s="540"/>
+      <c r="R24" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13652,13 +13680,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13726,47 +13747,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="568"/>
+      <c r="C2" s="569"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="577" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="578"/>
+      <c r="G2" s="578"/>
+      <c r="H2" s="579"/>
+      <c r="I2" s="584" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="585"/>
+      <c r="K2" s="588">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="589"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="617"/>
-      <c r="Q2" s="617"/>
+      <c r="P2" s="633"/>
+      <c r="Q2" s="633"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="571"/>
+      <c r="C3" s="572"/>
+      <c r="D3" s="573"/>
+      <c r="E3" s="581" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="582"/>
+      <c r="G3" s="582"/>
+      <c r="H3" s="583"/>
+      <c r="I3" s="586"/>
+      <c r="J3" s="587"/>
+      <c r="K3" s="590"/>
+      <c r="L3" s="591"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13777,9 +13798,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="574"/>
+      <c r="C4" s="575"/>
+      <c r="D4" s="576"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13798,22 +13819,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="596"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="494"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="557"/>
+      <c r="J5" s="558"/>
+      <c r="K5" s="508"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13824,22 +13845,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="494"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="557"/>
+      <c r="J6" s="558"/>
+      <c r="K6" s="508"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13850,27 +13871,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="580"/>
-      <c r="D7" s="496">
+      <c r="C7" s="560"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="579" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="559" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="583"/>
-      <c r="K7" s="484">
+      <c r="J7" s="563"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14152,28 +14173,34 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="616" t="s">
+      <c r="L18" s="632" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="616"/>
-      <c r="N18" s="616"/>
+      <c r="M18" s="632"/>
+      <c r="N18" s="632"/>
       <c r="O18" s="452"/>
       <c r="P18" s="452"/>
       <c r="Q18" s="468"/>
       <c r="R18" s="468"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="538" t="s">
+      <c r="O19" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="538"/>
-      <c r="Q19" s="539" t="s">
+      <c r="P19" s="564"/>
+      <c r="Q19" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R19" s="540"/>
+      <c r="R19" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14189,12 +14216,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14266,60 +14287,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B18</f>
         <v>160</v>
       </c>
-      <c r="L2" s="610"/>
-      <c r="M2" s="618"/>
-      <c r="N2" s="619"/>
-      <c r="O2" s="619"/>
-      <c r="P2" s="619"/>
-      <c r="Q2" s="619"/>
-      <c r="R2" s="620"/>
+      <c r="L2" s="623"/>
+      <c r="M2" s="634"/>
+      <c r="N2" s="635"/>
+      <c r="O2" s="635"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
+      <c r="R2" s="636"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
-      <c r="M3" s="621"/>
-      <c r="N3" s="622"/>
-      <c r="O3" s="622"/>
-      <c r="P3" s="622"/>
-      <c r="Q3" s="622"/>
-      <c r="R3" s="623"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
+      <c r="M3" s="637"/>
+      <c r="N3" s="638"/>
+      <c r="O3" s="638"/>
+      <c r="P3" s="638"/>
+      <c r="Q3" s="638"/>
+      <c r="R3" s="639"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14328,95 +14349,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="621"/>
-      <c r="N4" s="622"/>
-      <c r="O4" s="622"/>
-      <c r="P4" s="622"/>
-      <c r="Q4" s="622"/>
-      <c r="R4" s="623"/>
+      <c r="M4" s="637"/>
+      <c r="N4" s="638"/>
+      <c r="O4" s="638"/>
+      <c r="P4" s="638"/>
+      <c r="Q4" s="638"/>
+      <c r="R4" s="639"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="495"/>
-      <c r="M5" s="621"/>
-      <c r="N5" s="622"/>
-      <c r="O5" s="622"/>
-      <c r="P5" s="622"/>
-      <c r="Q5" s="622"/>
-      <c r="R5" s="623"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
+      <c r="M5" s="637"/>
+      <c r="N5" s="638"/>
+      <c r="O5" s="638"/>
+      <c r="P5" s="638"/>
+      <c r="Q5" s="638"/>
+      <c r="R5" s="639"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="495"/>
-      <c r="M6" s="621"/>
-      <c r="N6" s="622"/>
-      <c r="O6" s="622"/>
-      <c r="P6" s="622"/>
-      <c r="Q6" s="622"/>
-      <c r="R6" s="623"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
+      <c r="M6" s="637"/>
+      <c r="N6" s="638"/>
+      <c r="O6" s="638"/>
+      <c r="P6" s="638"/>
+      <c r="Q6" s="638"/>
+      <c r="R6" s="639"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="496">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="484">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
-      <c r="M7" s="621"/>
-      <c r="N7" s="622"/>
-      <c r="O7" s="622"/>
-      <c r="P7" s="622"/>
-      <c r="Q7" s="622"/>
-      <c r="R7" s="623"/>
+      <c r="L7" s="499"/>
+      <c r="M7" s="637"/>
+      <c r="N7" s="638"/>
+      <c r="O7" s="638"/>
+      <c r="P7" s="638"/>
+      <c r="Q7" s="638"/>
+      <c r="R7" s="639"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14830,12 +14851,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="566" t="s">
+      <c r="B21" s="592" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="567"/>
-      <c r="D21" s="567"/>
-      <c r="E21" s="568"/>
+      <c r="C21" s="593"/>
+      <c r="D21" s="593"/>
+      <c r="E21" s="594"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14880,34 +14901,28 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="616" t="s">
+      <c r="L24" s="632" t="s">
         <v>132</v>
       </c>
-      <c r="M24" s="616"/>
-      <c r="N24" s="616"/>
+      <c r="M24" s="632"/>
+      <c r="N24" s="632"/>
       <c r="O24" s="452"/>
       <c r="P24" s="452"/>
       <c r="Q24" s="468"/>
       <c r="R24" s="468"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="538" t="s">
+      <c r="O25" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P25" s="538"/>
-      <c r="Q25" s="539" t="s">
+      <c r="P25" s="564"/>
+      <c r="Q25" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R25" s="540"/>
+      <c r="R25" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14924,6 +14939,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14988,47 +15009,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="590"/>
-      <c r="C2" s="591"/>
-      <c r="D2" s="592"/>
-      <c r="E2" s="599" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="600"/>
-      <c r="G2" s="600"/>
-      <c r="H2" s="601"/>
-      <c r="I2" s="605" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="606"/>
-      <c r="K2" s="609">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>200</v>
       </c>
-      <c r="L2" s="610"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="624"/>
-      <c r="Q2" s="624"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="593"/>
-      <c r="C3" s="594"/>
-      <c r="D3" s="595"/>
-      <c r="E3" s="602" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="603"/>
-      <c r="G3" s="603"/>
-      <c r="H3" s="604"/>
-      <c r="I3" s="607"/>
-      <c r="J3" s="608"/>
-      <c r="K3" s="611"/>
-      <c r="L3" s="612"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15039,9 +15060,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="596"/>
-      <c r="C4" s="597"/>
-      <c r="D4" s="598"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15060,22 +15081,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="595" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="493" t="str">
+      <c r="C5" s="626"/>
+      <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="494"/>
-      <c r="F5" s="494"/>
-      <c r="G5" s="494"/>
-      <c r="H5" s="495"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="495"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
+      <c r="H5" s="509"/>
+      <c r="I5" s="627"/>
+      <c r="J5" s="628"/>
+      <c r="K5" s="629"/>
+      <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15086,22 +15107,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="595" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="487" t="str">
+      <c r="C6" s="626"/>
+      <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XIII-В-28-2-500-4 (Фляга 0,5 л.)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="495"/>
+      <c r="E6" s="598"/>
+      <c r="F6" s="598"/>
+      <c r="G6" s="598"/>
+      <c r="H6" s="599"/>
+      <c r="I6" s="627"/>
+      <c r="J6" s="628"/>
+      <c r="K6" s="629"/>
+      <c r="L6" s="509"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15112,27 +15133,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="579" t="s">
+      <c r="B7" s="559" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="496">
+      <c r="C7" s="630"/>
+      <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="581"/>
-      <c r="F7" s="581"/>
-      <c r="G7" s="581"/>
-      <c r="H7" s="582"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="561"/>
+      <c r="H7" s="562"/>
+      <c r="I7" s="631" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="484">
+      <c r="J7" s="630"/>
+      <c r="K7" s="498">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="485"/>
+      <c r="L7" s="499"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15395,12 +15416,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="566" t="s">
+      <c r="B16" s="592" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="567"/>
-      <c r="D16" s="567"/>
-      <c r="E16" s="568"/>
+      <c r="C16" s="593"/>
+      <c r="D16" s="593"/>
+      <c r="E16" s="594"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15445,38 +15466,28 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="616" t="s">
+      <c r="L19" s="632" t="s">
         <v>132</v>
       </c>
-      <c r="M19" s="616"/>
-      <c r="N19" s="616"/>
+      <c r="M19" s="632"/>
+      <c r="N19" s="632"/>
       <c r="O19" s="452"/>
       <c r="P19" s="452"/>
       <c r="Q19" s="468"/>
       <c r="R19" s="468"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="538" t="s">
+      <c r="O20" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="P20" s="538"/>
-      <c r="Q20" s="539" t="s">
+      <c r="P20" s="564"/>
+      <c r="Q20" s="565" t="s">
         <v>137</v>
       </c>
-      <c r="R20" s="540"/>
+      <c r="R20" s="566"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15489,6 +15500,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
